--- a/backend/الغزوات.xlsx
+++ b/backend/الغزوات.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f58b35e40015d4ae/سطح المكتب/Raya.github.io/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="11_B8ACEE991895064A1CB304B4C4E8A0A449CCCB21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E6E0509-1BD7-4197-8D92-94CE71571D17}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_B8ACEE991895064A1CB304B4C4E8A0A449CCCB21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11EF1636-04E0-4C41-B4B4-B1D518A0CF59}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,9 +433,6 @@
     <t>انتصار المسلمين وتفرق الأحزاب منهزمين بعد فشل حصارهم, تحول الموقف العسكري لصالح المسلمين، فانتقلوا من الدفاع إلى الهجوم, فضح خيانة يهود بني قريظة الذين نقضوا العهد مع المسلمين أثناء الأزمة, تمييز الصادقين من المنافقين وكشف مواقف الضعفاء, تمهيد الطريق لغزوة بني قريظة لمحاسبتهم على نقض العهد.</t>
   </si>
   <si>
-    <t xml:space="preserve"> غزوة بني قريظة</t>
-  </si>
-  <si>
     <t>المدينة المنورة (منازل بني قريظة)</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
     <t>القضاء على آخر كيان يهودي معاد في المدينة, توحيد صفوف المسلمين وتأمين المدينة من الخيانة الداخلية, و زيادة هيبة الدولة الإسلامية بين القبائل.</t>
   </si>
   <si>
-    <t xml:space="preserve"> غزوة بني المصطلق(غزوة المريسيع)</t>
-  </si>
-  <si>
     <t>منطقَة المريسيع (ماء لبني المصطلق) بين مكة والمدينة، قرب قديد</t>
   </si>
   <si>
@@ -478,9 +472,6 @@
     <t>القضاء على تهديد بني المصطلق, حادثة الإفك (اتهام السيدة عائشة رضي الله عنها بالزنا، ثم براءتها بنزول قرآن), زيادة قوة المسلمين العسكرية والاقتصادية بالغنائم</t>
   </si>
   <si>
-    <t xml:space="preserve"> غزوة بني لحيان</t>
-  </si>
-  <si>
     <t xml:space="preserve">عسفان </t>
   </si>
   <si>
@@ -568,9 +559,6 @@
     <t>السِّيرَةُ لِابْنِ هِشَامٍ، صَحِيحُ الْبُخَارِيِّ، كِتَابُ الْمَغَازِي، كتاب المغازي،صَحِيحُ مُسْلِمٍ، كِتَابُ الْجِهَادِ</t>
   </si>
   <si>
-    <t xml:space="preserve">معركة مؤتة </t>
-  </si>
-  <si>
     <t>معركة</t>
   </si>
   <si>
@@ -977,9 +965,6 @@
   </si>
   <si>
     <t>البداية والنهاية للطبري</t>
-  </si>
-  <si>
-    <t xml:space="preserve">معركة ذات العيون </t>
   </si>
   <si>
     <t>العراق (الأنبار)</t>
@@ -1478,9 +1463,6 @@
     <t>العمليات العسكرية الصغرى التي تلت دخول خالد بن الوليد سوريا انتهت الآن. تحرك خالد بن الوليد نحو مدينة بصرى وفتحها.</t>
   </si>
   <si>
-    <t xml:space="preserve">معركة فحل </t>
-  </si>
-  <si>
     <t>ابو عبيدة بن الجراح, خالد بن الوليد, شرحبيل بن حسنة ,ميسرة بن مسروق العبسي</t>
   </si>
   <si>
@@ -2727,6 +2709,24 @@
   </si>
   <si>
     <t>التاريخ</t>
+  </si>
+  <si>
+    <t>معركة فحل</t>
+  </si>
+  <si>
+    <t>معركة ذات العيون</t>
+  </si>
+  <si>
+    <t>غزوة بني قريظة</t>
+  </si>
+  <si>
+    <t>معركة مؤتة</t>
+  </si>
+  <si>
+    <t>غزوة بني لحيان</t>
+  </si>
+  <si>
+    <t>غزوة بني المصطلق (غزوة المريسيع)</t>
   </si>
 </sst>
 </file>
@@ -2849,6 +2849,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3055,8 +3059,8 @@
   </sheetPr>
   <dimension ref="A1:AD1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3078,7 +3082,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3965,7 +3969,7 @@
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>136</v>
+        <v>897</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>17</v>
@@ -3981,31 +3985,31 @@
         <v>18</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H19" s="4">
         <v>3000</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>26</v>
@@ -4016,7 +4020,7 @@
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>144</v>
+        <v>900</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>17</v>
@@ -4032,29 +4036,29 @@
         <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H20" s="4">
         <v>700</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>26</v>
@@ -4065,7 +4069,7 @@
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>151</v>
+        <v>899</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
@@ -4081,32 +4085,32 @@
         <v>18</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H21" s="4">
         <v>200</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>27</v>
@@ -4114,7 +4118,7 @@
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>17</v>
@@ -4124,13 +4128,13 @@
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H22" s="7">
         <v>1400</v>
@@ -4140,22 +4144,22 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="5" t="s">
         <v>27</v>
@@ -4163,7 +4167,7 @@
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>17</v>
@@ -4179,31 +4183,31 @@
         <v>18</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H23" s="4">
         <v>500</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J23" s="4">
         <v>40</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>122</v>
@@ -4214,7 +4218,7 @@
     </row>
     <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>17</v>
@@ -4230,34 +4234,34 @@
         <v>18</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>1400</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J24" s="7">
         <v>10000</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>36</v>
@@ -4265,62 +4269,62 @@
     </row>
     <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>181</v>
+        <v>898</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4">
         <v>8</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H25" s="10">
         <v>3000</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>82</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D26" s="4">
         <v>8</v>
@@ -4345,19 +4349,19 @@
         <v>68</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>55</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="5" t="s">
         <v>27</v>
@@ -4365,7 +4369,7 @@
     </row>
     <row r="27" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>17</v>
@@ -4381,34 +4385,34 @@
         <v>18</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H27" s="12">
         <v>12000</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J27" s="12">
         <v>20000</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>55</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="5" t="s">
         <v>27</v>
@@ -4416,7 +4420,7 @@
     </row>
     <row r="28" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>17</v>
@@ -4432,32 +4436,32 @@
         <v>18</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H28" s="12">
         <v>12000</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>82</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q28" s="5" t="s">
         <v>27</v>
@@ -4465,7 +4469,7 @@
     </row>
     <row r="29" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>17</v>
@@ -4481,86 +4485,86 @@
         <v>18</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H29" s="12">
         <v>30000</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="10" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>33</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4">
         <v>11</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H30" s="4">
         <v>13000</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J30" s="4">
         <v>40000</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
@@ -4578,98 +4582,98 @@
     </row>
     <row r="31" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4">
         <v>11</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J31" s="4">
         <v>700</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="4">
         <v>11</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
@@ -4687,341 +4691,341 @@
     </row>
     <row r="33" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4">
         <v>11</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4">
         <v>11</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D35" s="4">
         <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D36" s="4">
         <v>12</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D37" s="4">
         <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D38" s="4">
         <v>12</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D39" s="4">
         <v>12</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
@@ -5039,647 +5043,647 @@
     </row>
     <row r="40" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D40" s="4">
         <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D41" s="4">
         <v>12</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H41" s="7">
         <v>15000</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J41" s="7">
         <v>30000</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>318</v>
+        <v>896</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D42" s="4">
         <v>12</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H42" s="7">
         <v>18000</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J42" s="7">
         <v>30000</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D43" s="4">
         <v>12</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H43" s="7">
         <v>18000</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D44" s="4">
         <v>12</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J44" s="7">
         <v>30000</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D45" s="4">
         <v>12</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H45" s="7">
         <v>10000</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D46" s="4">
         <v>12</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <v>12</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D48" s="4">
         <v>12</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H48" s="7">
         <v>15000</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="J48" s="14">
         <v>50000</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D49" s="4">
         <v>12</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D50" s="4">
         <v>13</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D51" s="4">
         <v>13</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D52" s="4">
         <v>13</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J52" s="7">
         <v>12000</v>
@@ -5688,126 +5692,126 @@
         <v>21</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D53" s="4">
         <v>13</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H53" s="7">
         <v>150000</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J53" s="7">
         <v>12000</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D54" s="4">
         <v>13</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J54" s="4">
         <v>10000</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q54" s="13" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
@@ -5825,31 +5829,31 @@
     </row>
     <row r="55" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D55" s="4">
         <v>13</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H55" s="7">
         <v>25000</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="J55" s="7">
         <v>80000</v>
@@ -5858,170 +5862,170 @@
         <v>21</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D56" s="4">
         <v>13</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D57" s="4">
         <v>13</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H57" s="7">
         <v>15000</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4">
         <v>13</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H58" s="4">
         <v>1000</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="J58" s="4">
         <v>300</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q58" s="5" t="s">
         <v>36</v>
@@ -6029,155 +6033,155 @@
     </row>
     <row r="59" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D59" s="4">
         <v>13</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D60" s="4">
         <v>13</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H60" s="7">
         <v>10000</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D61" s="4">
         <v>13</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q61" s="13" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
@@ -6195,457 +6199,457 @@
     </row>
     <row r="62" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D62" s="4">
         <v>13</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="15" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N62" s="4"/>
       <c r="O62" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>484</v>
+        <v>895</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D63" s="4">
         <v>13</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H63" s="7">
         <v>30000</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D64" s="4">
         <v>13</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4">
         <v>13</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H65" s="7">
         <v>17000</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J65" s="14">
         <v>20000</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4">
         <v>13</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J66" s="7">
         <v>20000</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4">
         <v>14</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D68" s="4">
         <v>14</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D69" s="4">
         <v>15</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H69" s="4">
         <v>40000</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J69" s="4">
         <v>200000</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D70" s="4">
         <v>15</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="H70" s="4">
         <v>36000</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J70" s="4">
         <v>200000</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q70" s="13" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
@@ -6663,100 +6667,100 @@
     </row>
     <row r="71" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D71" s="4">
         <v>15</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D72" s="4">
         <v>15</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="Q72" s="13" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
@@ -6774,460 +6778,460 @@
     </row>
     <row r="73" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D73" s="4">
         <v>15</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4">
         <v>15</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D75" s="4">
         <v>15</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H75" s="7">
         <v>20000</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D76" s="4">
         <v>15</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D77" s="4">
         <v>15</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="H77" s="7">
         <v>15000</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D78" s="4">
         <v>16</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="H78" s="7">
         <v>17000</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N78" s="4"/>
       <c r="O78" s="4" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D79" s="4">
         <v>16</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="H79" s="7">
         <v>12000</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J79" s="7">
         <v>20000</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D80" s="4">
         <v>16</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D81" s="4">
         <v>17</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>2</v>
@@ -7237,1011 +7241,1011 @@
         <v>17</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J82" s="4"/>
       <c r="K82" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>33</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D83" s="4">
         <v>18</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="H83" s="7">
         <v>17000</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J83" s="14">
         <v>70000</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="Q83" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D84" s="4">
         <v>19</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H84" s="7">
         <v>15000</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="J84" s="7">
         <v>20000</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D85" s="4">
         <v>20</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D86" s="4">
         <v>20</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="H86" s="7">
         <v>30000</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q86" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D87" s="4">
         <v>20</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="H87" s="7">
         <v>15000</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D88" s="4">
         <v>21</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="Q88" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D89" s="4">
         <v>21</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="H89" s="7">
         <v>30000</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q89" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D90" s="4">
         <v>21</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q90" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D91" s="4">
         <v>21</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="H91" s="7">
         <v>20000</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>82</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="P91" s="4" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="Q91" s="5" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D92" s="4">
         <v>21</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="M92" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="P92" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D93" s="4">
         <v>22</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="H93" s="7">
         <v>30000</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J93" s="7">
         <v>50000</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="M93" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="P93" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q93" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D94" s="4">
         <v>22</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="M94" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q94" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D95" s="4">
         <v>22</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J95" s="7">
         <v>40000</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N95" s="4"/>
       <c r="O95" s="4" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q95" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="D96" s="4">
         <v>23</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="M96" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q96" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="97" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D97" s="4">
         <v>23</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="M97" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="P97" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q97" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D98" s="4">
         <v>24</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="M98" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q98" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D99" s="4">
         <v>25</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="H99" s="7">
         <v>15000</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q99" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="100" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D100" s="4">
         <v>27</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="H100" s="7">
         <v>20000</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J100" s="7">
         <v>120000</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="M100" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q100" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D101" s="4">
         <v>27</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="M101" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="Q101" s="5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>17</v>
@@ -8251,441 +8255,441 @@
         <v>27</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="M102" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q102" s="5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D103" s="4">
         <v>27</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="M103" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="Q103" s="5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D104" s="16">
         <v>29</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="I104" s="16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J104" s="16" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="K104" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L104" s="16" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="M104" s="16" t="s">
         <v>23</v>
       </c>
       <c r="N104" s="16" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="O104" s="16" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="P104" s="16" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="Q104" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="105" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D105" s="4">
         <v>29</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="M105" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q105" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D106" s="4">
         <v>30</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="M106" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q106" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="107" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D107" s="4">
         <v>31</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="H107" s="7">
         <v>5000</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="M107" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="Q107" s="5" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D108" s="4">
         <v>31</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="M108" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q108" s="5" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D109" s="4">
         <v>31</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="M109" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="P109" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q109" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="110" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D110" s="4">
         <v>33</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="J110" s="4">
         <v>40000</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="M110" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="O110" s="4" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="P110" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q110" s="13" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="R110" s="13"/>
       <c r="S110" s="13"/>
@@ -8703,253 +8707,253 @@
     </row>
     <row r="111" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="D111" s="4">
         <v>36</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="4" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="M111" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="P111" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q111" s="5" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4">
         <v>36</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="H112" s="7">
         <v>20000</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="J112" s="7">
         <v>30000</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="M112" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="P112" s="4"/>
       <c r="Q112" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4">
         <v>37</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H113" s="4">
         <v>1000</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="J113" s="4">
         <v>2400</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="M113" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="P113" s="4" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="Q113" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4">
         <v>37</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="H114" s="7">
         <v>130000</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="J114" s="7">
         <v>135000</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="M114" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="P114" s="4" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="Q114" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4">
         <v>38</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="H115" s="4">
         <v>14000</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="J115" s="4">
         <v>4000</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="M115" s="4" t="s">
         <v>55</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q115" s="13" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="R115" s="13"/>
       <c r="S115" s="13"/>
@@ -8967,49 +8971,49 @@
     </row>
     <row r="116" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4">
         <v>38</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="M116" s="4" t="s">
         <v>82</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="P116" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q116" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">

--- a/backend/الغزوات.xlsx
+++ b/backend/الغزوات.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f58b35e40015d4ae/سطح المكتب/Raya.github.io/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="11_B8ACEE991895064A1CB304B4C4E8A0A449CCCB21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11EF1636-04E0-4C41-B4B4-B1D518A0CF59}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="11_B8ACEE991895064A1CB304B4C4E8A0A449CCCB21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9C964DF-CACD-4D66-8F6F-4B013FD6E3D4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3059,8 +3059,8 @@
   </sheetPr>
   <dimension ref="A1:AD1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1037" sqref="L1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/backend/الغزوات.xlsx
+++ b/backend/الغزوات.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f58b35e40015d4ae/سطح المكتب/Raya.github.io/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="11_B8ACEE991895064A1CB304B4C4E8A0A449CCCB21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E237487C-AD6A-44E2-AC61-EE0071894A57}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="11_B8ACEE991895064A1CB304B4C4E8A0A449CCCB21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86DC1A95-C94D-49F0-BA0D-17CB18DEE68A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
     <t>قبيلة بني لحيان</t>
   </si>
   <si>
-    <t>ِفي السَّنَةِ السَّادِسَةِ لِلْهِجْرَةِ، قَرَّرَ الرَّسُولُ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ مُعَاقَبَةَ قَبِيلَةِ بَنِي لَحْيَانَ بَعْدَ غَدْرِهِمْ بِالصَّحَابَةِ فِي حَادِثَةِ الرَّجِيعِ. تَجَمَّعَ جَيْشُ المُسْلِمِينَ البَالِغُ مِئَتَيْ مُقَاتِلٍ عِنْدَ مَشَارِفِ المَدِينَةِ، مُسْتَعِدِّينَ لِلتَّحَرُّكِ. اتَّبَعَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ اسْتِرَاتِيجِيَّةً عَسْكَرِيَّةً بَارِعَةً، حَيْثُ أَعْلَنَ فِي البِدَايَةِ عَنْ تَوَجُّهِهِ نَحْوَ الشَّامِ لِيَبُثَّ التَّضْلِيلَ. سَارَ الجَيْشُ شَمَالًا مَسَافَةَ عِشْرِينَ مِيلًا، ثُمَّ غَيَّرَ اتِّجَاهَهُ فَجْأَةً نَحْوَ الجَنُوبِ حَيْثُ تَقَعُ دِيَارُ بَنِي لَحْيَانَ. هَذِهِ المُنَاوَرَةُ الذَّكِيَّةُ أَظْهَرَتْ بَرَاعَةَ التَّخْطِيطِ العَسْكَرِيِّ النَّبَوِيِّ. عِنْدَمَا اقْتَرَبَ الجَيْشُ الإِسْلَامِيُّ، فَرَّ أَفْرَادُ القَبِيلَةِ إِلَى الجِبَالِ خَوْفًا مِنَ المُوَاجَهَةِ، تَارِكِينَ مُمْتَلَكَاتِهِمْ وَمَوَاشِيَهُمْ. أَقَامَ المُسْلِمُونَ فِي المِنْطَقَةِ يَوْمَيْنِ، وَأَرْسَلُوا مَجْمُوعَاتٍ اسْتِكْشَافِيَّةً لِلْبَحْثِ عَنِ الهَارِبِينَ، لَكِنَّهُمْ لَمْ يَعْثُرُوا عَلَيْهِمْ. انْتَهَزَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ الفُرْصَةَ لِإِرْسَالِ مَجْمُوعَةٍ اسْتِطْلَاعِيَّةٍ بِقِيَادَةِ أَبِي بَكْرٍ الصِّدِّيقِ إِلَى مَشَارِفِ مَكَّةَ، مِمَّا سَبَّبَ ذُعْرًا كَبِيرًا بَيْنَ صُفُوفِ قُرَيْشٍ الَّتِي ظَنَّتْ أَنَّ جَيْشَ المُسْلِمِينَ قَادِمٌ لِغَزْوِهَا. فِي طَرِيقِ العَوْدَةِ، تَوَقَّفَ الجَيْشُ عِنْدَ وَادِي غُرَانَ حَيْثُ اسْتُشْهِدَ الصَّحَابَةُ فِي حَادِثَةِ الرَّجِيعِ، فَتَرَحَّمَ عَلَيْهِمُ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ وَدَعَا لَهُمْ. كَانَتْ هَذِهِ الغَزْوَةُ نَمُوذَجًا لِلرَّدْعِ الاسْتِرَاتِيجِيِّ، حَيْثُ حَقَّقَتْ أَهْدَافَهَا دُونَ إِرَاقَةِ دِمَاءٍ. أَثْبَتَتِ الغَزْوَةُ بَرَاعَةَ القِيَادَةِ النَّبَوِيَّةِ فِي التَّخْطِيطِ العَسْكَرِيِّ، وَقُدْرَةَ المُسْلِمِينَ عَلَى الوُصُولِ إِلَى قَلْبِ أَرَاضِي العَدُوِّ مَتَى شَاءُوا. كَمَا عَزَّزَتْ مَكَانَةَ الدَّوْلَةِ الإِسْلَامِيَّةِ النَّاشِئَةِ، وَأَرْسَلَتْ رِسَالَةً وَاضِحَةً لِلْقَبَائِلِ المُعَادِيَةِ بِعَدَمِ الإِفْلَاتِ مِنَ العِقَابِ.</t>
+    <t>فِي السَّنَةِ السَّادِسَةِ لِلْهِجْرَةِ، قَرَّرَ الرَّسُولُ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ مُعَاقَبَةَ بَنِي لَحْيَانَ بَعْدَ غَدْرِهِمْ بِالصَّحَابَةِ فِي الرَّجِيعِ. تَجَمَّعَ مِئَتَا مُقَاتِلٍ، وَاتَّبَعَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ خُطَّةً بَارِعَةً، أَوْهَمَ فِيهَا بِالتَّوَجُّهِ نَحْوَ الشَّامِ، ثُمَّ غَيَّرَ مَسَارَهُ نَحْوَ دِيَارِ بَنِي لَحْيَانَ. فَرُّوا خَوْفًا، فَأَقَامَ المُسْلِمُونَ يَوْمَيْنِ، وَأَرْسَلُوا مَجْمُوعَاتٍ لِلبَحْثِ عَنْهُمْ. وَأَرْسَلَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ فِرْقَةً إِلَى مَشَارِفِ مَكَّةَ فَأَثَارُوا الذُّعْرَ فِي قُرَيْشٍ. وَفِي طَرِيقِ العَوْدَةِ، تَوَقَّفَ فِي وَادِي غُرَانَ وَتَرَحَّمَ عَلَى شُهَدَاءِ الرَّجِيعِ. كَانَتْ الغَزْوَةُ نَمُوذَجًا فِي الرَّدْعِ وَالبَرَاعَةِ العَسْكَرِيَّةِ.</t>
   </si>
   <si>
     <t>بعد رحيل الأحزاب عام 5 هـ، انتقل المسلمون من دور الدفاع إلى دور الهجوم وأصبحوا يمسكون بأيديهم زمام المبادرة، وحان الوقت لتأديب بعض القبائل ومنهم بنو لحيان وهم حي من هذيل، الذين غدروا بخبيب بن عدي رضي الله عنه وأصحابه يوم الرجيع 4هـ، وكذلك أخذ ثأر الشهداء.</t>
@@ -530,7 +530,7 @@
     <t>سهيل بن عمرو</t>
   </si>
   <si>
-    <t>في ذِي القَعْدَةِ مِنَ السَّنَةِ السَّادِسَةِ لِلهِجْرَةِ رَأَى رَسُولُ اللهِ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ فِي المَنَامِ أَنَّهُ يَعْتَمِرُ، فَخَرَجَ مِنَ المَدِينَةِ المُنَوَّرَةِ يَصْحَبُهُ نَحْوَ أَلْفٍ وَأَرْبَعِ مِئَةٍ مِنَ المُهَاجِرِينَ وَالأَنْصَارِ، وَلَمْ يَحْمِلُوا غَيْرَ سُيُوفِ المُسَافِرِ، وَمَعَهُمْ سَبْعُونَ بَدَنَةً لِلْهَدْيِ، تَأْكِيدًا لِنِيَّةِ السِّلْمِ لَا القِتَالِ. وَلَمَّا عَلِمَتْ قُرَيْشٌ بِخُرُوجِهِمْ بَعَثَتْ خَالِدَ بْنَ الوَلِيدِ بِخَيْلٍ لِصَدِّهِمْ، فَمَالَ الرَّكْبُ عَنِ الطَّرِيقِ حَتَّى بَرَكَتْ نَاقَةُ النَّبِيِّ «القَصْوَاءُ» فِي سَهْلِ الحُدَيْبِيَةِ، وَهُوَ مَوْضِعٌ يُعْرَفُ اليَوْمَ بِالشَّمِيِّسِيِّ عَلَى مَقْرُبَةٍ مِنْ حُدُودِ الحَرَمِ غَرْبَ مَكَّةَ، فَقَالَ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ: «مَا خَلَأَتِ القَصْوَاءُ، وَلَكِنْ حَبَسَهَا حَابِسُ الفِيلِ». نَفِدَ مَاءُ البِئْرِ هُنَاكَ، فَغَرَسَ النَّبِيُّ سَهْمًا فِي قَعْرِهَا فَانْبَجَسَ المَاءُ فَشَرِبَ النَّاسُ وَالإِبِلُ. ثُمَّ أُرْسِلَ خُرَاشُ بْنُ أُمَيَّةَ بِرِسَالَةِ سِلْمٍ فَرَدَّتْهُ قُرَيْشٌ، وَأَوْفَدَ عُثْمَانَ بْنَ عَفَّانَ رَضِيَ اللهُ عَنْهُ فَشَاعَ خَبَرُ مَقْتَلِهِ، فَجَمَعَ النَّبِيُّ أَصْحَابَهُ تَحْتَ شَجَرَةٍ فَبَايَعُوهُ عَلَى الثَّبَاتِ فِيمَا عُرِفَ بِبَيْعَةِ الرِّضْوَانِ، وَأَنْزَلَ اللهُ حِينَئِذٍ قَوْلَهُ تَعَالَى: ﴿لَقَدْ رَضِيَ اللهُ عَنِ المُؤْمِنِينَ إِذْ يُبَايِعُونَكَ تَحْتَ الشَّجَرَةِ﴾. عِنْدَئِذٍ قَدِمَ سُهَيْلُ بْنُ عَمْرٍو مُفَاوِضًا عَنْ قُرَيْشٍ، فَصِيغَتْ وَثِيقَةُ الصُّلْحِ عَلَى أَنْ تُوضَعَ الحَرْبُ عَشْرَ سِنِينَ، وَأَنْ يَرْجِعَ المُسْلِمُونَ عَامَهُمْ هٰذَا عَلَى أَنْ يُؤَدُّوا العُمْرَةَ فِي العَامِ المُقْبِلِ، وَأَنْ يُتْرَكَ لِلْقَبَائِلِ حُرِّيَّةُ الدُّخُولِ فِي حِلْفِ مُحَمَّدٍ أَوْ حِلْفِ قُرَيْشٍ، وَأَنْ يَرُدَّ المُسْلِمُونَ مَنْ يَفِدْ عَلَيْهِمْ مِنْ رِجَالِ قُرَيْشٍ دُونَ إِذْنِ وَلِيِّهِ، وَلَا تُلْزَمُ قُرَيْشٌ بِرَدِّ مَنْ يَرْجِعُ إِلَيْهَا مِنَ المُسْلِمِينَ. قَبِلَ النَّبِيُّ هٰذِهِ الشُّرُوطَ عَلَى صُعُوبَتِهَا، ثُمَّ نَحَرَ الهَدْيَ وَأَمَرَ أَصْحَابَهُ بِالحَلْقِ، فَتَلَكَّؤُوا حُزْنًا حَتَّى بَادَرَ فَفَعَلَ فَاقْتَدَوْا بِهِ، فَنَزَلَ صَدْرُ سُورَةِ «الفَتْحِ» يُبَشِّرُ بِأَنَّ هٰذَا الصُّلْحَ هُوَ «الفَتْحُ المُبِينُ». وَمَا لَبِثَ المُسْلِمُونَ أَنْ فَتَحُوا خَيْبَرَ بَعْدَ بُضْعَةِ أَشْهُرٍ، وَدَخَلَ فِي الإِسْلَامِ وُجَهَاءٌ مِنْ قُرَيْشٍ كَخَالِدِ بْنِ الوَلِيدِ وَعَمْرِو بْنِ العَاصِ، حَتَّى خَرَقَتْ قُرَيْشٌ الهُدْنَةَ بِنُصْرَتِهَا بَنِي بَكْرٍ عَلَى خُزَاعَةَ، فَكَانَ ذٰلِكَ سَبَبَ فَتْحِ مَكَّةَ فِي رَمَضَانَ مِنَ السَّنَةِ الثَّامِنَةِ لِلهِجْرَةِ، لِيَتَبَيَّنَ أَنَّ التَّنَازُلَ يَوْمَ الحُدَيْبِيَةِ كَانَ خُطْوَةً اسْتِرَاتِيجِيَّةً مَهَّدَتْ لاِنْتِشَارِ الدَّعْوَةِ فِي جَزِيرَةِ العَرَبِ كُلِّهَا.</t>
+    <t>فِي السَّنَةِ السَّادِسَةِ لِلهِجْرَةِ، رَأَى النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ أَنَّهُ يَعْتَمِرُ، فَخَرَجَ بِأَلْفٍ وَأَرْبَعِ مِئَةٍ، وَمَعَهُمْ بَدَنَاتٌ لِلهَدْيِ، وَسُيُوفُ المُسَافِرِ. حِينَ صَدَّتْهُمْ قُرَيْشٌ، تَوَقَّفَ فِي الحُدَيْبِيَةِ، فَغَرَسَ سَهْمًا فِي البِئْرِ فَانْفَجَرَ المَاءُ. فَبَايَعَهُ أَصْحَابُهُ تَحْتَ الشَّجَرَةِ فِي بَيْعَةِ الرِّضْوَانِ. ثُمَّ جَاءَ سُهَيْلُ بْنُ عَمْرٍو، وَتَمَّ صُلْحُ الحُدَيْبِيَةِ عَلَى وَقْفِ القِتَالِ عَشْرَ سِنِينَ، وَأَنْ تَكُونَ العُمْرَةُ فِي العَامِ القَادِمِ. قَبِلَ النَّبِيُّ الشُّرُوطَ، وَنَزَلَ قَوْلُهُ تَعَالَى: ﴿إِنَّا فَتَحْنَا لَكَ فَتْحًا مُبِينًا﴾. وَبَعْدَ أَشْهُرٍ، فُتِحَتْ خَيْبَرُ، وَأَسْلَمَ كِبَارُ قُرَيْشٍ، وَخَانَتْ قُرَيْشٌ العَهْدَ، فَكَانَ ذٰلِكَ سَبَبَ فَتْحِ مَكَّة.</t>
   </si>
   <si>
     <t>رغبة المسلمين في العمرة ومنع قريش لهم</t>
@@ -3160,8 +3160,8 @@
   </sheetPr>
   <dimension ref="A1:AD1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4248,7 +4248,7 @@
       <c r="K22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="29" t="s">
         <v>163</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -4299,7 +4299,7 @@
       <c r="K23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="29" t="s">
         <v>171</v>
       </c>
       <c r="M23" s="3" t="s">

--- a/backend/الغزوات.xlsx
+++ b/backend/الغزوات.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f58b35e40015d4ae/سطح المكتب/Raya.github.io/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="11_B8ACEE991895064A1CB304B4C4E8A0A449CCCB21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86DC1A95-C94D-49F0-BA0D-17CB18DEE68A}"/>
+  <xr:revisionPtr revIDLastSave="432" documentId="11_B8ACEE991895064A1CB304B4C4E8A0A449CCCB21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6D969C1-BCC3-4BF0-B0D4-87A5043B8F4E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>غير محدد</t>
   </si>
   <si>
-    <t>فِي شَهْرِ صَفَرٍ مِنَ السَّنَةِ الثَّانِيَةِ لِلْهِجْرَةِ، خَرَجَ رَسُولُ اللهِ بِنَفْسِهِ فِي أُوْلَى غَزَوَاتِهِ، وَكَانَ مَعَهُ سَبْعُونَ رَجُلًا مِنَ الْمُهَاجِرِينَ. وَقَدِ اسْتَخْلَفَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ عَلَى الْمَدِينَةِ سَعْدَ بْنَ عُبَادَةَ رضي الله عنه، ثُمَّ تَوَجَّهَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ بِالْجَيْشِ لِيَعْتَرِضَ قَافِلَةً لِقُرَيْشٍ كَانَتْ تَمُرُّ بِتِلْكَ الْمَنَاطِقِ. وَصَلَ الجَيْشُ إِلَى مَنْطِقَةِ وُدَّان (وَتُسَمَّى أَيْضًا الأَبْواء)، وَلَكِنَّهُمْ لَمْ يَلْقَوْا قَافِلَةً وَلَا حَدَثَ قِتَالٌ. وَفِي هَذِهِ الْغَزْوَةِ، عَقَدَ رَسُولُ اللهِ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ مُعَاهَدَةَ أَمْنٍ وَسِلْمٍ مَعَ بَنِي ضَمْرَةَ، وَكَانَ سَيِّدُهُمْ يُدْعَى عَمْرُو بْنُ مَخْشِيٍّ الضَّمْرِيِّ. وَقَدْ نَصَّتِ الْمُعَاهَدَةُ عَلَى: أَنْ يَكُونَ بَيْنَ الْمُسْلِمِينَ وَبَنِي ضَمْرَةَ أَمْنٌ وَسِلْمٌ. وَأَنْ لَا يُنَاصِرُوا أَعْدَاءَ النَّبِيِّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ . وَإِذَا احْتَاجَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ إِلَى نُصْرَتِهِمْ، فَإِنَّهُمْ يَنْصُرُونَهُ. وَكَانَ لِوَاءُ الغَزْوَةِ أَبْيَضَ، وَقَدْ حَمَلَهُ حَمْزَةُ بْنُ عَبْدِ الْمُطَّلِبِ رضي الله عنه. وَدَامَتِ الغَزْوَةُ خَمْسَةَ عَشَرَ يَوْمًا، ثُمَّ رَجَعَ رَسُولُ اللهِ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ وَمَنْ مَعَهُ إِلَى الْمَدِينَةِ.</t>
+    <t>فِي شَهْرِ صَفَرٍ مِنَ السَّنَةِ الثَّانِيَةِ لِلْهِجْرَةِ، خَرَجَ رَسُولُ اللهِ بِنَفْسِهِ فِي أُوْلَى الغَزَوَات، وَكَانَ مَعَهُ سَبْعُونَ رَجُلًا مِنَ الْمُهَاجِرِينَ. وَقَدِ اسْتَخْلَفَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ عَلَى الْمَدِينَةِ سَعْدَ بْنَ عُبَادَةَ رضي الله عنه، ثُمَّ تَوَجَّهَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ بِالْجَيْشِ لِيَعْتَرِضَ قَافِلَةً لِقُرَيْشٍ كَانَتْ تَمُرُّ بِتِلْكَ الْمَنَاطِقِ. وَصَلَ الجَيْشُ إِلَى مَنْطِقَةِ وُدَّان (وَتُسَمَّى أَيْضًا الأَبْواء)، وَلَكِنَّهُمْ لَمْ يَلْقَوْا قَافِلَةً وَلَم يَحدُث قِتَالٌ. وَفِي هَذِهِ الْغَزْوَةِ، عَقَدَ رَسُولُ اللهِ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ مُعَاهَدَةَ أَمْنٍ وَسِلْمٍ مَعَ بَنِي ضَمْرَةَ، وَكَانَ سَيِّدُهُمْ يُدْعَى عَمْرُو بْنُ مَخْشِيٍّ الضَّمْرِيِّ. وَقَدْ نَصَّتِ الْمُعَاهَدَةُ عَلَى: أَنْ يَكُونَ بَيْنَ الْمُسْلِمِينَ وَبَنِي ضَمْرَةَ أَمْنٌ وَسِلْمٌ. وَأَنْ لَا يُنَاصِرُوا أَعْدَاءَ النَّبِيِّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ . وَإِذَا احْتَاجَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ إِلَى نُصْرَتِهِمْ، فَإِنَّهُمْ يَنْصُرُونَهُ. وَكَانَ لِوَاءُ الغَزْوَةِ أَبْيَضَ، وَقَدْ حَمَلَهُ حَمْزَةُ بْنُ عَبْدِ الْمُطَّلِبِ رضي الله عنه. وَدَامَتِ الغَزْوَةُ خَمْسَةَ عَشَرَ يَوْمًا، ثُمَّ رَجَعَ رَسُولُ اللهِ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ وَمَنْ مَعَهُ إِلَى الْمَدِينَة.</t>
   </si>
   <si>
     <t>صلح</t>
@@ -185,7 +185,7 @@
     <t>أبي سفيان بن حرب</t>
   </si>
   <si>
-    <t>خَرَجَ الرَّسُولُ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ بِـِمِئَة وَ خَمْسُونَ أَوْ 200 رَجُلٍ لِلْقَاءِ قَافِلَةِ قُرَيْشٍ التِّجَارِيَّةِ الَّتِي ذَهَبَتْ إِلَى الشَّامِ، وَبَلَغُوا مَنْطِقَةَ "ذِي الْعُشَيْرَةِ"، لَكِنَّ الْقَافِلَةَ كَانَتْ قَدْ سَبَقَتْهُمْ بِأَيَّامٍ، فَرَجَعُوا بِدُونِ حَرْبٍ. هَذِهِ الْقَافِلَةُ نَفْسُهَا كَانَتْ سَبَبًا لِخُرُوجِ الْمُسْلِمِينَ فِي غَزْوَةِ بَدْرٍ الْكُبْرَى لَاحِقًا.</t>
+    <t>خَرَجَ الرَّسُولُ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ بِـِمِئَة وَ خَمْسُينَ أَو مئَتَين رَجُلٍ لِلْقَاءِ قَافِلَةِ قُرَيْشٍ التِّجَارِيَّةِ الَّتِي ذَهَبَتْ إِلَى الشَّامِ، وَبَلَغُوا مَنْطِقَةَ "ذِي الْعُشَيْرَةِ"، لَكِنَّ الْقَافِلَةَ كَانَتْ قَدْ سَبَقَتْهُمْ بِأَيَّامٍ، فَرَجَعُوا بِدُونِ حَرْبٍ. هَذِهِ الْقَافِلَةُ نَفْسُهَا كَانَتْ سَبَبًا لِخُرُوجِ الْمُسْلِمِينَ فِي غَزْوَةِ بَدْرٍ الْكُبْرَى لَاحِقًا.</t>
   </si>
   <si>
     <t>اعتراض قافلة قريش التجارية الذاهبة إلى الشام</t>
@@ -575,7 +575,8 @@
     <t>مرحب اليهودي</t>
   </si>
   <si>
-    <t>بَعْدَ عامٍ مِنْ صُلْحِ الحُدَيْبِيَةِ، وتَحْدِيدًا في مُحَرَّمٍ مِنَ السَّنَةِ السَّابِعَةِ لِلهِجْرَةِ، خَرَجَ رَسُولُ اللهِ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ مِنَ المَدِينَةِ فِي نَحْوِ أَلْفٍ وَأَرْبَعِ مِئَةٍ مِنَ الصَّحَابَةِ مُتَوَجِّهِينَ إِلَى واحَةِ خَيْبَرَ شِمالِيَّ الحِجَازِ؛ إِذْ أَصْبَحَتْ حُصُونُ اليَهُودِ هُناكَ مَرْكَزًا لِتَحْرِيضِ القَبَائِلِ ضِدَّ الدَّوْلَةِ الإِسْلَامِيَّةِ وَتَمْوِيلِ الأَعْدَاءِ. وَصَلَ الجَيْشُ لَيْلًا فَأَغْلَقَ أَهْلُ خَيْبَرَ أَبْوَابَهُمْ، فَنَادَى النَّبِيُّ: «اللهُ أَكْبَرُ، خَرِبَتْ خَيْبَرُ!». كانَتِ الواحَةُ سِلْسِلَةَ حُصُونٍ مَوْصُولَةٍ، فَحَاصَرَ المُسْلِمُونَ أَوَّلًا مِنْطَقَةَ «النَّطاةِ» وَفَتَحُوا حِصْنَ «نَعْمٍ» ثُمَّ «الصَّعْبِ بْنِ مُعاذٍ» بَعْدَ قِتالٍ عَنِيفٍ، لِتَنْهَارَ مَعَها مَعْنَوِيَّاتُ المُدافِعِينَ. اِنْتَقَلُوا بَعْدَها إِلَى مِنْطَقَةِ «الشِّقِّ» فَاسْتَسْلَمَ حِصْنُ «الزٌّبَيْرِ»، ثُمَّ تَقَدَّمُوا إِلَى أَقْوَى حُصُونِ خَيْبَرَ وَهُوَ «القَمُوصُ». وفِي صَباحٍ بارِدٍ قالَ رَسُولُ اللهِ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ: «لَأُعْطِيَنَّ الرَّايَةَ غَدًا رَجُلًا يُحِبُّ اللهَ وَرَسُولَهُ وَيُحِبُّهُ اللهُ وَرَسُولُهُ»، فَدَعا عَلِيَّ بْنَ أَبِي طالِبٍ وَهُوَ أَرْمَدُ، فَتَفَلَ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ فِي عَيْنَيْهِ فَبَرِئَ، وَحَمَلَ الرَّايَةَ، وَدَعا اليَهُودَ إِلَى الإِسْلَامِ، فَلَمَّا أَبَوْا بارَزَهُمْ فَقَتَلَ مَرْحَبًا سَيِّدَهُمْ الشَّهِيرَ: «أنا الَّذِي سَمَّتْنِي أُمِّي مَرْحَبُ…»، وَسَقَطَ الحِصْنُ بَعْدَ مُقاوَمَةٍ شَرِسَةٍ. تَوالى سُقُوطُ الحُصُونِ حَتَّى اضْطُرَّ اليَهُودُ لِطَلَبِ الصُّلْحِ، فَوافَقَهُمُ النَّبِيُّ عَلَى البَقاءِ فِي الأَرْضِ يَعْمَلُونَها بِنِصْفِ الثَّمَرَةِ لِلْمُسْلِمِينَ، وَاشْتَرَطَ أَنْ يُخْرِجَهُمْ مَتَى شَاءَ. فِي الطَّرِيقِ عُرِضَتْ عَلَيْهِ صَفِيَّةُ بِنْتُ حُيَيٍّ، فَاصْطَفاها لِنَفْسِهِ وَتَزَوَّجَها، فَكانَتْ أُمَّ المُؤْمِنِينَ. وَبَعْدَ يَوْمَيْنِ قَدَّمَتِ امْرَأَةٌ يَهُودِيَّةٌ شاةً مَسْمُومَةً لِلنَّبِيِّ فَأَكَلَ مِنْها لُقْمَةً وَتَقَيَّأَها، وَماتَ بَعْضُ الصَّحَابَةِ بِالسُّمِّ، فَعَفَا عَنْها ثُمَّ قُتِلَتْ قِصاصًا لاحِقًا. رَجَعَ الجَيْشُ إِلَى المَدِينَةِ مُثْقَلًا بِالغَنائِمِ؛ فَقَسَّمَ رَسُولُ اللهِ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ أَرْبَعَةَ أَخْماسِها عَلَى المُقاتِلِينَ، وَحَبَسَ الخُمُسَ لِمَصارِفِهِ الشَّرْعِيَّةِ، وَأَعْطى مَنْ تَخَلَّفَ مِنْ أَهْلِ الحُدَيْبِيَةِ سِهامًا مِنَ الغَنيمَةِ مَكافَأَةً عَلَى نِيَّتِهِمُ الصَّادِقَةِ. أَسْفَرَتْ خَيْبَرُ عَنْ تَأْمِينِ الجَبْهَةِ الشَّمالِيَّةِ، وَرَفْعِ القُوَّةِ الاقْتِصادِيَّةِ لِلدَّوْلَةِ بِنِصْفِ إِنْتاجِ الواحَةِ، وَتَثْبِيتِ أَمْنِ طَرِيقِ الشَّامِ، كَما فَتَحَتِ البابَ أَمامَ وُفُودِ القَبائِلِ الَّتِي جاءَتْ تُعْلِنُ إِسْلامَها بَعْدَ أَنْ رَأَتْ تَفَوُّقَ المُسْلِمِينَ؛ فَكانَتْ خَيْبَرُ خُطْوَةً حاسِمَةً سَبَقَتْ فَتْحَ مَكَّةَ بِعامٍ واحِدٍ وَرَسَّخَتْ مَكانَةَ الدَّوْلَةِ النُّبُوِيَّةِ فِي الجَزيرَةِ العَرَبِيَّةِ</t>
+    <t>فِي مُحَرَّمٍ مِنَ السَّنَةِ السَّابِعَةِ لِلهِجْرَة، خَرَجَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ بِأَلْفٍ وَأَرْبَعِ مِئَةٍ إِلَى خَيْبَرَ، حَيْثُ كَانَتْ حُصُونُ الْيَهُودِ مَرْكَزًا لِلتَّحْرِيضِ وَتَمْوِيلِ الأَعْدَاءِ. بَدَأَ الْمُسْلِمُونَ بِحِصَارِ حُصُونِ النَّطَاةِ فَسَقَطَتْ، ثُمَّ تَقَدَّمُوا إِلَى الْقَمُوصِ أَقْوَى الحُصُونِ، فَدَفَعَ النَّبِيُّ الرَّايَةَ لِعَلِيٍّ بْنِ أَبِي طَالِب، فَقَتَلَ مَرْحَبُ وَفُتِحَ الحِصْنُ.
+طَلَبَ الْيَهُودُ الصُّلْحَ، فَوَافَقَ النَّبِيُّ عَلَى أَنْ يَبْقَوْا فِي الأَرْضِ بِنِصْفِ الثَّمَرَةِ. وَفِي الطَّرِيقِ، تَزَوَّجَ صَفِيَّةَ بِنْتَ حُيَيٍّ. ثُمَّ رَجَعَ الجَيْشُ بِغَنَائِمَ كَثِيرَةٍ، وَأَمَّنَتْ خَيْبَرُ الْجَبْهَةَ الشِّمَالِيَّة، وَزَادَتْ قُوَّةَ الدَّوْلَةِ، وَمَهَّدَتْ لِفَتْحِ مَكَّة.</t>
   </si>
   <si>
     <t>تحريض يهود خيبر للقبائل ضد المدينة, كون خيبر مركز تمويل لحلفاء مكة</t>
@@ -605,7 +606,8 @@
     <t>مالك بن رافع الغساني</t>
   </si>
   <si>
-    <t>لَمَّا قُتِلَ الحارِثُ بن عمير الأزْديُّ الذي أرسَلَهُ النّبي صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ بِرِسالةٍ إلى الروم، أجابَ النبيّ بقواتٍ عدَّها نحو ثلاثة آلاف يُمَهِّدُ بها لمعركةٍ كبرى، فأمر زيداً، فإنْ قُتِلَ فجعفراً، فإنْ قُتلَ فعبد الله بن رواحة يحملُ الرّاية. وصَلَ المسلمون إلى مؤتة، فتصدَّر زيدٌ القتالَ فاستشهدَ، ثم جعفرٌ، فابنُ رواحة فَاستُشهد. وعند عودة الجيش، وصف النبيّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ ذلك نصرًا معنويًا قائلاً: «بل هم الكرّار»، و«حُمِيَ الوَطيسُ» بمعنى اشتدَّ القتالُ، وأقرّ بأنّ المسلمين قد واجَهوا أعداءً كثيرين، وكانَت هذه المعركةُ نقطةَ انطلاقٍ لفَتحِ الشامِ لاحقاً .</t>
+    <t>لَمَّا قُتِلَ الحارِثُ بنُ عُمَيْرٍ الأَزْدِيُّ الَّذِي أَرْسَلَهُ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ بِرِسَالَةٍ إِلَى الرُّومِ، أَجَابَ النَّبِيُّ بِقُوَّاتٍ عَدَّهَا نَحْوَ ثَلَاثَةِ آلَافٍ يُمَهِّدُ بِهَا لِمَعْرَكَةٍ كُبْرَى، فَأَمَرَ زَيْدًا، فَإِنْ قُتِلَ فَجَعْفَرًا، فَإِنْ قُتِلَ فَعَبْدَ اللَّهِ بْنُ رَوَاحَةَ يَحْمِلُ الرَّايَةَ.
+وَصَلَ المُسْلِمُونَ إِلَى مُؤْتَةَ، فَتَصَدَّرَ زَيْدٌ القِتَالَ فَاسْتُشْهِدَ، ثُمَّ جَعْفَرٌ، فَابْنُ رَوَاحَةَ فَاسْتُشْهِدَ. وَعِنْدَ عَوْدَةِ الجَيْشِ، وَصَفَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ ذَلِكَ نَصْرًا مَعْنَوِيًّا قَائِلًا: بَلْ هُمُ الكَرَّارُ، وَقَالَ: حُمِيَ الوَطِيسُ؛ أَيْ اشْتَدَّ القِتَالُ. وَأَقَرَّ بِأَنَّ المُسْلِمِينَ قَدْ وَاجَهُوا أَعْدَاءً كَثِيرِينَ، وَكَانَتْ هَذِهِ المَعْرَكَةُ نُقْطَةَ انْطِلَاقٍ لِفَتْحِ الشَّامِ لَاحِقًا.</t>
   </si>
   <si>
     <t>قتل شرحبيل ابن عمرو الغساني الحارث بن عمير الأزدي المرسل من النبي، وكسر لحرمة الرسل</t>
@@ -671,7 +673,7 @@
     <t>عبد ياليل بن عمرو الثقفي</t>
   </si>
   <si>
-    <t>بعدَ غزوةِ حُنَيْنٍ، قرّرَ النبيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ أنْ يتّجهَ إلى الطّائفِ، وهي من المناطقِ المُهمّةِ في جنوبِ الجزيرةِ العربيّةِ، وذلكَ لمحاولةِ نشرِ الإسلامِ هناكَ، وإقناعِ أهلِها بالانضمامِ إلى المسلمينَ. خرجَ مع أصحابِهِ في رحلةٍ طويلةٍ، ولكنّ أهلَ الطّائفِ قاوموا مقاومةً عنيفةً، خاصّةً قبيلةُ هَوازِن، التي كانتْ من أكبرِ قبائلِ المنطقةِ. واجهَ النبيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ مقاومةً شرسةً، ووقعتْ بعضُ المعاركِ الصغيرةِ، وأُصيبَ بجراحٍ بالغةٍ، كما أُصيبَ بعضُ أصحابِهِ كذلكَ.حاولَ النبيُّ أنْ يُهدّئَ من مقاومةِ أهلِ الطّائفِ، لكنّه لم ينجحْ في فَرضِ السّيطرةِ الكاملةِ. هذه الغزوةُ لم تكنْ حاسمةً، لكنها كانتْ محاوَلةً مُهِمّةً لنشرِ الإسلامِ في جنوبِ الجزيرةِ، وأظهرتْ أنّ الدّعوةَ تُواجهُ تحدّياتٍ كبيرةً، وأنّ المقاومةَ كانتْ عنيفةً.</t>
+    <t>بعدَ غزوةِ حُنَيْنٍ، قرّرَ النبيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ أنْ يتّجهَ إلى الطّائفِ، وهي من المناطقِ المُهمّةِ في جنوبِ الجزيرةِ العربيّةِ، وذلكَ لمحاولةِ نشرِ الإسلامِ، وإقناعِ أهلِها بالانضمامِ إلى المسلمينَ. خرجَ مع أصحابِهِ في رحلةٍ طويلةٍ، ولكنّ أهلَ الطّائفِ قاوموا مقاومةً عنيفةً، خاصّةً قبيلةُ هَوازِن، التي كانتْ من أكبرِ قبائلِ المنطقةِ. واجهَ النبيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ مقاومةً شرسة، ووقعتْ بعضُ المعاركِ الصغيرةِ، وأُصيبَ بجراحٍ بالغةٍ، كما أُصيبَ بعضُ أصحابِهِ كذلكَ.حاولَ النبيُّ أنْ يُهدّئَ من مقاومةِ أهلِ الطّائفِ، لكنّه لم ينجحْ في فَرضِ السّيطرةِ الكاملةِ. هذه الغزوةُ لم تكنْ حاسمةً، لكنها كانتْ محاوَلةً مُهِمّةً لنشرِ الإسلامِ في جنوبِ الجزيرةِ، وأظهرتْ أنّ الدّعوةَ تُواجهُ تحدّياتٍ كبيرةً، وأنّ المقاومةَ كانتْ عنيفةً.</t>
   </si>
   <si>
     <t>تحصن فلول الكفار من غزوة حنين داخل الطائف</t>
@@ -770,7 +772,7 @@
     <t>قافلة لقريش متجهة إلى الشام</t>
   </si>
   <si>
-    <t>هِيَ مَعْرَكَةٌ وَقَعَت بَيْنَ خَالِدِ بْنِ الوَلِيدِ وَجَيْشِ الزَّرَاحَةِ الَّذِينَ نَجَوْا مِنْ مَعْرَكَةِ بُزَاخَةَ. وَقَدْ جَرَتْ فِي مَوْقِعٍ يُسَمَّى غَمْرَةَ، يَبْعُدُ نَحْوَ 20 مِيلًا عَنْ بُزَاخَةَ (فِي السُّعُودِيَّةِ حَالِيًّا). انْتَهَتِ المَعْرَكَةُ بِانْتِصَارِ جَيْشِ الخِلَافَةِ الرَّاشِدَةِ، وَكَانَ ذَلِكَ نَصْرًا حَاسِمًا لِلْمُسْلِمِينَ.</t>
+    <t>هِيَ مَعْرَكَةٌ وَقَعَت بَيْنَ خَالِدِ بْنِ الوَلِيدِ وَجَيْشِ الزَّرَاحَةِ الَّذِينَ نَجَوْا مِنْ مَعْرَكَةِ بُزَاخَة. وَقَدْ جَرَتْ فِي مَوْقِعٍ يُسَمَّى غَمْرَةَ، يَبْعُدُ نَحْوَ عشرون مِيلًا عَنْ بُزَاخَة (فِي السُّعُودِيَّةِ حَالِيًّا). انْتَهَتِ المَعْرَكَةُ بِانْتِصَارِ جَيْشِ الخِلَافَةِ الرَّاشِدَةِ، وَكَانَ ذَلِكَ نَصْرًا حَاسِمًا لِلْمُسْلِمِينَ.</t>
   </si>
   <si>
     <t>ردع المرتدين في الجيش المتبغي من معركة بزاخة</t>
@@ -851,7 +853,7 @@
     <t>مبهوذان</t>
   </si>
   <si>
-    <t>لَمَّا انْتَهَتْ مَعْرَكَةُ الحُصَيْدِ بِنَصْرٍ لِلْمُسْلِمِينَ، هَرَبَتْ فُلُولُ الفُرْسِ وَمَنْ تَحَالَفَ مَعَهُمْ مِنَ العَرَبِ النَّصَارَى نَحْوَ مَكَانٍ يُسَمَّى الخَنَافِس، وَهُوَ سُوقٌ عَرِيقٌ كَانَ يَقَعُ قُرْبَ الفُرَاتِ فِي أَرْضِ العِرَاقِ. كَانَ الْهَارِبُونَ يَرْجُونَ أَنْ يُعِيدُوا تَجْمِيعَ صُفُوفِهِمْ، وَيَحْصُلُوا عَلَى مَدَدٍ يُعِيدُ لَهُمْ رُوحَ القِتَالِ، وَيُمَكِّنُهُمْ مِنَ التَّصَدِّي لِجُيُوشِ الإِسْلَامِ.وَكَانَ عَلَى رَأْسِ الْمُسْلِمِينَ فِي تِلْكَ الْجِهَةِ القَائِدُ الْمِقْدَامُ عُرْوَةُ بْنُ الجَعْدِ البَارِقِيُّ، وَهُوَ صَحَابِيٌّ شُجَاعٌ، تَلَقَّى أَمْرَهُ مِنَ القَائِدِ الأَعْلَى خَالِدِ بْنِ الوَلِيدِ، بِأَنْ يُلاحِقَ الْهَارِبِينَ، وَيَضْرِبَ عَلَيْهِمْ طَوْقًا، حَتَّى لا يُفْلِتُوا وَلَا يَجْمَعُوا جَيْشًا جَدِيدًا.فِي لَيْلَةٍ سَاكِنَةٍ، وَبَعْدَ سُرْعَةِ مَسِيرٍ عَجُولٍ، وَصَلَ عُرْوَةُ بْنُ الجَعْدِ بِفِرْقَتِهِ إِلَى أَطْرَافِ سُوقِ الخَنَافِسِ. كَانَتِ الرِّيحُ تَهُبُّ عَلَى رِكَامِ التِّجَارَةِ، وَلَا أَثَرَ لِجُنْدٍ وَلَا قِتَالٍ. تَرَيَّثَ الْجَيْشُ قَلِيلًا، حَذَرًا مِنْ كَمِينٍ، ثُمَّ تَقَدَّمُوا بِحَذَرٍ، لِيَجِدُوا السُّوقَ خَالِيًا إِلَّا مِنْ آثَارِ هُرُوبٍ وَفَرَارٍ.اتَّضَحَ لَهُمْ أَنَّ الفُرْسَ وَحُلَفَاءَهُمْ قَدْ فَرُّوا دُونَ قِتَالٍ، تَارِكِينَ المَكَانَ فَارِغًا، تَخْنُقُهُ رَوَائِحُ التُّرَابِ وَالأَمْوَالِ الْمُهْمَلَةِ. دَخَلَ المُسْلِمُونَ السُّوقَ، وَأَقَامُوا فِيهِ، وَجَمَعُوا مَا خَلَّفَهُ العَدُوُّ، وَكَانَ فَتْحًا بِلَا سَيْفٍ وَلَا دِمَاء، لَكِنَّهُ كَانَ ضَرْبَةً نَفْسِيَّةً قَاصِمَةً لِلْفُرْسِ، وَانْتِصَارًا مَعْنَوِيًّا كَبِيرًا لِلْمُسْلِمِينَ.وَبِذَلِكَ كَانَ فَتْحُ الخَنَافِسِ مِنَ الفُتُوحِ الَّتِي لَمْ يُرْفَعْ فِيهَا سَيْفٌ، وَلَكِنْ أَرْعَبَتِ الأَعْدَاءَ، وَثَبَّتَتْ أَقْدَامَ الإِسْلَامِ فِي مَجَالٍ جَدِيدٍ، وَفَتَحَتِ الطَّرِيقَ لِمَعَارِكِ أُخْرَى أَشَدَّ وَأَعْنَفَ فِي طَرِيقِ فَتْحِ العِرَاقِ وَفَارِس.</t>
+    <t>لَمَّا انْتَهَتْ مَعْرَكَةُ الحُصَيْدِ بِنَصْرٍ لِلْمُسْلِمِينَ، فَرَّتْ فُلُولُ الفُرْسِ وَحُلَفَاؤُهُمْ نَحْوَ سُوقِ الخَنَافِسِ قُرْبَ الفُرَاتِ، أَمَلًا فِي إِعَادَةِ التَّجْمِيعِ. أَمَرَ خَالِدُ بْنُ الوَلِيدِ القَائِدَ عُرْوَةَ بْنَ الجَعْدِ بِمُطَارَدَتِهِمْ، فَانْطَلَقَ لَيْلًا حَتَّى بَلَغَ السُّوقَ، فَوَجَدَهُ خَالِيًا إِلَّا مِنْ آثَارِ الفِرَارِ. لَمْ يَجْرِ قِتَالٌ، وَدَخَلَ المُسْلِمُونَ السُّوقَ وَجَمَعُوا مَا خَلَّفَهُ العَدُوُّ. فَكَانَ فَتْحُ الخَنَافِسِ نَصْرًا نَفْسِيًّا بِلَا دِمَاء، أَرْعَبَ الفُرْسَ وَمَهَّدَ الطَّرِيقَ لِفُتُوحِ العِرَاقِ.</t>
   </si>
   <si>
     <t>فلول الجيش الفارسي المنهزم في معركة حصيد تفر إلى الخنافس</t>
@@ -2087,7 +2089,7 @@
     <t>شهربراز جاذویه</t>
   </si>
   <si>
-    <t>في سَنةِ واحد وعشرون للهجرة، ضِمنَ سِلسِلةِ الفُتوحِ بعدَ مَعركةِ نَهاوَند، مَرَّرَ الخليفةُ عُمرُ بنُ الخَطّابِ بمرحلةٍ مُهِمّةٍ لِتنظيمِ السَّيطرةِ الإسلاميّةِ على وَسَطِ فَارِس. فأَمَرَ بإرسالِ عَبدِ اللهِ بنِ عَبدِ اللهِ بنِ عُتبان – مَدعومًا بأبي مُوسى الأَشعَري – إلى أصفَهان، التي لم تُخضَع بَعدُ رغمَ سُقوطِ المُدنِ المُجاوِرة, واجَهَ الجَيشُ الإسلاميُّ القُوّاتِ الفارسيّةَ في خَراجِ المدينةِ وما حَولَها، وتمكَّنَ عبدُ اللهِ بنُ عُتبانَ من قَتلِ قائدِ الفُرسِ في المُبارَزة. ثم بَدأَ حِصارًا استمرَّ عِدّةَ أَشهُر، حتّى رَضَخَ أهلُ أصفَهانَ ووقَّعوا الصُّلحَ على الجِزيَةِ وحُكمِ الدَّولةِ الإسلاميّة.</t>
+    <t>في سَنةِ واحد وعشرون للهجرة، ضِمنَ سِلسِلةِ الفُتوحِ بعدَ مَعركةِ نَهاوَند، مَرَّ الخليفةُ عُمرُ بنُ الخَطّابِ بمرحلةٍ مُهِمّةٍ لِتنظيمِ السَّيطرةِ الإسلاميّةِ على وَسَطِ فَارِس. فأَمَرَ بإرسالِ عَبدِ اللهِ بنِ عَبدِ اللهِ بنِ عُتبان – مَدعومًا بأبي مُوسى الأَشعَري – إلى أصفَهان، التي لم تُخضَع بَعدُ رغمَ سُقوطِ المُدنِ المُجاوِرة, واجَهَ الجَيشُ الإسلاميُّ القُوّاتِ الفارسيّةَ في خَراجِ المدينةِ وما حَولَها، وتمكَّنَ عبدُ اللهِ بنُ عُتبانَ من قَتلِ قائدِ الفُرسِ في المُبارَزة. ثم بَدأَ حِصارًا استمرَّ عِدّةَ أَشهُر، حتّى رَضَخَ أهلُ أصفَهانَ ووقَّعوا الصُّلحَ على الجِزيَةِ وحُكمِ الدَّولةِ الإسلاميّة.</t>
   </si>
   <si>
     <t>القضاء النهائي على النفوذ الفارسي في مناطق وسط إيران، وحماية المناطق المحررة من أي انكفاء أو تمرد, أمر الخليفة عمر بن الخطاب بإرسال جيش بقيادة عبد الله بن عبد الله بن عتبان لتعزيز الفتح، وتحصين السيطرة بنيّة تحويل هذه المدن إلى مراكز إسلامية مستقرة</t>
@@ -2877,7 +2879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2932,7 +2934,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3160,8 +3161,8 @@
   </sheetPr>
   <dimension ref="A1:AD1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4350,7 +4351,7 @@
       <c r="K24" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="L24" s="29" t="s">
         <v>178</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -4399,7 +4400,7 @@
       <c r="K25" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="29" t="s">
         <v>188</v>
       </c>
       <c r="M25" s="9" t="s">
@@ -4520,7 +4521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="150.75">
+    <row r="28" spans="1:30" ht="138.75">
       <c r="A28" s="16" t="s">
         <v>206</v>
       </c>
@@ -4791,7 +4792,7 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
     </row>
-    <row r="33" spans="1:30" ht="12.6">
+    <row r="33" spans="1:30" ht="58.5">
       <c r="A33" s="15" t="s">
         <v>246</v>
       </c>
@@ -4819,7 +4820,7 @@
       <c r="K33" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="L33" s="30" t="s">
+      <c r="L33" s="29" t="s">
         <v>250</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -4838,7 +4839,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="12.6">
+    <row r="34" spans="1:30" ht="69">
       <c r="A34" s="15" t="s">
         <v>254</v>
       </c>
@@ -4866,7 +4867,7 @@
       <c r="K34" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L34" s="30" t="s">
+      <c r="L34" s="29" t="s">
         <v>259</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -4885,7 +4886,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="12.6">
+    <row r="35" spans="1:30" ht="81">
       <c r="A35" s="15" t="s">
         <v>263</v>
       </c>
@@ -4915,7 +4916,7 @@
       <c r="K35" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="L35" s="30" t="s">
+      <c r="L35" s="29" t="s">
         <v>270</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -4983,7 +4984,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="12.6">
+    <row r="37" spans="1:30" ht="219.75">
       <c r="A37" s="15" t="s">
         <v>281</v>
       </c>
@@ -5013,7 +5014,7 @@
       <c r="K37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="30" t="s">
+      <c r="L37" s="29" t="s">
         <v>284</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -5032,7 +5033,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="12.6">
+    <row r="38" spans="1:30" ht="150.75">
       <c r="A38" s="15" t="s">
         <v>287</v>
       </c>
@@ -5062,7 +5063,7 @@
       <c r="K38" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="L38" s="30" t="s">
+      <c r="L38" s="29" t="s">
         <v>291</v>
       </c>
       <c r="M38" s="3" t="s">
@@ -5143,7 +5144,7 @@
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
     </row>
-    <row r="40" spans="1:30" ht="12.6">
+    <row r="40" spans="1:30" ht="58.5">
       <c r="A40" s="15" t="s">
         <v>300</v>
       </c>
@@ -5175,7 +5176,7 @@
       <c r="K40" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="L40" s="30" t="s">
+      <c r="L40" s="29" t="s">
         <v>306</v>
       </c>
       <c r="M40" s="3" t="s">
@@ -5593,7 +5594,7 @@
       <c r="K48" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="L48" s="31" t="s">
+      <c r="L48" s="30" t="s">
         <v>378</v>
       </c>
       <c r="M48" s="3" t="s">
@@ -6478,7 +6479,7 @@
       <c r="K65" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="L65" s="32" t="s">
+      <c r="L65" s="31" t="s">
         <v>504</v>
       </c>
       <c r="M65" s="3" t="s">
@@ -7484,7 +7485,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="12.75">
+    <row r="85" spans="1:17" ht="81">
       <c r="A85" s="24" t="s">
         <v>647</v>
       </c>
@@ -7518,7 +7519,7 @@
       <c r="K85" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L85" s="3" t="s">
+      <c r="L85" s="14" t="s">
         <v>652</v>
       </c>
       <c r="M85" s="3" t="s">
@@ -7641,7 +7642,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="12.75">
+    <row r="88" spans="1:17" ht="104.25">
       <c r="A88" s="24" t="s">
         <v>672</v>
       </c>
@@ -7671,7 +7672,7 @@
       <c r="K88" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="L88" s="3" t="s">
+      <c r="L88" s="14" t="s">
         <v>676</v>
       </c>
       <c r="M88" s="3" t="s">
@@ -7743,7 +7744,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="12.75">
+    <row r="90" spans="1:17" ht="69">
       <c r="A90" s="24" t="s">
         <v>688</v>
       </c>
@@ -7773,7 +7774,7 @@
       <c r="K90" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L90" s="3" t="s">
+      <c r="L90" s="14" t="s">
         <v>691</v>
       </c>
       <c r="M90" s="3" t="s">

--- a/backend/الغزوات.xlsx
+++ b/backend/الغزوات.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f58b35e40015d4ae/سطح المكتب/Raya.github.io/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="432" documentId="11_B8ACEE991895064A1CB304B4C4E8A0A449CCCB21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6D969C1-BCC3-4BF0-B0D4-87A5043B8F4E}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="11_B8ACEE991895064A1CB304B4C4E8A0A449CCCB21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45CA62D8-E008-4912-B7CD-5E7500435378}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,7 +371,7 @@
     <t>حُيي بن أخطب</t>
   </si>
   <si>
-    <t>فِي رَبِيعِ الْأَوَّلِ مِنَ السَّنَةِ الرَّابِعَةِ لِلهِجْرَةِ، حَدَثَتْ غَزْوَةُ بَنِي النَّضِير، وَهُمْ إِحْدَى قَبَائِلِ الْيَهُودِ الَّتِي كَانَتْ تَسْكُنُ جَنُوبَ الْمَدِينَةِ الْمُنَوَّرَةِ، وَقَدْ كَانَ بَيْنَهُمْ وَبَيْنَ الْمُسْلِمِينَ عَهْدٌ وَمِيثَاقٌ بَعْدَ الْهِجْرَةِ. وَفِي أَحَدِ الْأَيَّامِ، ذَهَبَ رَسُولُ اللهِ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ مَعَ بَعْضِ أَصْحَابِهِ إِلَى بَنِي النَّضِير؛ لِيَطْلُبَ مِنْهُمْ الْمُسَاعَدَةَ فِي دِيَةِ رَجُلَيْنِ مِنْ بَنِي عَامِرٍ، وَكَانَ ذٰلِكَ وَاجِبًا عَلَيْهِمْ حَسَبَ الْعَهْدِ. وَبَيْنَمَا كَانَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ جَالِسًا إِلَى جِدَارٍ، تَآمَرَ بَنُو النَّضِير عَلَى قَتْلِهِ، وَقَالُوا: "مَنْ يَصْعَدُ إِلَى سَطْحِ الْبَيْتِ لِيُلْقِيَ عَلَيْهِ صَخْرَةً؟". فَأَوْحَى اللهُ إِلَى نَبِيِّهِ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ بِمَا هَمُّوا بِهِ، فَقَامَ مُسْتَعْجِلًا، وَرَجَعَ إِلَى الْمَدِينَةِ، وَأَمَرَ الْمُسْلِمِينَ بِالِاسْتِعْدَادِ، ثُمَّ سَارَ فِي جَيْشٍ لِحِصَارِ بَنِي النَّضِير. حَاصَرَهُمُ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ سِتَّةَ أَيَّامٍ - وَفِي رِوَايَةٍ خَمْسَةَ عَشَرَ يَوْمًا -، فَقَطَعَ النَّخِيلَ، وَضَغَطَ عَلَيْهِمْ نَفْسِيًّا، فَطَلَبُوا الْخُرُوجَ، فَقَبِلَ مِنْهُم، عَلَى أَنْ يُجَلَّوْا عَنِ الْمَدِينَةِ وَيَأْخُذُوا مَا تَسَعُهُ الْإِبِلُ دُونَ سِلَاحٍ. فَخَرَجُوا مُتَفَرِّقِينَ، فَمِنْهُمْ مَنْ ذَهَبَ إِلَى خَيْبَرَ، وَمِنْهُمْ مَنْ ذَهَبَ إِلَى الشَّامِ، وَكَانَ فِي خُرُوجِهِمْ تَطْهِيرٌ لِلْمَدِينَةِ مِنَ الْغَدْرِ وَالْخِيَانَةِ. وَنَزَلَ فِي ذٰلِكَ سُورَةُ الْحَشْرِ، وَسُمِّيَتْ فِي بَعْضِ كُتُبِ التَّفْسِيرِ: "سُورَةُ بَنِي النَّضِير"، وَقَالَ تَعَالَى: ﴿ هُوَ ٱلَّذِيٓ أَخْرَجَ ٱلَّذِينَ كَفَرُوا۟ مِنْ أَهْلِ ٱلْكِتَـٰبِ مِن دِيَـارِهِمْ لِأَوَّلِ ٱلْحَشْرِ ۚ مَا ظَنَنتُمْ أَن يَخْرُجُوا۟ ۖ وَظَنُّوٓا۟ أَنَّهُم مَّانِعَتُهُمْ حُصُونُهُم مِّنَ ٱللَّهِ ﴾</t>
+    <t>فِي رَبِيعِ الْأَوَّلِ مِنَ السَّنَةِ الرَّابِعَةِ لِلهِجْرَةِ، غَدَرَتْ بَنُو النَّضِير، إِحْدَى قَبَائِلِ الْيَهُودِ، وَخَالَفُوا العَهْدَ مَعَ النَّبِيِّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ، حِينَ خَطَّطُوا لِقَتْلِهِ أَثْنَاءَ زِيَارَتِهِ لَهُمْ. فَأَوْحَى اللَّهُ إِلَيْهِ بِمَكْرِهِم، فَرَجَعَ إِلَى المَدِينَةِ، وَأَمَرَ بِحِصَارِهِم. حَاصَرَهُمُ المُسْلِمُونَ أَيَّامًا، حَتَّى طَلَبُوا الخُرُوجَ، فَقَبِلَ النَّبِيُّ بِذٰلِكَ، وَخَرَجُوا مِنَ المَدِينَةِ دُونَ سِلَاحٍ. وَنَزَلَتْ فِيهِمْ سُورَةُ الْحَشْرِ، تُبَيِّنُ خِيَانَتَهُمْ وَمَصِيرَهُمْ.</t>
   </si>
   <si>
     <t>غدر بني النضير ومحاولة اغتيال النبي ﷺ، نقض العهد</t>
@@ -386,7 +386,9 @@
     <t>بدر، جنوب غرب المدينة المنورة</t>
   </si>
   <si>
-    <t>لَمَّا خَضَدَ المُسلِمُونَ شَوْكَةَ الأعرَابِ وَكَفْكَفُوا شَرَّهُم، أَخَذُوا يَتَجَهَّزُونَ لِمُلَاقَاةِ عَدُوِّهِم الأَكْبَر، وَقَدِ اسْتَدَارَ العَامُ وَحَضَرَ المَوْعِدُ المَضْرُوبُ مَعَ قُرَيْشٍ، فَخَرَجَ النَّبِيُّ ﷺ فِي شَعْبَانَ سَنَةَ ٤ هـ فِي أَلْفٍ وَخَمْسِمِائَةِ رَجُلٍ، وَكَانَتِ الخَيْلُ عَشَرَةَ أَفْرَاسٍ، وَحَمَلَ لِوَاءَهُ عَلِيُّ بْنُ أَبِي طَالِبٍ، وَاسْتَخْلَفَ عَلَى المَدِينَةِ عَبْدَ اللهِ بْنَ رَوَاحَةَ، وَانْتَهَى إِلَى بَدْرٍ، فَأَقَامَ بِهَا يَنْتَظِرُ المُشْرِكِينَ. وَخَرَجَ أَبُو سُفْيَانَ فِي أَلْفَيْ رَجُلٍ مِنْ مُشْرِكِي مَكَّةَ، وَمَعَهُمْ خَمْسُونَ فَرَسًا، حَتَّى انْتَهَى إِلَى مَرِّ الظَّهْرَانِ، وَنَزَلَ بِمَجَنَّةٍ. وَكَانَ مُتَثَاقِلًا فِي خُرُوجِهِ، مُفَكِّرًا فِي عَاقِبَةِ القِتَالِ، قَدِ اسْتَوْلَتْ عَلَيْهِ الرَّهْبَةُ، فَقَالَ لِقُرَيْشٍ: "يَا مَعْشَرَ قُرَيْشٍ، إِنَّهُ لَا يُصْلِحُكُمْ إِلَّا عَامُ خِصْبٍ، تَرْعَوْنَ فِيهِ الشَّجَرَ، وَتَشْرَبُونَ فِيهِ اللَّبَنَ، وَإِنَّ عَامَكُمْ هَذَا عَامُ جَدْبٍ، وَإِنِّي رَاجِعٌ، فَارْجِعُوا". فَرَجَعَ النَّاسُ دُونَ أَنْ يُبْدُوا مُعَارَضَةً، وَيَبْدُو أَنَّ الخَوْفَ كَانَ مُسَيْطِرًا عَلَيْهِم. وَأَمَّا المُسْلِمُونَ فَأَقَامُوا فِي بَدْرٍ ثَمَانِيَةَ أَيَّامٍ يَنْتَظِرُونَ العَدُوَّ، وَبَاعُوا مَا مَعَهُمْ مِنَ التِّجَارَةِ، فَرَبِحُوا بِالدِّرْهَمِ دِرْهَمَيْنِ، ثُمَّ رَجَعُوا إِلَى المَدِينَةِ، وَقَدِ انْتَقَلَ زِمَامُ المُفَاجَأَةِ إِلَى أَيْدِيهِم، وَتَوَطَّدَتْ هَيْبَتُهُمْ فِي النُّفُوسِ. وَتُعْرَفُ هَذِهِ الغَزْوَةُ بِـ: بَدْرِ المَوْعِد، وَبَدْرِ الثَّانِيَة، وَبَدْرِ الآخِرَة، وَبَدْرِ الصُّغْرَى.</t>
+    <t>لَمَّا أَمِنَ المُسْلِمُونَ جَانِبَ الأَعْرَابِ، بَدَؤُوا يَسْتَعِدُّونَ لِمُلَاقَاةِ عَدُوِّهِم. وَفِي شَعْبَانَ مِنَ السَّنَةِ الرَّابِعَةِ لِلهِجْرَةِ، خَرَجَ النَّبِيُّ عَلَيْهِ الصَّلَاةُ وَالسَّلَامُ فِي أَلْفٍ وَخَمْسِمِائَةِ رَجُلٍ إِلَى بَدْرٍ، مُنْتَظِرًا قُرَيْشًا.
+أَمَّا أَبُو سُفْيَانَ فَخَرَجَ فِي أَلْفَيْ رَجُلٍ، ثُمَّ غَلَبَهُ الخَوْفُ فَتَرَاجَعَ. وَبَقِيَ المُسْلِمُونَ فِي بَدْرٍ ثَمَانِيَةَ أَيَّامٍ، فَرَبِحُوا فِي تِجَارَتِهِم، وَرَجَعُوا إِلَى المَدِينَةِ وَقَدْ تَعَزَّزَ مَوْقِفُهُم.
+وَتُعْرَفُ هَذِهِ الغَزْوَةُ بِـ: بَدْرِ الْمَوْعِدِ، وَبَدْرِ الثَّانِيَةِ، وَبَدْرِ الآخِرَةِ، وَبَدْرِ الصُّغْرَى</t>
   </si>
   <si>
     <t>تنفيذ النبي ﷺ للوعد بملاقاة قريش بعد غزوة أحد</t>
@@ -401,7 +403,10 @@
     <t>ذات الرقاع في نجد، بين جبال الغطَفَان</t>
   </si>
   <si>
-    <t>تَنامَتْ أَخْبارُ حَشْدٍ قَبَليٍّ لِغَطَفانَ وَبَني مُحارِبٍ في قَلْبِ نَجْدٍ يَتَهَيَّأُونَ لِلهُجومِ عَلَى المَدِينَةِ. خَرَجَ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ بِجَيْشٍ يُقارِبُ أَرْبَعَ مِئَةِ رَجُلٍ، يَتَبادَلُونَ الرَّواحِلَ قِلَّةً، حَتَّى شَقَّتِ الحِجارَةُ الجَرْداءُ أَقْدامَهُمْ، فَراحُوا يَلُفُّونَ عَلَيْها الخِرَقَ وَالجُلُودَ؛ وَمِنْ هُنَا سُمِّيَتِ الغَزْوَةُ «ذاتُ الرِّقاعِ». بَلَغَ المُسْلِمُونَ المِنْطَقَةَ، فَتَفَرَّقَ المُشْرِكُونَ في الجِبالِ دُونَ مُواجَهَةٍ مُباشِرَةٍ، فَأَقَامَ رَسُولُ اللهِ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ أَيَّامًا يُؤَمِّنُ النَّواحِي وَيَجْمَعُ المَعْلُوماتِ، وَنَزَلَتْ آيَةُ صَلاةِ الخَوْفِ فَجَعَلَهَا صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ واقِعًا عَمَلِيًّا بِإِمامَةِ طائِفَةٍ أَثْناءَ حِراسَةٍ أُخْرَى. في طَريقِ العَوْدَةِ، بَيْنَما كانَ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ مُسْتَظِلًّا بِشَجَرَةٍ عَلَّقَ عَلَيْها سَيْفَهُ، باغَتَهُ رَجُلٌ مِنْ غَطَفانَ اسْتَلَّ السَّيْفَ وَقالَ: «مَنْ يَمْنَعُكَ مِنِّي؟» فَأَجابَ النَّبِيُّ بِثَباتٍ: «اللهُ»، فَارْتَعَدَ الرَّجُلُ وَأَسْقَطَ السَّيْفَ، فَعَفَا عَنْهُ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ. كَذٰلِكَ حَرَسَ المَعْسَكَرَ في اللَّيْلِ عُبادُ بْنُ بَشْرٍ وَعَمَّارُ بْنُ ياسِرٍ، فَتَعَرَّضَ عُبادٌ لِوابِلٍ مِنَ السِّهامِ وَهُوَ قائِمٌ في صَلاتِهِ حَتَّى سالَ دَمُهُ، وَأَصَرَّ عَلَى إِتْمامِ قِراءَتِهِ قَبْلَ أَنْ يُنَبِّهَ رَفِيقَهُ. رَجَعَ الجَيْشُ إِلَى المَدِينَةِ بِلا قِتالٍ كَبِيرٍ، وَلٰكِنَّ الهَيْبَةَ رَسَخَتْ في نُفُوسِ أَعْرابِ نَجْدٍ، وَاطْمَأَنَّتِ الجَبْهَةُ، وَأَصْبَحَ تَشْريعُ صَلاةِ الخَوْفِ مَنْهَجًا دائِمًا لِجُيُوشِ المُسْلِمِينَ.</t>
+    <t>تَنَامَتْ أَخْبَارُ حَشْدٍ مِنْ غَطَفَانَ وَبَنِي مُحَارِبٍ فِي قَلْبِ نَجْدٍ، يُهَدِّدُونَ المَدِينَةَ. فَخَرَجَ النَّبِيُّ صَلَّى اللهُ عَلَيْهِ وَسَلَّمَ فِي جَيْشٍ يُقَارِبُ أَرْبَعَ مِئَةِ رَجُلٍ، يَتَبَادَلُونَ الرَّوَاحِلَ لِقِلَّتِهَا، حَتَّى تَأَذَّتْ أَقْدَامُهُمْ، فَلَفُّوهَا بِالخِرَقِ، فَسُمِّيَتِ الغَزْوَةُ «ذَاتُ الرِّقَاعِ».
+تَفَرَّقَ المُشْرِكُونَ فِي الجِبَالِ، فَأَقَامَ النَّبِيُّ صَلَّى اللهُ عَلَيْهِ وَسَلَّمَ أَيَّامًا لِلتَّأْمِينِ وَالجَمْعِ، وَنَزَلَ تَشْرِيعُ صَلَاةِ الخَوْفِ.
+فِي طَرِيقِ العَوْدَةِ، بَاغَتَهُ رَجُلٌ مِنْ غَطَفَانَ وَقَالَ: "مَنْ يَمْنَعُكَ مِنِّي؟"، فَقَالَ: "اللهُ"، فَارْتَعَدَ الرَّجُلُ وَسَقَطَ سَيْفُهُ، فَعَفَا عَنْهُ صَلَّى اللهُ عَلَيْهِ وَسَلَّمَ.
+رَجَعَ الجَيْشُ دُونَ قِتَالٍ، وَلٰكِنَّ الهَيْبَةَ تَرَسَّخَتْ، وَأَصْبَحَتْ صَلَاةُ الخَوْفِ مَنْهَجًا لِلْمُسْلِمِينَ.</t>
   </si>
   <si>
     <t>وردت أنباء بحشد قبلي يستعد للهجوم على المدينة</t>
@@ -443,7 +448,7 @@
     <t>يهود بني قريظة، قريش ، قبائل غطفان وحلفاؤها</t>
   </si>
   <si>
-    <t>ِي السَّنَةِ الخَامِسَةِ لِلْهِجْرَة، تَحَالَفَتْ قُرَيْشٌ مَعَ قَبَائِلَ العَرَبِ وَيَهُودِ بَنِي النَّضِيرِ (بَعْدَ إِجْلَائِهِمْ) لِمُحَارَبَةِ المُسْلِمِينَ فِي المَدِينَةِ. انْضَمَّ إِلَيْهِمْ يَهُودُ بَنِي قُرَيْظَةَ (حُلَفَاءُ المُسْلِمِينَ سَابِقًا) وَنَقَضُوا عَهْدَهُمْ. أَمَامَ هَذَا الخَطَرِ الكَبِيرِ، أَشَارَ سَلْمَانُ الفَارِسِيُّ بِحَفْرِ خَنْدَقٍ حَوْلَ المَدِينَةِ لِحِمَايَتِهَا. حَفَرَ المُسْلِمُونَ الخَنْدَقَ بِجُهْدٍ كَبِيرٍ، وَعِنْدَمَا وَصَلَ الأَحْزَابُ، فُوجِئُوا بِهَذِهِ الخُطَّةِ فَحَاصَرُوا المَدِينَةَ. حَدَثَتْ مُنَاوَشَاتٌ، لَكِنَّ الحِصَارَ طَالَ، وَتَعَرَّضَ المُسْلِمُونَ لِلْجُوعِ وَالبَرْدِ لِمُدَّةِ ثَلَاثِ أَسَابِيعَ. وَانْتَهَتْ غَزْوَةُ الخَنْدَقِ بِانْسِحَابِ الأَحْزَابِ، وَذَلِكَ بِسَبَبِ تَعَرُّضِهِمْ لِلرِّيحِ البَارِدَةِ الشَّدِيدَةِ. وَيُؤْمِنُ المُسْلِمُونَ أَنَّ انْتِصَارَهُمْ فِي غَزْوَةِ الخَنْدَقِ كَانَ لِأَنَّ اللهَ تَعَالَى زَلْزَلَ أَبْدَانَ الأَحْزَابِ وَقُلُوبَهُمْ، وَشَتَّتَ جَمْعَهُم بِالخِلَافِ، وَأَلْقَى الرُّعْبَ فِي قُلُوبِهِمْ، وَأَنْزَلَ جُنُودًا مِنْ عِنْدِه</t>
+    <t>فِي السَّنَةِ الخَامِسَةِ لِلْهِجْرَة، تَحَالَفَتْ قُرَيْشٌ مَعَ قَبَائِلَ العَرَبِ وَيَهُودِ بَنِي النَّضِيرِبَعْدَ إِجْلَائِهِمْ لِمُحَارَبَةِ المُسْلِمِينَ فِي المَدِينَةِ. انْضَمَّ إِلَيْهِمْ يَهُودُ بَنِي قُرَيْظَةَ (حُلَفَاءُ المُسْلِمِينَ سَابِقًا) وَنَقَضُوا عَهْدَهُمْ. أَمَامَ هَذَا الخَطَرِ الكَبِيرِ، أَشَارَ سَلْمَانُ الفَارِسِيُّ بِحَفْرِ خَنْدَقٍ حَوْلَ المَدِينَةِ لِحِمَايَتِهَا. حَفَرَ المُسْلِمُونَ الخَنْدَقَ بِجُهْدٍ كَبِيرٍ، وَعِنْدَمَا وَصَلَ الأَحْزَابُ، فُوجِئُوا بِهَذِهِ الخُطَّةِ فَحَاصَرُوا المَدِينَةَ. حَدَثَتْ مُنَاوَشَاتٌ، لَكِنَّ الحِصَارَ طَالَ، وَتَعَرَّضَ المُسْلِمُونَ لِلْجُوعِ وَالبَرْدِ لِمُدَّةِ ثَلَاثِ أَسَابِيعَ. وَانْتَهَتْ غَزْوَةُ الخَنْدَقِ بِانْسِحَابِ الأَحْزَابِ، وَذَلِكَ بِسَبَبِ تَعَرُّضِهِمْ لِلرِّيحِ البَارِدَةِ الشَّدِيدَةِ. وَيُؤْمِنُ المُسْلِمُونَ أَنَّ انْتِصَارَهُمْ فِي غَزْوَةِ الخَنْدَقِ كَانَ لِأَنَّ اللهَ تَعَالَى زَلْزَلَ أَبْدَانَ الأَحْزَابِ وَقُلُوبَهُمْ، وَشَتَّتَ جَمْعَهُم بِالخِلَافِ، وَأَلْقَى الرُّعْبَ فِي قُلُوبِهِمْ، وَأَنْزَلَ جُنُودًا مِنْ عِنْدِه.</t>
   </si>
   <si>
     <t>نقض يهود بني النضير عهدهم مع الرسول محمد ﷺ وحاولوا قتله، فحاصرهم المسلمون حتى استسلموا ثم أخرجوا من المدينة. بعد ذلك، حرّض بنو النضير القبائل العربية ضد المسلمين، فتحالفت قريش وغطفان وغيرها (الأحزاب) مع يهود بني قريظة (ناقضين عهدهم) لمهاجمة المدينة، مما أدى إلى غزوة الأحزاب (الخندق)</t>
@@ -1096,7 +1101,7 @@
     <t>أكيدر بن عبد الملك, جودي بن ربيعة</t>
   </si>
   <si>
-    <t>وَقَعَتْ مَعْرَكَةُ دُومَةِ الجَنْدَلِ فِي السَّنَةِ الثَّانِيَةِ عَشْرَةَ للهِجْرَةِ ، بَيْنَ جَيْشِ المُسْلِمِينَ بِقِيَادَةِ عِيَاضِ بْنِ غَنْم وَمِنْ بَعْدِهِ خَالِدِ بْنِ الوَلِيدِ، وَجُيُوشٍ عَرَبِيَّةٍ مَسِيحِيَّةٍ تَزْعَّمَهَا أَكِيدَرُ بْنُ عَبْدِ المَلِكِ وَالجُودِيُّ بْنُ رَبِيعَةَ. كَانَتْ دُومَةُ الجَنْدَلِ مَرْكَزًا تِجَارِيًّا مُهِمًّا، وَكَانَ أَهْلُهَا يَعْبُدُونَ صَنَمَ "وُد"، وَقَدْ حَطَّمَهُ خَالِدٌ بْنُ الوَلِيدِ بَعْدَ أَنْ أَرْسَلَهُ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ . سَبَقَتِ المَعْرَكَةَ غَزَوَاتٌ أُخْرَى لِلمُسْلِمِينَ فِي المِنْطَقَةِ، مِنْهَا غَزْوَةُ النَّبِيِّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ وَبَعْثُ عَبْدِ الرَّحْمَان بْنِ عَوْفٍ وَخَالِدِ بْنِ الوَلِيدِ. بَدَأَ عِيَاضٌ الحِصَارَ، وَلَمَّا طَالَ وَتَعِبَ الجَانِبَانِ، اسْتَنْجَدَ بِخَالِدٍ الَّذِي قَدِمَ عَلَى رَأْسِ ستَّةَ آلافِ مقاتل . تَفَكَّكَتْ قِيَادَةُ العَرَبِ المَسِيحِيِّينَ وَاخْتَلَفَ القَادَةُ، فَانْسَحَبَ أَكِيدَرُ وَقُتِلَ فِي الطَّرِيقِ، وَتَفَرَّقَتِ القَبَائِلُ فِي خِضَمِّ الهَجْمَةِ الإِسْلَامِيَّةِ الخَاطِفَةِ. هَاجَمَ خَالِدٌ قِيَادَةَ الجُودِيِّ فَهَزَمَهَا فِي دَقَائِقَ، وَقُتِلَ الكَثِيرُونَ، وَأُسِرَ آخَرُونَ، وَأُغْلِقَ الحِصْنُ فِي وَجْهِ الهَارِبِينَ. بَعْدَ أَيَّامٍ، هَاجَمَ المُسْلِمُونَ الحِصْنَ وَاقْتَحَمُوهُ، وَقُتِلَتِ الحَامِيَةُ، وَسُبِيَ مَنْ فِيهِ. بَعْدَ المَعْرَكَةِ تَوَجَّهَ خَالِدٌ مَعَ عِيَاضٍ إِلَى الحِيرَةِ وَأَكْمَلُوا الفُتُوحَ فِي العِرَاقِ.</t>
+    <t>وَقَعَتْ مَعْرَكَةُ دُومَةِ الجَنْدَلِ فِي السَّنَةِ الثَّانِيَةِ عَشْرَةَ للهِجْرَةِ ، بَيْنَ جَيْشِ المُسْلِمِينَ بِقِيَادَةِ عِيَاضِ بْنِ غَنْم وَمِنْ بَعْدِهِ خَالِدِ بْنِ الوَلِيدِ، وَجُيُوشٍ عَرَبِيَّةٍ مَسِيحِيَّةٍ تَزْعَّمَهَا أَكِيدَرُ بْنُ عَبْدِ المَلِكِ وَالجُودِيُّ بْنُ رَبِيعَةَ. كَانَتْ دُومَةُ الجَنْدَلِ مَرْكَزًا تِجَارِيًّا مُهِمًّا، وَكَانَ أَهْلُهَا يَعْبُدُونَ صَنَمَ "وُد"، وَقَدْ حَطَّمَهُ خَالِدٌ بْنُ الوَلِيدِ بَعْدَ أَنْ أَرْسَلَهُ النَّبِيُّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ . سَبَقَتِ المَعْرَكَةَ غَزَوَاتٌ أُخْرَى لِلمُسْلِمِينَ فِي المِنْطَقَةِ، مِنْهَا غَزْوَةُ النَّبِيِّ صَلَّى اللَّهُ عَلَيْهِ وَسَلَّمَ وَبَعْثُ عَبْدِ الرَّحْمَن بْنِ عَوْفٍ وَخَالِدِ بْنِ الوَلِيدِ. بَدَأَ عِيَاضٌ الحِصَارَ، وَلَمَّا طَالَ وَتَعِبَ الجَانِبَانِ، اسْتَنْجَدَ بِخَالِدٍ الَّذِي قَدِمَ عَلَى رَأْسِ ستَّةَ آلافِ مقاتل . تَفَكَّكَتْ قِيَادَةُ العَرَبِ المَسِيحِيِّينَ وَاخْتَلَفَ القَادَةُ، فَانْسَحَبَ أَكِيدَرُ وَقُتِلَ فِي الطَّرِيقِ، وَتَفَرَّقَتِ القَبَائِلُ فِي خِضَمِّ الهَجْمَةِ الإِسْلَامِيَّةِ الخَاطِفَةِ. هَاجَمَ خَالِدٌ قِيَادَةَ الجُودِيِّ فَهَزَمَهَا فِي دَقَائِقَ، وَقُتِلَ الكَثِيرُونَ، وَأُسِرَ آخَرُونَ، وَأُغْلِقَ الحِصْنُ فِي وَجْهِ الهَارِبِينَ. بَعْدَ أَيَّامٍ، هَاجَمَ المُسْلِمُونَ الحِصْنَ وَاقْتَحَمُوهُ، وَقُتِلَتِ الحَامِيَةُ، وَسُبِيَ مَنْ فِيهِ. بَعْدَ المَعْرَكَةِ تَوَجَّهَ خَالِدٌ مَعَ عِيَاضٍ إِلَى الحِيرَةِ وَأَكْمَلُوا الفُتُوحَ فِي العِرَاقِ.</t>
   </si>
   <si>
     <t xml:space="preserve"> محاولة فتح العراق</t>
@@ -1178,7 +1183,7 @@
     <t>قارن بن قريانس, انوشجان, قباذ</t>
   </si>
   <si>
-    <t>وَقَعَت مَعْرَكَةُ الثَّنَي (أو المِذَار) في شَهْرِ صَفَرٍ في السَنَة الثانية عشر للهِجْرَة، بَيْنَ جَيْشِ الخِلافَةِ الرَّاشِدَةِ بِقِيادَةِ خَالِدِ بْنِ الوَلِيدِ، وَبَيْنَ جَيْشِ الإِمْبِرَاطُورِيَّةِ الفَارِسِيَّةِ. بَعْدَ هَزِيمَةِ قَائِدِ الفُرْسِ هُرْمُز فِي مَعْرَكَةِ ذَاتِ السَّلَاسِل، أَرْسَلَ مَلِكُ الفُرْسِ أَرْدَشِير جَيْشًا آخَرَ تَحْتَ قِيادَةِ قَارِنِ بْنِ قُرْيَانِس لِصَدِّ التَّقَدُّمِ الإِسْلَامِيِّ. فَلَمَّا وَصَلَ قَارِنٌ إِلَى المِذَار، انْضَمَّ إِلَيْهِ مَنْ نَجَا مِنْ جَيْشِ هُرْمُز الْمَهْزُوم، وَكَانَ مَعَهُم قَبَاذ وَأَنُوشْجَان. نَزَلُوا جَمِيعًا عِنْدَ نَهْرِ الثَّنَى (وَهُوَ فَرْعٌ مِنْ نَهْرِ الدِّجْلَةِ)، وَفِي هَذِهِ الأَثْنَاءِ كَانَ المُثَنَّى بْنُ حَارِثَة قَدْ تَوَقَّفَ عِنْدَ النَّهْرِ، فَأَحَاطَ بِهِ الخَطَرُ، حَتَّى وَافَاهُ خَالِدُ بْنُ الوَلِيدِ فِي الوَقْتِ المُنَاسِبِ، وَاشْتَبَكَ الجَيْشَانِ فِي قِتَالٍ شَدِيدٍ.انْتَهَى القِتَالُ بِهَزِيمَةِ الفُرْسِ وَفِرَارِهِم، وَقُتِلَ مِنْهُم نَحْوَ ثلاثون أَلْفًا، عِدَا مَنْ غَرِقَ أَوْ فَرَّ بِالقَوَارِبِ. وَبِسَبَبِ النَّهْرِ لَمْ يَسْتَطِعِ المُسْلِمُونَ مُطَارَدَةَ الفَارِّينَ، وَلَكِنَّهُمْ غَنِمُوا غَنَائِمَ كَبِيرَة، وَقُتِلَ كُلُّ رَجُلٍ قَادِرٍ عَلَى القِتَالِ، وَأُسِرَتِ النِّسَاء، وَأُخِذَتِ الجِزْيَةُ مِنَ الفَلَّاحِينَ، فَصَارُوا ذِمِّيِّينَ، وَأُبْقِيَتْ أَرَاضِيهِمْ لَهُمْ. مِنَ السَّبْيِ كَانَ أَبُو الحَسَنِ البَصْرِيّ (الذِي أَسْلَمَ فِي مَا بَعْدُ)، وَأَمَّا قَارِن بْن قُرْيَانِس فَقَدْ قَتَلَهُ مَعْقِلُ بْنُ الأَعْشَى، وَقَتَلَ عَاصِمٌ أَنُوشْجَان، وَقَتَلَ عَدِيُّ بْنُ حَاتِمٍ قَبَاذ.</t>
+    <t>وَقَعَت مَعْرَكَةُ الثَّنَي (أو المِذَار) في شَهْرِ صَفَرٍ في السَنَة الثانية عشر للهِجْرَة، بَيْنَ جَيْشِ الخِلافَةِ الرَّاشِدَةِ بِقِيادَةِ خَالِدِ بْنِ الوَلِيدِ، وَبَيْنَ جَيْشِ الإِمْبِرَاطُورِيَّةِ الفَارِسِيَّةِ. بَعْدَ هَزِيمَةِ قَائِدِ الفُرْسِ هُرْمُز فِي مَعْرَكَةِ ذَاتِ السَّلَاسِل، أَرْسَلَ مَلِكُ الفُرْسِ أَرْدَشِير جَيْشًا آخَرَ تَحْتَ قِيادَةِ قَارِنِ بْنِ قُرْيَانِس لِصَدِّ التَّقَدُّمِ الإِسْلَامِيِّ. فَلَمَّا وَصَلَ قَارِنٌ إِلَى المِذَار، انْضَمَّ إِلَيْهِ مَنْ نَجَا مِنْ جَيْشِ هُرْمُز الْمَهْزُوم، وَكَانَ مَعَهُم قَبَاذ وَأَنُوشْجَان. نَزَلُوا جَمِيعًا عِنْدَ نَهْرِ الثَّنَى وَهُوَ فَرْعٌ مِنْ نَهْرِ الدِّجْلَةِ، وَفِي هَذِهِ الأَثْنَاءِ كَانَ المُثَنَّى بْنُ حَارِثَة قَدْ تَوَقَّفَ عِنْدَ النَّهْرِ، فَأَحَاطَ بِهِ الخَطَرُ، حَتَّى وَافَاهُ خَالِدُ بْنُ الوَلِيدِ فِي الوَقْتِ المُنَاسِبِ، وَاشْتَبَكَ الجَيْشَانِ فِي قِتَالٍ شَدِيدٍ.انْتَهَى القِتَالُ بِهَزِيمَةِ الفُرْسِ وَفِرَارِهِم، وَقُتِلَ مِنْهُم نَحْوَ ثلاثون أَلْفًا، عِدَا مَنْ غَرِقَ أَوْ فَرَّ بِالقَوَارِبِ. وَبِسَبَبِ النَّهْرِ لَمْ يَسْتَطِعِ المُسْلِمُونَ مُطَارَدَةَ الفَارِّينَ، وَلَكِنَّهُمْ غَنِمُوا غَنَائِمَ كَبِيرَة، وَقُتِلَ كُلُّ رَجُلٍ قَادِرٍ عَلَى القِتَالِ، وَأُسِرَتِ النِّسَاء، وَأُخِذَتِ الجِزْيَةُ مِنَ الفَلَّاحِينَ، فَصَارُوا ذِمِّيِّينَ، وَأُبْقِيَتْ أَرَاضِيهِمْ لَهُمْ. مِنَ السَّبْيِ كَانَ أَبُو الحَسَنِ البَصْرِيّ (الذِي أَسْلَمَ فِي مَا بَعْدُ)، وَأَمَّا قَارِن بْن قُرْيَانِس فَقَدْ قَتَلَهُ مَعْقِلُ بْنُ الأَعْشَى، وَقَتَلَ عَاصِمٌ أَنُوشْجَان، وَقَتَلَ عَدِيُّ بْنُ حَاتِمٍ قَبَاذ.</t>
   </si>
   <si>
     <t>الثأر لهزيمة الفرس في ذات السلاسل واسترجاع المناطق, رد الهجمات الاسلامية</t>
@@ -3161,8 +3166,8 @@
   </sheetPr>
   <dimension ref="A1:AD1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="H48" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>

--- a/backend/الغزوات.xlsx
+++ b/backend/الغزوات.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f58b35e40015d4ae/سطح المكتب/Raya.github.io/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="11_B8ACEE991895064A1CB304B4C4E8A0A449CCCB21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45CA62D8-E008-4912-B7CD-5E7500435378}"/>
+  <xr:revisionPtr revIDLastSave="454" documentId="11_B8ACEE991895064A1CB304B4C4E8A0A449CCCB21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{167F088E-1043-4FFF-8E96-2F8A71DE1413}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1270,7 +1270,7 @@
     <t xml:space="preserve">4,000 – 12,000 </t>
   </si>
   <si>
-    <t>فِي جُمَادَى الآخِر في السَنَةَ الثالثة عشر للهجرة، تَوَجَّهَ خَالِدُ بْنُ الوَلِيدِ رَضِيَ اللَّهُ عَنْهُ مَعَ جَيْشِهِ نَحْوَ بُصْرَى، وَهِيَ مِن أَهَمِّ مُدُنِ الشَّامِ، وَكَانَت تَحْتَ سَيْطَرَةِ الرُّومِ وَحُلَفَائِهِم مِن الغَسَاسِنَةِ. حَاصَرَ المُسْلِمُونَ المَدِينَه، وَدَارَ قِتَالٌ مَعَ الحَامِيَةِ البِيزَنْطِيَّةِ, بَعْدَ أَيَّامٍ مِنَ الحِصَارِ وَالاقْتِحَامِ، طَلَبَ أَهْلُ المَدِينَةِ الصُّلْحَ، وَفُتِحَت بُصْرَى عَلَى الجِزْيَةِ، وَكَانَ ذَلِكَ فِي عَهْدِ أَبِي بَكْرٍ الصِّدِّيقِ رَضِيَ اللَّهُ عَنْهُ.</t>
+    <t>فِي جُمَادَى الآخِر في السَنَةَ الثالثة عشر للهجرة، تَوَجَّهَ خَالِدُ بْنُ الوَلِيدِ رَضِيَ اللَّهُ عَنْهُ مَعَ جَيْشِهِ نَحْوَ بُصْرَى، وَهِيَ مِن أَهَمِّ مُدُنِ الشَّامِ، وَكَانَت تَحْتَ سَيْطَرَةِ الرُّومِ وَحُلَفَائِهِم مِن الغَسَاسِنَةِ. حَاصَرَ المُسْلِمُونَ المَدِينَة، وَدَارَ قِتَالٌ مَعَ الحَامِيَةِ البِيزَنْطِيَّةِ, بَعْدَ أَيَّامٍ مِنَ الحِصَارِ وَالاقْتِحَامِ، طَلَبَ أَهْلُ المَدِينَةِ الصُّلْحَ، وَفُتِحَت بُصْرَى عَلَى الجِزْيَةِ، وَكَانَ ذَلِكَ فِي عَهْدِ أَبِي بَكْرٍ الصِّدِّيقِ رَضِيَ اللَّهُ عَنْهُ.</t>
   </si>
   <si>
     <t>فتح أول مركز بيزنطي هام في الشام، وتمهيد الطريق لفتح دمشق وغيرها من الأراضي الشامية</t>
@@ -1390,7 +1390,7 @@
     <t>إياس بن قبيصة الطائي</t>
   </si>
   <si>
-    <t>بَعْدَ مَوْقِعَةِ الْجِسْرِ الَّتِي كَانَتْ لَهَا أَثَرٌ كَبِيرٌ عَلَى مَجْرَى الْفُتُوحِ، وَفِي نِهَايَةِ السَّنَةِ الثَّالِثَةِ عَشْرَةَ لِلْهِجْرَةِ، تَوَجَّهَ خَالِدُ بْنُ الْوَلِيدِ رَضِيَ اللَّهُ عَنْهُ بِقُوَّاتِهِ الْإِسْلَامِيَّةِ نَحْوَ مَدِينَةِ الْحِيرَةِ، وَهِيَ مَدِينَةٌ مَشْهُورَةٌ بِالثَّقَافَةِ وَالْعِلْمِ، وَكَانَتْ عَاصِمَةَ آلِ الْمُنْذِرِ مِنَ النَّصَارَى الْعَرَبِ، وَتَتْبَعُ لِلدَّوْلَةِ السَّاسَانِيَّةِ.كَانَتْ الْحِيرَةُ تَتَمَتَّعُ بِمَكَانَةٍ اسْتِرَاتِيجِيَّةٍ كَبِيرَةٍ، فَهِيَ بَوَّابَةُ  الفُرَاتِ الْأَعْلَى، وَمَنْ أَخَذَهَا أَمَّنَ الطَّرِيقَ نَحْوَ الْمَدَائِنِ عَاصِمَةِ الْفُرْسِ.فَقَامَ خَالِدٌ بِحِصَارِهَا لِعِدَّةِ أَيَّامٍ، ثُمَّ رَأَى أَهْلُهَا أَنَّهُمْ لَا قُدْرَةَ لَهُمْ عَلَى الْمُقَاوَمَةِ، فَطَلَبُوا الصُّلْحَ وَدَفْعَ الْجِزْيَةِ، فَقَبِلَ خَالِدٌ ذَلِكَ وَأَمَّنَهُمْ عَلَى دِيَارِهِمْ وَأَنْفُسِهِمْ. وَلَمْ تَكُنْ هُنَاكَ مَعْرَكَةٌ كَبِيرَةٌ، بَلْ دَخَلَهَا الْمُسْلِمُونَ بِالسِّلْمِ وَحُسْنِ التَّدْبِيرِ. وَكَانَ هَذَا الْفَتْحُ نُقْطَةَ تَحَوُّلٍ هَامَّةً فِي تَمْهِيدِ طَرِيقِ الْفُتُوحَاتِ فِي الْعِرَاقِ، وَبِهِ تَرَسَّخَ وُجُودُ الْمُسْلِمِينَ فِي الْمَنَاطِقِ الْمَأْهُولَةِ قُرْبَ عَاصِمَةِ الْفُرْسِ.</t>
+    <t>بَعْدَ مَوْقِعَةِ الْجِسْرِ الَّتِي كَانَتْ لَهَا أَثَرٌ كَبِيرٌ عَلَى مَجْرَى الْفُتُوحِ، وَفِي نِهَايَةِ السَّنَةِ الثَّالِثَةِ عَشْرَةَ لِلْهِجْرَةِ، تَوَجَّهَ خَالِدُ بْنُ الْوَلِيدِ رَضِيَ اللَّهُ عَنْهُ بِقُوَّاتِهِ الْإِسْلَامِيَّةِ نَحْوَ مَدِينَةِ الْحِيرَةِ، وَهِيَ مَدِينَةٌ مَشْهُورَةٌ بِالثَّقَافَةِ وَالْعِلْمِ، وَكَانَتْ عَاصِمَةَ آلِ الْمُنْذِرِ مِنَ النَّصَارَى الْعَرَبِ، وَتَتْبَعُ لِلدَّوْلَةِ السَّاسَانِيَّةِ.كَانَتْ الْحِيرَةُ تَتَمَتَّعُ بِمَكَانَةٍ اسْتِرَاتِيجِيَّةٍ كَبِيرَةٍ، فَهِيَ بَوَّابَةُ الفُرَاتِ الْأَعْلَى، وَمَنْ أَخَذَهَا أَمَّنَ الطَّرِيقَ نَحْوَ الْمَدَائِنِ عَاصِمَةِ الْفُرْسِ.فَقَامَ خَالِدٌ بِحِصَارِهَا لِعِدَّةِ أَيَّامٍ، ثُمَّ رَأَى أَهْلُهَا أَنَّهُمْ لَا قُدْرَةَ لَهُمْ عَلَى الْمُقَاوَمَةِ، فَطَلَبُوا الصُّلْحَ وَدَفْعَ الْجِزْيَةِ، فَقَبِلَ خَالِدٌ ذَلِكَ وَأَمَّنَهُمْ عَلَى دِيَارِهِمْ وَأَنْفُسِهِمْ. وَلَمْ تَكُنْ هُنَاكَ مَعْرَكَةٌ كَبِيرَةٌ، بَلْ دَخَلَهَا الْمُسْلِمُونَ بِالسِّلْمِ وَحُسْنِ التَّدْبِيرِ. وَكَانَ هَذَا الْفَتْحُ نُقْطَةَ تَحَوُّلٍ هَامَّةً فِي تَمْهِيدِ طَرِيقِ الْفُتُوحَاتِ فِي الْعِرَاقِ، وَبِهِ تَرَسَّخَ وُجُودُ الْمُسْلِمِينَ فِي الْمَنَاطِقِ الْمَأْهُولَةِ قُرْبَ عَاصِمَةِ الْفُرْسِ.</t>
   </si>
   <si>
     <t>الاستفادة من انهيار الروح المعنوية بعد معركة أُليس، كسر النفوذ الفارسي غير المباشر</t>
@@ -1459,7 +1459,7 @@
     <t>توماس</t>
   </si>
   <si>
-    <t xml:space="preserve">فِي السَنَةِ  الثالثة عشر للهجرة ، بَعْدَ انْتِصَارِ المُسْلِمِينَ الفَاصِلِ فِي أَجْنَادِينَ، بَدَأَ الرُّومُ بِالتَّجَمُّعِ فِي سَهْلٍ خَصِيبٍ يُسَمَّى مرج الدِّيبَاجِ قُرْبَ بِيسَانَ، حَيْثُ أَرَادُوا إِيقَافَ زَحْفِ الجَيْشِ الإِسْلَامِيِّ نَحْوَ فِلَسْطِينَ. عِنْدَمَا رَأَى خَالِدٌ تَجَمُّعَ الرُّومِ، قَسَّمَ جَيْشَهُ إِلَى فِرَقٍ، وَهَاجَمَهُمْ بِسُرْعَةٍ مُبَاغِتَةٍ. في اليَوْمُ الأَوَّلُ اشْتَدَّ القِتَالُ، وَأَبْلَى المُسْلِمُونَ بَلاءً حَسَنًا.. وفي اليَوْمُ الثَّانِي اسْتَخْدَمَ خَالِدٌ حِيلَةً عَسْكَرِيَّةً، حَيْثُ أَمَرَ بِإِشْعَالِ النِّيرَانِ لَيلًا لإِيْهَامْ أنَّ الجَيْشَ أَكْبَرَ مِنْ حَجْمِهِ الحَقِيقِيِّ، فَأَثَارَ الذُّعْرَ فِي صُفُوفِ الرُّومِ. وفي النِّهَايَة هَرَبَ توماس إِلَى دِمَشْقَ، وَانْتَصَرَ المُسْلِمُونَ نَصْرًا سَاحِقًا.  </t>
+    <t xml:space="preserve">فِي السَنَةِ  الثالثة عشر للهجرة، بَعْدَ انْتِصَارِ المُسْلِمِينَ الفَاصِلِ فِي أَجْنَادِينَ، بَدَأَ الرُّومُ بِالتَّجَمُّعِ فِي سَهْلٍ خَصِيبٍ يُسَمَّى مرج الدِّيبَاجِ قُرْبَ بِيسَانَ، حَيْثُ أَرَادُوا إِيقَافَ زَحْفِ الجَيْشِ الإِسْلَامِيِّ نَحْوَ فِلَسْطِينَ. عِنْدَمَا رَأَى خَالِدٌ تَجَمُّعَ الرُّومِ، قَسَّمَ جَيْشَهُ إِلَى فِرَقٍ، وَهَاجَمَهُمْ بِسُرْعَةٍ مُبَاغِتَةٍ. في اليَوْمُ الأَوَّلُ اشْتَدَّ القِتَالُ، وَأَبْلَى المُسْلِمُونَ بَلاءً حَسَنًا وفي اليَوْمُ الثَّانِي اسْتَخْدَمَ خَالِدٌ حِيلَةً عَسْكَرِيَّةً، حَيْثُ أَمَرَ بِإِشْعَالِ النِّيرَانِ لَيلًا لإِيْهَامْ أنَّ الجَيْشَ أَكْبَرَ مِنْ حَجْمِهِ الحَقِيقِيِّ، فَأَثَارَ الذُّعْرَ فِي صُفُوفِ الرُّومِ. وفي النِّهَايَة هَرَبَ توماس إِلَى دِمَشْقَ، وَانْتَصَرَ المُسْلِمُونَ نَصْرًا سَاحِقًا.  </t>
   </si>
   <si>
     <t>بعد انتصار المسلمين في أجنادين، تجمع الروم في مرج الديباج لإعاقة تقدم المسلمين نحو فلسطين.</t>
@@ -2286,7 +2286,7 @@
     <t>راجا راسل, راي ساهيراس الثاني, راي ساهاسي الثاني</t>
   </si>
   <si>
-    <t>فِي سَنَةِ ثَلاثٍ وَعِشْرِينَ لِلْهِجْرَةِ ، أَرْسَلَ الخَلِيفَةُ عُمَرُ بْنُ الخَطَّابِ رَضِيَ اللهُ عَنْهُ، القَائِدَ سُهَيْلَ بْنَ عَدِيٍّ فِي حَمْلَةٍ عَسْكَرِيَّةٍ لِفَتْحِ مَنَاطِقَ مَكْرَان، وَهِيَ أَرَاضٍ تَقَعُ عَلَى الضِّفَّةِ الغَرْبِيَّةِ لِنَهْرِ السِّنْدِ، وَكَانَت تَخْضَعُ لِـ مَمْلَكَةِ رَاي تَحْتَ حُكْمِ الرَّاجَا رَاسِل. تَوَجَّهَ سُهَيْلٌ بِجَيْشِهِ مِنَ البَصْرَةِ، وَانْضَمَّ إِلَيْهِ كُلٌّ مِنَ الحُكْمِ بْنِ عَمْرٍو التَّغْلَبِيِّ، وَشِهَابِ بْنِ المُخَارِقِ، وَعَبْدِ اللهِ بْنِ عَبْدِ اللهِ بْنِ عُتْبَان. حِينَ وَصَلُوا إِلَى مَكْرَان، حَشَدَ الرَّاجَا رَاسِل جُيُوشًا كَبِيرَةً لِصَدِّ تَقَدُّمِ المُسْلِمِينَ. اشْتَبَكَ الجَيْشَانِ فِي مَعْرَكَةٍ شَدِيدَةٍ عَلَى ضِفَافِ نَهْرِ مَكْرَان، وَدَامَ القِتَالُ أَيَّامًا، حَتَّى انْتَصَرَ المُسْلِمُونَ، وَفَرَّ جَيْشُ رَاسِل إِلَى الضِّفَّةِ الشَّرْقِيَّةِ لِنَهْرِ السِّنْدِ. فَلَمَّا بَلَغَ الخَلِيفَةَ عُمَرَ أَمْرُ النَّصْرِ، وَعَلِمَ بِفَقْرِ بِلَادِ السِّنْدِ وَبُعْدِهَا، رَفَضَ التَّقَدُّمَ فِي الفُتُوحَاتِ، وَقَالَ: "وَدِدْتُ بَيْنَنَا وَبَيْنَ السِّنْدِ بَحْرًا مِنْ نَارٍ، لا يُوصَلُ إِلَيْهِ، وَلا يُخْرَجُ مِنْهُ. فَجَعَلَ نَهْرَ السِّنْدِ حَدًّا طَبِيعِيًّا شَرْقِيًّا لِدَوْلَةِ الإِسْلَامِ فِي عَهْدِهِ.</t>
+    <t>فِي سَنَةِ ثَلاثٍ وَعِشْرِينَ لِلْهِجْرَةِ، أَرْسَلَ الخَلِيفَةُ عُمَرُ بْنُ الخَطَّابِ رَضِيَ اللهُ عَنْهُ، القَائِدَ سُهَيْلَ بْنَ عَدِيٍّ فِي حَمْلَةٍ عَسْكَرِيَّةٍ لِفَتْحِ مَنَاطِقَ مَكْرَان، وَهِيَ أَرَاضٍ تَقَعُ عَلَى الضِّفَّةِ الغَرْبِيَّةِ لِنَهْرِ السِّنْدِ، وَكَانَت تَخْضَعُ لِـ مَمْلَكَةِ رَاي تَحْتَ حُكْمِ الرَّاجَا رَاسِل. تَوَجَّهَ سُهَيْلٌ بِجَيْشِهِ مِنَ البَصْرَةِ، وَانْضَمَّ إِلَيْهِ كُلٌّ مِنَ الحُكْمِ بْنِ عَمْرٍو التَّغْلَبِيِّ، وَشِهَابِ بْنِ المُخَارِقِ، وَعَبْدِ اللهِ بْنِ عَبْدِ اللهِ بْنِ عُتْبَان. حِينَ وَصَلُوا إِلَى مَكْرَان، حَشَدَ الرَّاجَا رَاسِل جُيُوشًا كَبِيرَةً لِصَدِّ تَقَدُّمِ المُسْلِمِينَ. اشْتَبَكَ الجَيْشَانِ فِي مَعْرَكَةٍ شَدِيدَةٍ عَلَى ضِفَافِ نَهْرِ مَكْرَان، وَدَامَ القِتَالُ أَيَّامًا، حَتَّى انْتَصَرَ المُسْلِمُونَ، وَفَرَّ جَيْشُ رَاسِل إِلَى الضِّفَّةِ الشَّرْقِيَّةِ لِنَهْرِ السِّنْدِ. فَلَمَّا بَلَغَ الخَلِيفَةَ عُمَرَ أَمْرُ النَّصْرِ، وَعَلِمَ بِفَقْرِ بِلَادِ السِّنْدِ وَبُعْدِهَا، رَفَضَ التَّقَدُّمَ فِي الفُتُوحَاتِ، وَقَالَ: وَدِدْتُ بَيْنَنَا وَبَيْنَ السِّنْدِ بَحْرًا مِنْ نَارٍ، لا يُوصَلُ إِلَيْهِ، وَلا يُخْرَجُ مِنْهُ. فَجَعَلَ نَهْرَ السِّنْدِ حَدًّا طَبِيعِيًّا شَرْقِيًّا لِدَوْلَةِ الإِسْلَامِ فِي عَهْدِهِ.</t>
   </si>
   <si>
     <t>فتح أراضٍ جديدة شرق فارس وتأمين الحدود</t>
@@ -2538,7 +2538,7 @@
     <t>ملك مملكة المقرة "كالديرات"</t>
   </si>
   <si>
-    <t>بَعْدَ فَتْحِ مِصْرَ سَنَةَ عِشْرِينَ لِلْهِجْرَةِ، أَرْسَلَ عُمَرُ بْنُ الْخَطَّابِ جَيْشًا تَحْتَ قِيَادَةِ عُقْبَةَ بْنِ نَافِعٍ لِقِتَالِ النُّوبَةِ، فَلَقُوا مُقَاوَمَةً شَدِيدَةً وَخَسَائِرَ كَبِيرَةً، فَتَوَقَّفَ الزَّحْفُ. فِي سَنَةِ خَمْسٍ وَعِشْرِينَ لِلْهِجْرَةِ، عُقِدَتْ مُعَاهَدَةُ الْبَقْطِ بَيْنَ الْمُسْلِمِينَ وَالنُّوبِيِّينَ لِتَنْظِيمِ الْعِلَاقَاتِ. وَلَمَّا نَقَضَ النُّوبِيُّونَ الْمُعَاهَدَةَ بَعْدَ سِتِّ سِنِينَ، خَرَجَ جَيْشٌ إِسْلَامِيٌّ بِقِيَادَةِ عَبْدِ اللهِ بْنِ سَعْدٍ بْنِ أَبِي السَّرْحِ، فَحَاصَرَ دُنْقُلَا، وَلَكِنَّهُ انْسَحَبَ بَعْدَ قِتَالٍ، وَتَمَّ تَجْدِيدُ الْمُعَاهَدَةِ مَرَّةً أُخْرَى.</t>
+    <t>بَعْدَ فَتْحِ مِصْرَ سَنَةَ عِشْرِينَ لِلْهِجْرَةِ، أَرْسَلَ عُمَرُ بْنُ الْخَطَّابِ جَيْشًا تَحْتَ قِيَادَةِ عُقْبَةَ بْنِ نَافِعٍ لِقِتَالِ النُّوبَةِ، فَلَقُوا مُقَاوَمَةً شَدِيدَةً وَخَسَائِرَ كَبِيرَةً، فَتَوَقَّفَ الزَّحْفُ. فِي سَنَةِ خَمْسٍ وَعِشْرِينَ لِلْهِجْرَةِ، عُقِدَتْ مُعَاهَدَةُ الْبَقْطِ بَيْنَ الْمُسْلِمِينَ وَالنُّوبِيِّينَ لِتَنْظِيمِ الْعِلَاقَاتِ. وَلَمَّا نَقَضَ النُّوبِيُّونَ الْمُعَاهَدَةَ بَعْدَ سِتِّ سِنِينَ، خَرَجَ جَيْشٌ إِسْلَامِيٌّ بِقِيَادَةِ عَبْدِ اللهِ بْنِ سَعْدٍ، فَحَاصَرَ دُنْقُلَا، وَلَكِنَّهُ انْسَحَبَ بَعْدَ قِتَالٍ، وَتَمَّ تَجْدِيدُ الْمُعَاهَدَةِ مَرَّةً أُخْرَى.</t>
   </si>
   <si>
     <t>خرق النوبيين لإحدى بنود المعاهدة المقبرمة سنة 24 للهجرة</t>
@@ -2586,7 +2586,7 @@
     <t>هياطلة, آل كارين</t>
   </si>
   <si>
-    <t>فِي سَنَةِ إِحْدَى وَثَلَاثِينَ لِلهِجْرَةِ، فِي عَهْدِ الخَلِيفَةِ عُثْمَانَ بْنِ عَفَّانَ رَضِيَ اللهُ عَنْهُ، وَفِي سِيَاقِ الفُتُوحَاتِ الإِسْلَامِيَّةِ فِي خُرَاسَان، أُمِرَ القَائِدُ الأَحْنَفُ بْنُ قَيْسٍ مِنْ قِبَلِ عَبْدِ اللهِ بْنِ عَامِرٍ ـ وَالِي البَصْرَةِ ـ بِالتَّقَدُّمِ لِفَتْحِ مَنَاطِقِ خُرَاسَانَ، وَمِنْهَا مَدِينَةُ هَرَاة. فِي البِدَايَةِ، دَخَلَ الأَحْنَفُ بْنُ قَيْسٍ المِنْطَقَةَ سِلْمًا، فَقَبِلَ أَهْلُ هَرَاة بِدَفْعِ الجِزْيَةِ وَالعَيْشِ فِي سِلْمٍ مَعَ المُسْلِمِينَ. وَلَكِنَّ المَدِينَةَ مَا لَبِثَت أَنْ تَمَرَّدَت وَنَقَضَت العَهْدَ، فَاضْطُرَّ الأَحْنَفُ إِلَى عَودَةِ القِتَالِ. فَدَارَت مَعْرَكَةٌ شَدِيدَةٌ، انْتَصَرَ فِيهَا المُسْلِمُونَ، وَهُزِمَ حَاكِمُ هَرَاةَ، وَعَقَدَ مَعَ الأَحْنَفِ صُلْحًا جَدِيدًا. وَلكِنَّهُ عَاوَدَ التَّمَرُّدَ مَعَ بَقَايَا آلِ كَارِين وَفِئَاتٍ أُخْرَى فِي خُرَاسَان، فَتَصَدَّى لَهُم الأَحْنَفُ فِي مَعْرَكَةِ بَادْغِيس وَهَزَمَهُم هَزِيمَةً كَاسِحَةً.</t>
+    <t>فِي سَنَةِ إِحْدَى وَثَلَاثِينَ لِلهِجْرَةِ، فِي عَهْدِ الخَلِيفَةِ عُثْمَانَ بْنِ عَفَّانَ رَضِيَ اللهُ عَنْهُ، وَفِي سِيَاقِ الفُتُوحَاتِ الإِسْلَامِيَّةِ فِي خُرَاسَان، أُمِرَ القَائِدُ الأَحْنَفُ بْنُ قَيْسٍ مِنْ قِبَلِ عَبْدِ اللهِ بْنِ عَامِرٍ وَالِي البَصْرَةِ بِالتَّقَدُّمِ لِفَتْحِ مَنَاطِقِ خُرَاسَانَ، وَمِنْهَا مَدِينَةُ هَرَاة. فِي البِدَايَةِ، دَخَلَ الأَحْنَفُ بْنُ قَيْسٍ المِنْطَقَةَ سِلْمًا، فَقَبِلَ أَهْلُ هَرَاة بِدَفْعِ الجِزْيَةِ وَالعَيْشِ فِي سِلْمٍ مَعَ المُسْلِمِينَ. وَلَكِنَّ المَدِينَةَ مَا لَبِثَت أَنْ تَمَرَّدَت وَنَقَضَت العَهْدَ، فَاضْطُرَّ الأَحْنَفُ إِلَى عَودَةِ القِتَالِ. فَدَارَت مَعْرَكَةٌ شَدِيدَةٌ، انْتَصَرَ فِيهَا المُسْلِمُونَ، وَهُزِمَ حَاكِمُ هَرَاةَ، وَعَقَدَ مَعَ الأَحْنَفِ صُلْحًا جَدِيدًا. وَلكِنَّهُ عَاوَدَ التَّمَرُّدَ مَعَ بَقَايَا آلِ كَارِين وَفِئَاتٍ أُخْرَى فِي خُرَاسَان، فَتَصَدَّى لَهُم الأَحْنَفُ فِي مَعْرَكَةِ بَادْغِيس وَهَزَمَهُم هَزِيمَةً كَاسِحَةً.</t>
   </si>
   <si>
     <t>تمرّد حاكم هراة بعد قبوله الصلح, رغبة الدولة الإسلامية في استكمال السيطرة على خراسان.</t>
@@ -2664,7 +2664,7 @@
     <t xml:space="preserve">عائشة بنت أبي بكر,طلحة بن عبيد الله ,الزبير بن العوام </t>
   </si>
   <si>
-    <t>فِي سَنَةِ ستة وثلاثون هِجْرِيا، وَقَعَتْ مَوْقِعَةُ الجَمَلِ بَعْدَ مَقْتَلِ الخَلِيفَةِ عُثْمَانَ بْنِ عَفَّانَ، حَيْثُ خَرَجَتْ عَائِشَةُ فِي هُودَجٍ عَلَى جَمَلٍ أَحْمَرَ مَعَ الزُّبَيْرِ وَطَلْحَةَ بِجَيْشٍ قُدِّرَ ب ثلاثون أَلْفًا، يُطَالِبُونَ بِالقِصَاصِ. فِي المُقَابِلِ، خَرَجَ عَلِيٌّ بْنُ أَبِي طَالِبٍ بعشرون أَلْفًا لِإِيقَافِ الفِتْنَةِ. وَرَغْمَ مُحَاوَلَاتِ الصُّلْحِ، أَشْعَلَتْ فِرْقَةٌ مُتَطَرِّفَةٌ القِتَالَ في الليل. اِنْتَهَتِ المَعْرَكَةُ بِمَقْتَلِ طَلْحَةَ، وَقَتْلِ الزُّبَيْرِ بَعْدَ تَرَاجُعِهِ، وَحِفَاظِ عَلِيٍّ عَلَى حُرْمَةِ عَائِشَةَ وَإِرْجَاعِهَا إِلَى المَدِينَةِ. تَجَلَّتْ فِي المَوْقِعَةِ أَوَّلُ فِتْنَةٍ دَاخِلِيَّةٍ بَيْنَ المُسْلِمِينَ، وَظَهَرَتْ فِيهَا حِكْمَةُ عَلِيٍّ فِي التَّعَامُلِ مَعَ أَصْحَابِهِ، وَقِيلَ فِيهَا: "لَوْ لَا الجَمَلُ لَمَا تَفَرَّقَ المُسْلِمُونَ شِيَعًا!"</t>
+    <t>فِي سَنَةِ ستة وثلاثين هِجْرِيا، وَقَعَتْ مَوْقِعَةُ الجَمَلِ بَعْدَ مَقْتَلِ الخَلِيفَةِ عُثْمَانَ بْنِ عَفَّانَ، حَيْثُ خَرَجَتْ عَائِشَةُ فِي هُودَجٍ عَلَى جَمَلٍ أَحْمَرَ مَعَ الزُّبَيْرِ وَطَلْحَةَ بِجَيْشٍ قُدِّرَ ب ثلاثين أَلْفًا، يُطَالِبُونَ بِالقِصَاصِ. فِي المُقَابِلِ، خَرَجَ عَلِيٌّ بْنُ أَبِي طَالِبٍ بعشرين أَلْفًا لِإِيقَافِ الفِتْنَةِ. وَرَغْمَ مُحَاوَلَاتِ الصُّلْحِ، أَشْعَلَتْ فِرْقَةٌ مُتَطَرِّفَةٌ القِتَالَ في الليل. اِنْتَهَتِ المَعْرَكَةُ بِمَقْتَلِ طَلْحَةَ، وَقَتْلِ الزُّبَيْرِ بَعْدَ تَرَاجُعِهِ، وَحِفَاظِ عَلِيٍّ عَلَى حُرْمَةِ عَائِشَةَ وَإِرْجَاعِهَا إِلَى المَدِينَةِ. تَجَلَّتْ فِي المَوْقِعَةِ أَوَّلُ فِتْنَةٍ دَاخِلِيَّةٍ بَيْنَ المُسْلِمِينَ، وَظَهَرَتْ فِيهَا حِكْمَةُ عَلِيٍّ فِي التَّعَامُلِ مَعَ أَصْحَابِهِ، وَقِيلَ فِيهَا: "لَوْ لَا الجَمَلُ لَمَا تَفَرَّقَ المُسْلِمُونَ شِيَعًا!"</t>
   </si>
   <si>
     <t>مضي أشهر لعدم القصاص من قتلة عُثمان, عدم معرفة قتلة عُثمان بشكل دقيق من قبل الخليفة علي, قرار تحرك أصحاب الجَمَل للقصاص من الثائرين على عثمان.</t>
@@ -2712,7 +2712,7 @@
     <t>الصحابي معاوية بن أبي سفيان</t>
   </si>
   <si>
-    <t>وَقَعَتْ مَعْرَكَةُ صِفِّينَ فِي أَرْضٍ تُسَمَّى صِفِّينَ (قُرْبَ الرَّقَّةِ السُّورِيَّةِ) فِي شَهْرِ صَفَرٍ سَنَةَ سَبْعٍ وَثَلَاثِينَ لِلْهِجْرَةِ، بَيْنَ عَلِيٍّ بْنِ أَبِي طَالِبٍ خَلِيفَةِ الْمُسْلِمِينَ وَمُعَاوِيَةَ بْنِ أَبِي سُفْيَانَ وَالِي الشَّامِ، بَعْدَ مَوْقِعَةِ الْجَمَلِ بِعَامٍ. سَبَبُ الْمَعْرَكَةِ كَانَ امْتِنَاعَ مُعَاوِيَةَ عَنْ مُبَايَعَةِ عَلِيٍّ حَتَّى يُقْتَصَّ مِنْ قَتَلَةِ عُثْمَانَ بْنِ عَفَّانَ، فَبَعَثَ عَلِيٌّ جَرِيرَ بْنَ عَبْدِ اللَّهِ لِدَعْوَةِ مُعَاوِيَةَ، فَرَفَضَ وَجَمَعَ أَهْلَ الشَّامِ. اِسْتَمَرَّ الْقِتَالُ تِسْعَةَ أَيَّامٍ، وَاشْتَرَكَ فِيهِ كِبَارُ الصَّحَابَةِ مِنَ الْجَانِبَيْنِ. فِي كُلِّ يَوْمٍ، كَانَ يَخْرُجُ قَادَةٌ لِلْقِتَالِ، مِنْهُمْ الْأَشْتَرُ النَّخَعِيُّ، هَاشِمُ بْنُ عُتْبَةَ، عَمَّارُ بْنُ يَاسِرٍ (الَّذِي اُسْتُشْهِدَ فِي الْمَعْرَكَةِ)، وَغَيْرُهُمْ، وَكَانَ الْقِتَالُ شَدِيدًا وَلَمْ تُحَقِّقْ أَيٌّ مِنَ الْفَرِيقَيْنِ نَصْرًا حَاسِمًا.عِنْدَمَا بَدَأَ جَيْشُ عَلِيٍّ يُحَقِّقُ تَقَدُّمًا، رَفَعَ أَهْلُ الشَّامِ الْمَصَاحِفَ عَلَى الرِّمَاحِ طَلَبًا لِلتَّحْكِيمِ. فَضَغَطَتْ جَمَاعَةٌ مِنَ الْقُرَّاءِ عَلَى عَلِيٍّ لِلرُّضُوخِ لِذَلِكَ، فَقَبِلَ التَّحْكِيمَ، وَوُقِّعَ فِي رَمَضَانَ بَيْنَ أَبِي مُوسَى الْأَشْعَرِيِّ وَعَمْرِو بْنِ الْعَاصِ. وَقَدِ اخْتَلَفَتِ الرِّوَايَاتُ فِي نَتِيجَةِ التَّحْكِيمِ، وَإِنْ كَانَ الْمَشْهُورُ أَنَّهُ أَدَّى إِلَى خِلَافٍ أَعْمَقَ وَبِدَايَةِ ظُهُورِ الْخَوَارِجِ.</t>
+    <t>وَقَعَتْ مَعْرَكَةُ صِفِّينَ فِي أَرْضٍ تُسَمَّى صِفِّينَ (قُرْبَ الرَّقَّةِ السُّورِيَّةِ) فِي شَهْرِ صَفَرٍ سَنَةَ سَبْعٍ وَثَلَاثِينَ لِلْهِجْرَةِ، بَيْنَ عَلِيٍّ بْنِ أَبِي طَالِبٍ خَلِيفَةِ الْمُسْلِمِينَ وَمُعَاوِيَةَ بْنِ أَبِي سُفْيَانَ وَالِي الشَّامِ، بَعْدَ مَوْقِعَةِ الْجَمَلِ بِعَامٍ. سَبَبُ الْمَعْرَكَةِ كَانَ امْتِنَاعَ مُعَاوِيَةَ عَنْ مُبَايَعَةِ عَلِيٍّ حَتَّى يُقْتَصَّ مِنْ قَتَلَةِ عُثْمَانَ بْنِ عَفَّانَ، فَبَعَثَ عَلِيٌّ جَرِيرَ بْنَ عَبْدِ اللَّهِ لِدَعْوَةِ مُعَاوِيَةَ، فَرَفَضَ وَجَمَعَ أَهْلَ الشَّامِ. اِسْتَمَرَّ الْقِتَالُ تِسْعَةَ أَيَّامٍ، وَاشْتَرَكَ فِيهِ كِبَارُ الصَّحَابَةِ مِنَ الْجَانِبَيْنِ. فِي كُلِّ يَوْمٍ، كَانَ يَخْرُجُ قَادَةٌ لِلْقِتَالِ، مِنْهُمْ الْأَشْتَرُ النَّخَعِيُّ، هَاشِمُ بْنُ عُتْبَةَ، عَمَّارُ بْنُ يَاسِرٍالَّذِي اُسْتُشْهِدَ فِي الْمَعْرَكَةِ، وَغَيْرُهُمْ، وَكَانَ الْقِتَالُ شَدِيدًا وَلَمْ تُحَقِّقْ أَيٌّ مِنَ الْفَرِيقَيْنِ نَصْرًا حَاسِمًا.عِنْدَمَا بَدَأَ جَيْشُ عَلِيٍّ يُحَقِّقُ تَقَدُّمًا، رَفَعَ أَهْلُ الشَّامِ الْمَصَاحِفَ عَلَى الرِّمَاحِ طَلَبًا لِلتَّحْكِيمِ. فَضَغَطَتْ جَمَاعَةٌ مِنَ الْقُرَّاءِ عَلَى عَلِيٍّ لِلرُّضُوخِ لِذَلِكَ، فَقَبِلَ التَّحْكِيمَ، وَوُقِّعَ فِي رَمَضَانَ بَيْنَ أَبِي مُوسَى الْأَشْعَرِيِّ وَعَمْرِو بْنِ الْعَاصِ. وَقَدِ اخْتَلَفَتِ الرِّوَايَاتُ فِي نَتِيجَةِ التَّحْكِيمِ، وَإِنْ كَانَ الْمَشْهُورُ أَنَّهُ أَدَّى إِلَى خِلَافٍ أَعْمَقَ وَبِدَايَةِ ظُهُورِ الْخَوَارِجِ.</t>
   </si>
   <si>
     <t>اخْتِلَافٌ عَلَى الخِلَافَةِ</t>
@@ -2773,7 +2773,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2804,7 +2804,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2826,12 +2826,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2865,12 +2859,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2884,7 +2872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2911,9 +2899,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2922,27 +2907,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3166,20 +3147,21 @@
   </sheetPr>
   <dimension ref="A1:AD1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H48" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="1" max="2" width="22.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="32.26953125" customWidth="1"/>
+    <col min="12" max="12" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" customWidth="1"/>
+    <col min="14" max="14" width="36.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3228,12 +3210,12 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3262,7 +3244,7 @@
       <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="25" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -3281,8 +3263,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3313,7 +3295,7 @@
       <c r="K3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="25" t="s">
         <v>33</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -3332,8 +3314,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3362,7 +3344,7 @@
       <c r="K4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="25" t="s">
         <v>41</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -3381,8 +3363,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3411,7 +3393,7 @@
       <c r="K5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="25" t="s">
         <v>48</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -3430,8 +3412,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3462,7 +3444,7 @@
       <c r="K6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="25" t="s">
         <v>55</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -3481,8 +3463,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3511,7 +3493,7 @@
       <c r="K7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="25" t="s">
         <v>63</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -3530,8 +3512,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3562,7 +3544,7 @@
       <c r="K8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="25" t="s">
         <v>70</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -3581,8 +3563,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3611,13 +3593,13 @@
       <c r="K9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="25" t="s">
         <v>77</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="28" t="s">
         <v>78</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -3630,8 +3612,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3662,7 +3644,7 @@
       <c r="K10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="25" t="s">
         <v>82</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -3681,8 +3663,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3711,7 +3693,7 @@
       <c r="K11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="25" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -3730,8 +3712,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3760,7 +3742,7 @@
       <c r="K12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="25" t="s">
         <v>95</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -3779,8 +3761,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3809,7 +3791,7 @@
       <c r="K13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="25" t="s">
         <v>102</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -3828,8 +3810,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3858,7 +3840,7 @@
       <c r="K14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="25" t="s">
         <v>110</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -3877,8 +3859,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3909,7 +3891,7 @@
       <c r="K15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="25" t="s">
         <v>115</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -3928,8 +3910,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>118</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3956,7 +3938,7 @@
       <c r="K16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="25" t="s">
         <v>120</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -3975,8 +3957,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>124</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4005,7 +3987,7 @@
       <c r="K17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="25" t="s">
         <v>127</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -4024,8 +4006,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>131</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4056,7 +4038,7 @@
       <c r="K18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="25" t="s">
         <v>134</v>
       </c>
       <c r="M18" s="4" t="s">
@@ -4075,8 +4057,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>137</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4107,7 +4089,7 @@
       <c r="K19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="25" t="s">
         <v>142</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -4126,8 +4108,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>145</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4156,7 +4138,7 @@
       <c r="K20" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="25" t="s">
         <v>149</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -4175,8 +4157,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4205,7 +4187,7 @@
       <c r="K21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="25" t="s">
         <v>155</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -4224,8 +4206,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4254,7 +4236,7 @@
       <c r="K22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="L22" s="25" t="s">
         <v>163</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -4273,8 +4255,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4305,7 +4287,7 @@
       <c r="K23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="25" t="s">
         <v>171</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -4324,8 +4306,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>174</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4356,7 +4338,7 @@
       <c r="K24" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L24" s="29" t="s">
+      <c r="L24" s="25" t="s">
         <v>178</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -4375,8 +4357,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>182</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4405,7 +4387,7 @@
       <c r="K25" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="L25" s="29" t="s">
+      <c r="L25" s="25" t="s">
         <v>188</v>
       </c>
       <c r="M25" s="9" t="s">
@@ -4424,8 +4406,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="12.6">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>193</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -4456,7 +4438,7 @@
       <c r="K26" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="13" t="s">
         <v>194</v>
       </c>
       <c r="M26" s="9" t="s">
@@ -4475,8 +4457,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="12.6">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>198</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -4507,7 +4489,7 @@
       <c r="K27" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="13" t="s">
         <v>202</v>
       </c>
       <c r="M27" s="9" t="s">
@@ -4526,8 +4508,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="138.75">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:30" ht="162.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>206</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -4556,7 +4538,7 @@
       <c r="K28" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="L28" s="29" t="s">
+      <c r="L28" s="25" t="s">
         <v>210</v>
       </c>
       <c r="M28" s="9" t="s">
@@ -4575,8 +4557,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="12.6">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -4605,7 +4587,7 @@
       <c r="K29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="L29" s="13" t="s">
         <v>216</v>
       </c>
       <c r="M29" s="9" t="s">
@@ -4624,8 +4606,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="12.6">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>220</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4656,7 +4638,7 @@
       <c r="K30" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="13" t="s">
         <v>226</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -4688,8 +4670,8 @@
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
     </row>
-    <row r="31" spans="1:30" ht="12.6">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>231</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4718,7 +4700,7 @@
       <c r="K31" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="13" t="s">
         <v>235</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -4737,8 +4719,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="58.5">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:30" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>240</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -4765,7 +4747,7 @@
       <c r="K32" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="25" t="s">
         <v>243</v>
       </c>
       <c r="M32" s="6" t="s">
@@ -4797,8 +4779,8 @@
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
     </row>
-    <row r="33" spans="1:30" ht="58.5">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:30" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>246</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -4825,7 +4807,7 @@
       <c r="K33" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="L33" s="29" t="s">
+      <c r="L33" s="25" t="s">
         <v>250</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -4844,8 +4826,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="69">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:30" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>254</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4872,7 +4854,7 @@
       <c r="K34" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="25" t="s">
         <v>259</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -4891,8 +4873,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="81">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:30" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>263</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -4921,7 +4903,7 @@
       <c r="K35" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="L35" s="29" t="s">
+      <c r="L35" s="25" t="s">
         <v>270</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -4940,8 +4922,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="12.6">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>275</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4970,7 +4952,7 @@
       <c r="K36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L36" s="18" t="s">
+      <c r="L36" s="13" t="s">
         <v>278</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -4989,8 +4971,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="219.75">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:30" ht="237.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>281</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5019,7 +5001,7 @@
       <c r="K37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="29" t="s">
+      <c r="L37" s="25" t="s">
         <v>284</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -5038,8 +5020,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="150.75">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:30" ht="175" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>287</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -5068,7 +5050,7 @@
       <c r="K38" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="L38" s="29" t="s">
+      <c r="L38" s="25" t="s">
         <v>291</v>
       </c>
       <c r="M38" s="3" t="s">
@@ -5087,8 +5069,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="12.6">
-      <c r="A39" s="15" t="s">
+    <row r="39" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>294</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -5117,7 +5099,7 @@
       <c r="K39" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="L39" s="18" t="s">
+      <c r="L39" s="13" t="s">
         <v>297</v>
       </c>
       <c r="M39" s="3" t="s">
@@ -5149,8 +5131,8 @@
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
     </row>
-    <row r="40" spans="1:30" ht="58.5">
-      <c r="A40" s="15" t="s">
+    <row r="40" spans="1:30" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>300</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -5181,7 +5163,7 @@
       <c r="K40" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="L40" s="29" t="s">
+      <c r="L40" s="25" t="s">
         <v>306</v>
       </c>
       <c r="M40" s="3" t="s">
@@ -5200,41 +5182,41 @@
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="138.75">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:30" ht="162.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="17">
         <v>12</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="18">
         <v>15000</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="I41" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="J41" s="20">
+      <c r="J41" s="18">
         <v>30000</v>
       </c>
-      <c r="K41" s="19" t="s">
+      <c r="K41" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="L41" s="22" t="s">
+      <c r="L41" s="25" t="s">
         <v>315</v>
       </c>
       <c r="M41" s="3" t="s">
@@ -5253,41 +5235,41 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="162">
-      <c r="A42" s="19" t="s">
+    <row r="42" spans="1:30" ht="175" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="17">
         <v>12</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H42" s="18">
         <v>18000</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="J42" s="20">
+      <c r="J42" s="18">
         <v>30000</v>
       </c>
-      <c r="K42" s="19" t="s">
+      <c r="K42" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="L42" s="22" t="s">
+      <c r="L42" s="25" t="s">
         <v>323</v>
       </c>
       <c r="M42" s="3" t="s">
@@ -5306,41 +5288,41 @@
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="115.5">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:30" ht="125" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="17">
         <v>12</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="18">
         <v>18000</v>
       </c>
-      <c r="I43" s="19" t="s">
+      <c r="I43" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="K43" s="19" t="s">
+      <c r="K43" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="L43" s="22" t="s">
+      <c r="L43" s="25" t="s">
         <v>331</v>
       </c>
       <c r="M43" s="3" t="s">
@@ -5359,41 +5341,41 @@
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="115.5">
-      <c r="A44" s="19" t="s">
+    <row r="44" spans="1:30" ht="125" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="17">
         <v>12</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="H44" s="19" t="s">
+      <c r="H44" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="I44" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J44" s="18">
         <v>30000</v>
       </c>
-      <c r="K44" s="19" t="s">
+      <c r="K44" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="L44" s="22" t="s">
+      <c r="L44" s="25" t="s">
         <v>342</v>
       </c>
       <c r="M44" s="3" t="s">
@@ -5412,41 +5394,41 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="196.5">
-      <c r="A45" s="19" t="s">
+    <row r="45" spans="1:30" ht="212.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="17">
         <v>12</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="18">
         <v>10000</v>
       </c>
-      <c r="I45" s="19" t="s">
+      <c r="I45" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="K45" s="19" t="s">
+      <c r="K45" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="L45" s="22" t="s">
+      <c r="L45" s="25" t="s">
         <v>351</v>
       </c>
       <c r="M45" s="3" t="s">
@@ -5465,41 +5447,41 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="115.5">
-      <c r="A46" s="19" t="s">
+    <row r="46" spans="1:30" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="17">
         <v>12</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="I46" s="19" t="s">
+      <c r="I46" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="J46" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="K46" s="19" t="s">
+      <c r="K46" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="L46" s="22" t="s">
+      <c r="L46" s="25" t="s">
         <v>361</v>
       </c>
       <c r="M46" s="3" t="s">
@@ -5518,35 +5500,35 @@
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="162">
-      <c r="A47" s="19" t="s">
+    <row r="47" spans="1:30" ht="175" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17">
         <v>12</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19" t="s">
+      <c r="H47" s="17"/>
+      <c r="I47" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19" t="s">
+      <c r="J47" s="17"/>
+      <c r="K47" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="L47" s="22" t="s">
+      <c r="L47" s="25" t="s">
         <v>368</v>
       </c>
       <c r="M47" s="3" t="s">
@@ -5565,41 +5547,41 @@
         <v>372</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="207.75">
-      <c r="A48" s="19" t="s">
+    <row r="48" spans="1:30" ht="237.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="17">
         <v>12</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="18">
         <v>15000</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="I48" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="J48" s="21">
+      <c r="J48" s="19">
         <v>50000</v>
       </c>
-      <c r="K48" s="19" t="s">
+      <c r="K48" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="L48" s="30" t="s">
+      <c r="L48" s="26" t="s">
         <v>378</v>
       </c>
       <c r="M48" s="3" t="s">
@@ -5618,37 +5600,37 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="174">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:30" ht="200" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="17">
         <v>12</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G49" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19" t="s">
+      <c r="H49" s="17"/>
+      <c r="I49" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19" t="s">
+      <c r="J49" s="17"/>
+      <c r="K49" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="L49" s="22" t="s">
+      <c r="L49" s="25" t="s">
         <v>386</v>
       </c>
       <c r="M49" s="3" t="s">
@@ -5667,37 +5649,37 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="81">
-      <c r="A50" s="19" t="s">
+    <row r="50" spans="1:30" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="17">
         <v>13</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G50" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19" t="s">
+      <c r="H50" s="17"/>
+      <c r="I50" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19" t="s">
+      <c r="J50" s="17"/>
+      <c r="K50" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="L50" s="22" t="s">
+      <c r="L50" s="25" t="s">
         <v>394</v>
       </c>
       <c r="M50" s="3" t="s">
@@ -5716,37 +5698,37 @@
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="162">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:30" ht="175" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="17">
         <v>13</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19" t="s">
+      <c r="H51" s="17"/>
+      <c r="I51" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19" t="s">
+      <c r="J51" s="17"/>
+      <c r="K51" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L51" s="22" t="s">
+      <c r="L51" s="25" t="s">
         <v>400</v>
       </c>
       <c r="M51" s="3" t="s">
@@ -5765,41 +5747,41 @@
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="81">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:30" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="17">
         <v>13</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H52" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="I52" s="19" t="s">
+      <c r="I52" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="18">
         <v>12000</v>
       </c>
-      <c r="K52" s="19" t="s">
+      <c r="K52" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L52" s="22" t="s">
+      <c r="L52" s="25" t="s">
         <v>407</v>
       </c>
       <c r="M52" s="3" t="s">
@@ -5818,41 +5800,41 @@
         <v>397</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="174">
-      <c r="A53" s="19" t="s">
+    <row r="53" spans="1:30" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="17">
         <v>13</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F53" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="18">
         <v>150000</v>
       </c>
-      <c r="I53" s="19" t="s">
+      <c r="I53" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53" s="18">
         <v>12000</v>
       </c>
-      <c r="K53" s="19" t="s">
+      <c r="K53" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="L53" s="22" t="s">
+      <c r="L53" s="25" t="s">
         <v>415</v>
       </c>
       <c r="M53" s="3" t="s">
@@ -5871,39 +5853,39 @@
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="104.25">
-      <c r="A54" s="19" t="s">
+    <row r="54" spans="1:30" ht="125" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="17">
         <v>13</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19" t="s">
+      <c r="H54" s="17"/>
+      <c r="I54" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="17">
         <v>10000</v>
       </c>
-      <c r="K54" s="19" t="s">
+      <c r="K54" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="L54" s="22" t="s">
+      <c r="L54" s="25" t="s">
         <v>423</v>
       </c>
       <c r="M54" s="3" t="s">
@@ -5935,41 +5917,41 @@
       <c r="AC54" s="6"/>
       <c r="AD54" s="6"/>
     </row>
-    <row r="55" spans="1:30" ht="162">
-      <c r="A55" s="19" t="s">
+    <row r="55" spans="1:30" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="17">
         <v>13</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G55" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="18">
         <v>25000</v>
       </c>
-      <c r="I55" s="19" t="s">
+      <c r="I55" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="18">
         <v>80000</v>
       </c>
-      <c r="K55" s="19" t="s">
+      <c r="K55" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L55" s="22" t="s">
+      <c r="L55" s="25" t="s">
         <v>430</v>
       </c>
       <c r="M55" s="3" t="s">
@@ -5988,37 +5970,37 @@
         <v>434</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="58.5">
-      <c r="A56" s="19" t="s">
+    <row r="56" spans="1:30" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="17">
         <v>13</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F56" s="19" t="s">
+      <c r="F56" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="G56" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19" t="s">
+      <c r="H56" s="17"/>
+      <c r="I56" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19" t="s">
+      <c r="J56" s="17"/>
+      <c r="K56" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="L56" s="22" t="s">
+      <c r="L56" s="25" t="s">
         <v>439</v>
       </c>
       <c r="M56" s="3" t="s">
@@ -6037,39 +6019,39 @@
         <v>397</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="150.75">
-      <c r="A57" s="19" t="s">
+    <row r="57" spans="1:30" ht="175" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="17">
         <v>13</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G57" s="19" t="s">
+      <c r="G57" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="18">
         <v>15000</v>
       </c>
-      <c r="I57" s="19" t="s">
+      <c r="I57" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19" t="s">
+      <c r="J57" s="17"/>
+      <c r="K57" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="L57" s="22" t="s">
+      <c r="L57" s="25" t="s">
         <v>447</v>
       </c>
       <c r="M57" s="3" t="s">
@@ -6088,39 +6070,39 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="46.5">
-      <c r="A58" s="19" t="s">
+    <row r="58" spans="1:30" ht="50" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19">
+      <c r="C58" s="17"/>
+      <c r="D58" s="17">
         <v>13</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="H58" s="19">
+      <c r="H58" s="17">
         <v>1000</v>
       </c>
-      <c r="I58" s="19" t="s">
+      <c r="I58" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J58" s="17">
         <v>300</v>
       </c>
-      <c r="K58" s="19" t="s">
+      <c r="K58" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="L58" s="22" t="s">
+      <c r="L58" s="25" t="s">
         <v>455</v>
       </c>
       <c r="M58" s="3" t="s">
@@ -6139,39 +6121,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="81">
-      <c r="A59" s="19" t="s">
+    <row r="59" spans="1:30" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="17">
         <v>13</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="F59" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="H59" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="I59" s="19" t="s">
+      <c r="I59" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19" t="s">
+      <c r="J59" s="17"/>
+      <c r="K59" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L59" s="22" t="s">
+      <c r="L59" s="25" t="s">
         <v>462</v>
       </c>
       <c r="M59" s="3" t="s">
@@ -6190,41 +6172,41 @@
         <v>397</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="115.5">
-      <c r="A60" s="19" t="s">
+    <row r="60" spans="1:30" ht="125" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="17">
         <v>13</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F60" s="19" t="s">
+      <c r="F60" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="G60" s="19" t="s">
+      <c r="G60" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H60" s="18">
         <v>10000</v>
       </c>
-      <c r="I60" s="19" t="s">
+      <c r="I60" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="J60" s="19" t="s">
+      <c r="J60" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="K60" s="19" t="s">
+      <c r="K60" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="L60" s="22" t="s">
+      <c r="L60" s="25" t="s">
         <v>470</v>
       </c>
       <c r="M60" s="3" t="s">
@@ -6243,8 +6225,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="162">
-      <c r="A61" s="25" t="s">
+    <row r="61" spans="1:30" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
         <v>473</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -6273,7 +6255,7 @@
       <c r="K61" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="L61" s="14" t="s">
+      <c r="L61" s="25" t="s">
         <v>478</v>
       </c>
       <c r="M61" s="3" t="s">
@@ -6305,8 +6287,8 @@
       <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
     </row>
-    <row r="62" spans="1:30" ht="185.25">
-      <c r="A62" s="26" t="s">
+    <row r="62" spans="1:30" ht="200" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
         <v>481</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -6335,7 +6317,7 @@
       <c r="K62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L62" s="14" t="s">
+      <c r="L62" s="25" t="s">
         <v>483</v>
       </c>
       <c r="M62" s="3" t="s">
@@ -6352,8 +6334,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="185.25">
-      <c r="A63" s="26" t="s">
+    <row r="63" spans="1:30" ht="212.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
         <v>485</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -6384,7 +6366,7 @@
       <c r="K63" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="L63" s="14" t="s">
+      <c r="L63" s="25" t="s">
         <v>489</v>
       </c>
       <c r="M63" s="3" t="s">
@@ -6403,8 +6385,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="185.25">
-      <c r="A64" s="25" t="s">
+    <row r="64" spans="1:30" ht="200" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
         <v>493</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -6433,7 +6415,7 @@
       <c r="K64" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="L64" s="14" t="s">
+      <c r="L64" s="25" t="s">
         <v>497</v>
       </c>
       <c r="M64" s="3" t="s">
@@ -6452,8 +6434,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="266.25">
-      <c r="A65" s="25" t="s">
+    <row r="65" spans="1:30" ht="287.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
         <v>500</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -6484,7 +6466,7 @@
       <c r="K65" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="L65" s="31" t="s">
+      <c r="L65" s="26" t="s">
         <v>504</v>
       </c>
       <c r="M65" s="3" t="s">
@@ -6503,8 +6485,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="185.25">
-      <c r="A66" s="25" t="s">
+    <row r="66" spans="1:30" ht="200" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
         <v>509</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -6535,7 +6517,7 @@
       <c r="K66" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="L66" s="14" t="s">
+      <c r="L66" s="25" t="s">
         <v>513</v>
       </c>
       <c r="M66" s="3" t="s">
@@ -6554,8 +6536,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="162">
-      <c r="A67" s="25" t="s">
+    <row r="67" spans="1:30" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
         <v>516</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -6582,7 +6564,7 @@
       <c r="K67" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="L67" s="14" t="s">
+      <c r="L67" s="25" t="s">
         <v>520</v>
       </c>
       <c r="M67" s="3" t="s">
@@ -6601,8 +6583,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="92.25">
-      <c r="A68" s="25" t="s">
+    <row r="68" spans="1:30" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
         <v>524</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -6635,7 +6617,7 @@
       <c r="K68" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="L68" s="14" t="s">
+      <c r="L68" s="25" t="s">
         <v>529</v>
       </c>
       <c r="M68" s="3" t="s">
@@ -6654,8 +6636,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="243">
-      <c r="A69" s="25" t="s">
+    <row r="69" spans="1:30" ht="262.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
         <v>532</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -6688,7 +6670,7 @@
       <c r="K69" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="L69" s="14" t="s">
+      <c r="L69" s="25" t="s">
         <v>536</v>
       </c>
       <c r="M69" s="3" t="s">
@@ -6707,8 +6689,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="127.5">
-      <c r="A70" s="25" t="s">
+    <row r="70" spans="1:30" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
         <v>539</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -6741,7 +6723,7 @@
       <c r="K70" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="L70" s="14" t="s">
+      <c r="L70" s="25" t="s">
         <v>542</v>
       </c>
       <c r="M70" s="3" t="s">
@@ -6773,8 +6755,8 @@
       <c r="AC70" s="6"/>
       <c r="AD70" s="6"/>
     </row>
-    <row r="71" spans="1:30" ht="58.5">
-      <c r="A71" s="25" t="s">
+    <row r="71" spans="1:30" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
         <v>546</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -6803,7 +6785,7 @@
       <c r="K71" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="L71" s="14" t="s">
+      <c r="L71" s="25" t="s">
         <v>550</v>
       </c>
       <c r="M71" s="3" t="s">
@@ -6822,8 +6804,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="150.75">
-      <c r="A72" s="25" t="s">
+    <row r="72" spans="1:30" ht="175" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
         <v>553</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -6852,7 +6834,7 @@
       <c r="K72" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="L72" s="14" t="s">
+      <c r="L72" s="25" t="s">
         <v>557</v>
       </c>
       <c r="M72" s="3" t="s">
@@ -6884,8 +6866,8 @@
       <c r="AC72" s="6"/>
       <c r="AD72" s="6"/>
     </row>
-    <row r="73" spans="1:30" ht="69">
-      <c r="A73" s="25" t="s">
+    <row r="73" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
         <v>561</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -6916,7 +6898,7 @@
       <c r="K73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L73" s="14" t="s">
+      <c r="L73" s="25" t="s">
         <v>564</v>
       </c>
       <c r="M73" s="3" t="s">
@@ -6935,8 +6917,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="127.5">
-      <c r="A74" s="25" t="s">
+    <row r="74" spans="1:30" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
         <v>568</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -6963,7 +6945,7 @@
       <c r="K74" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L74" s="14" t="s">
+      <c r="L74" s="25" t="s">
         <v>571</v>
       </c>
       <c r="M74" s="3" t="s">
@@ -6982,8 +6964,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="92.25">
-      <c r="A75" s="25" t="s">
+    <row r="75" spans="1:30" ht="100" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
         <v>575</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -7016,7 +6998,7 @@
       <c r="K75" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="L75" s="14" t="s">
+      <c r="L75" s="25" t="s">
         <v>580</v>
       </c>
       <c r="M75" s="3" t="s">
@@ -7035,8 +7017,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="69">
-      <c r="A76" s="25" t="s">
+    <row r="76" spans="1:30" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
         <v>583</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -7065,7 +7047,7 @@
       <c r="K76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L76" s="14" t="s">
+      <c r="L76" s="25" t="s">
         <v>587</v>
       </c>
       <c r="M76" s="3" t="s">
@@ -7084,8 +7066,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="92.25">
-      <c r="A77" s="25" t="s">
+    <row r="77" spans="1:30" ht="100" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
         <v>590</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -7116,7 +7098,7 @@
       <c r="K77" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="L77" s="14" t="s">
+      <c r="L77" s="25" t="s">
         <v>595</v>
       </c>
       <c r="M77" s="3" t="s">
@@ -7135,8 +7117,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="92.25">
-      <c r="A78" s="25" t="s">
+    <row r="78" spans="1:30" ht="100" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
         <v>598</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -7167,7 +7149,7 @@
       <c r="K78" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="L78" s="14" t="s">
+      <c r="L78" s="25" t="s">
         <v>601</v>
       </c>
       <c r="M78" s="3" t="s">
@@ -7184,8 +7166,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="104.25">
-      <c r="A79" s="25" t="s">
+    <row r="79" spans="1:30" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
         <v>603</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -7218,7 +7200,7 @@
       <c r="K79" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="L79" s="14" t="s">
+      <c r="L79" s="25" t="s">
         <v>607</v>
       </c>
       <c r="M79" s="3" t="s">
@@ -7237,8 +7219,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="174">
-      <c r="A80" s="25" t="s">
+    <row r="80" spans="1:30" ht="200" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
         <v>611</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -7269,7 +7251,7 @@
       <c r="K80" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="L80" s="14" t="s">
+      <c r="L80" s="25" t="s">
         <v>617</v>
       </c>
       <c r="M80" s="3" t="s">
@@ -7288,8 +7270,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="115.5">
-      <c r="A81" s="25" t="s">
+    <row r="81" spans="1:17" ht="125" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
         <v>620</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -7318,7 +7300,7 @@
       <c r="K81" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L81" s="14" t="s">
+      <c r="L81" s="25" t="s">
         <v>622</v>
       </c>
       <c r="M81" s="3" t="s">
@@ -7337,8 +7319,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="12.75">
-      <c r="A82" s="24" t="s">
+    <row r="82" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
         <v>625</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -7354,7 +7336,7 @@
       <c r="F82" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G82" s="27" t="s">
+      <c r="G82" s="23" t="s">
         <v>626</v>
       </c>
       <c r="H82" s="3"/>
@@ -7365,7 +7347,7 @@
       <c r="K82" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L82" s="3" t="s">
+      <c r="L82" s="13" t="s">
         <v>627</v>
       </c>
       <c r="M82" s="3" t="s">
@@ -7384,8 +7366,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="12.75">
-      <c r="A83" s="24" t="s">
+    <row r="83" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
         <v>630</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -7403,7 +7385,7 @@
       <c r="F83" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G83" s="27" t="s">
+      <c r="G83" s="23" t="s">
         <v>632</v>
       </c>
       <c r="H83" s="5">
@@ -7418,7 +7400,7 @@
       <c r="K83" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="L83" s="5" t="s">
+      <c r="L83" s="27" t="s">
         <v>634</v>
       </c>
       <c r="M83" s="3" t="s">
@@ -7437,8 +7419,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="12.75">
-      <c r="A84" s="24" t="s">
+    <row r="84" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>638</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -7456,7 +7438,7 @@
       <c r="F84" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G84" s="27" t="s">
+      <c r="G84" s="23" t="s">
         <v>641</v>
       </c>
       <c r="H84" s="5">
@@ -7471,7 +7453,7 @@
       <c r="K84" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="L84" s="3" t="s">
+      <c r="L84" s="13" t="s">
         <v>644</v>
       </c>
       <c r="M84" s="3" t="s">
@@ -7490,8 +7472,8 @@
         <v>646</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="81">
-      <c r="A85" s="24" t="s">
+    <row r="85" spans="1:17" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
         <v>647</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -7509,7 +7491,7 @@
       <c r="F85" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G85" s="27" t="s">
+      <c r="G85" s="23" t="s">
         <v>650</v>
       </c>
       <c r="H85" s="3" t="s">
@@ -7524,7 +7506,7 @@
       <c r="K85" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L85" s="14" t="s">
+      <c r="L85" s="25" t="s">
         <v>652</v>
       </c>
       <c r="M85" s="3" t="s">
@@ -7543,8 +7525,8 @@
         <v>646</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="12.75">
-      <c r="A86" s="24" t="s">
+    <row r="86" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
         <v>655</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -7562,7 +7544,7 @@
       <c r="F86" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G86" s="27" t="s">
+      <c r="G86" s="23" t="s">
         <v>658</v>
       </c>
       <c r="H86" s="5">
@@ -7577,7 +7559,7 @@
       <c r="K86" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="L86" s="3" t="s">
+      <c r="L86" s="13" t="s">
         <v>661</v>
       </c>
       <c r="M86" s="3" t="s">
@@ -7596,8 +7578,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="12.75">
-      <c r="A87" s="24" t="s">
+    <row r="87" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
         <v>664</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -7615,7 +7597,7 @@
       <c r="F87" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G87" s="27" t="s">
+      <c r="G87" s="23" t="s">
         <v>667</v>
       </c>
       <c r="H87" s="5">
@@ -7628,7 +7610,7 @@
       <c r="K87" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="L87" s="13" t="s">
         <v>669</v>
       </c>
       <c r="M87" s="3" t="s">
@@ -7647,8 +7629,8 @@
         <v>646</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="104.25">
-      <c r="A88" s="24" t="s">
+    <row r="88" spans="1:17" ht="125" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
         <v>672</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -7666,7 +7648,7 @@
       <c r="F88" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G88" s="27" t="s">
+      <c r="G88" s="23" t="s">
         <v>674</v>
       </c>
       <c r="H88" s="3"/>
@@ -7677,7 +7659,7 @@
       <c r="K88" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="L88" s="14" t="s">
+      <c r="L88" s="25" t="s">
         <v>676</v>
       </c>
       <c r="M88" s="3" t="s">
@@ -7696,8 +7678,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="12.75">
-      <c r="A89" s="24" t="s">
+    <row r="89" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
         <v>680</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -7715,7 +7697,7 @@
       <c r="F89" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G89" s="27" t="s">
+      <c r="G89" s="23" t="s">
         <v>682</v>
       </c>
       <c r="H89" s="5">
@@ -7730,7 +7712,7 @@
       <c r="K89" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="L89" s="3" t="s">
+      <c r="L89" s="13" t="s">
         <v>685</v>
       </c>
       <c r="M89" s="3" t="s">
@@ -7749,8 +7731,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="69">
-      <c r="A90" s="24" t="s">
+    <row r="90" spans="1:17" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
         <v>688</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -7768,7 +7750,7 @@
       <c r="F90" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G90" s="27" t="s">
+      <c r="G90" s="23" t="s">
         <v>690</v>
       </c>
       <c r="H90" s="3"/>
@@ -7779,7 +7761,7 @@
       <c r="K90" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L90" s="14" t="s">
+      <c r="L90" s="25" t="s">
         <v>691</v>
       </c>
       <c r="M90" s="3" t="s">
@@ -7798,7 +7780,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="12.75">
+    <row r="91" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>694</v>
       </c>
@@ -7817,7 +7799,7 @@
       <c r="F91" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G91" s="27" t="s">
+      <c r="G91" s="23" t="s">
         <v>697</v>
       </c>
       <c r="H91" s="5">
@@ -7830,7 +7812,7 @@
       <c r="K91" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="L91" s="13" t="s">
         <v>699</v>
       </c>
       <c r="M91" s="3" t="s">
@@ -7849,7 +7831,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="12.75">
+    <row r="92" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>704</v>
       </c>
@@ -7868,7 +7850,7 @@
       <c r="F92" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G92" s="27" t="s">
+      <c r="G92" s="23" t="s">
         <v>706</v>
       </c>
       <c r="H92" s="3"/>
@@ -7879,7 +7861,7 @@
       <c r="K92" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L92" s="3" t="s">
+      <c r="L92" s="13" t="s">
         <v>708</v>
       </c>
       <c r="M92" s="3" t="s">
@@ -7898,7 +7880,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="12.75">
+    <row r="93" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>712</v>
       </c>
@@ -7917,7 +7899,7 @@
       <c r="F93" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G93" s="27" t="s">
+      <c r="G93" s="23" t="s">
         <v>714</v>
       </c>
       <c r="H93" s="5">
@@ -7932,7 +7914,7 @@
       <c r="K93" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="L93" s="3" t="s">
+      <c r="L93" s="13" t="s">
         <v>716</v>
       </c>
       <c r="M93" s="3" t="s">
@@ -7951,7 +7933,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="12.75">
+    <row r="94" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>719</v>
       </c>
@@ -7970,7 +7952,7 @@
       <c r="F94" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G94" s="27" t="s">
+      <c r="G94" s="23" t="s">
         <v>721</v>
       </c>
       <c r="H94" s="3"/>
@@ -7981,7 +7963,7 @@
       <c r="K94" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="L94" s="13" t="s">
         <v>724</v>
       </c>
       <c r="M94" s="3" t="s">
@@ -8000,7 +7982,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="12.75">
+    <row r="95" spans="1:17" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>727</v>
       </c>
@@ -8019,7 +8001,7 @@
       <c r="F95" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G95" s="27" t="s">
+      <c r="G95" s="23" t="s">
         <v>730</v>
       </c>
       <c r="H95" s="3"/>
@@ -8032,7 +8014,7 @@
       <c r="K95" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="L95" s="3" t="s">
+      <c r="L95" s="13" t="s">
         <v>732</v>
       </c>
       <c r="M95" s="3" t="s">
@@ -8049,8 +8031,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="162">
-      <c r="A96" s="23" t="s">
+    <row r="96" spans="1:17" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
         <v>734</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -8068,7 +8050,7 @@
       <c r="F96" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G96" s="27" t="s">
+      <c r="G96" s="23" t="s">
         <v>737</v>
       </c>
       <c r="H96" s="3"/>
@@ -8079,7 +8061,7 @@
       <c r="K96" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="L96" s="14" t="s">
+      <c r="L96" s="25" t="s">
         <v>740</v>
       </c>
       <c r="M96" s="3" t="s">
@@ -8098,8 +8080,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="12.75">
-      <c r="A97" s="23" t="s">
+    <row r="97" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="20" t="s">
         <v>743</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -8117,7 +8099,7 @@
       <c r="F97" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G97" s="27" t="s">
+      <c r="G97" s="23" t="s">
         <v>746</v>
       </c>
       <c r="H97" s="3"/>
@@ -8128,7 +8110,7 @@
       <c r="K97" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="L97" s="3" t="s">
+      <c r="L97" s="13" t="s">
         <v>748</v>
       </c>
       <c r="M97" s="3" t="s">
@@ -8147,8 +8129,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="138.75">
-      <c r="A98" s="23" t="s">
+    <row r="98" spans="1:30" ht="150" x14ac:dyDescent="0.25">
+      <c r="A98" s="20" t="s">
         <v>751</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -8166,7 +8148,7 @@
       <c r="F98" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G98" s="27" t="s">
+      <c r="G98" s="23" t="s">
         <v>754</v>
       </c>
       <c r="H98" s="3"/>
@@ -8177,7 +8159,7 @@
       <c r="K98" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L98" s="14" t="s">
+      <c r="L98" s="25" t="s">
         <v>756</v>
       </c>
       <c r="M98" s="3" t="s">
@@ -8196,8 +8178,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="104.25">
-      <c r="A99" s="23" t="s">
+    <row r="99" spans="1:30" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="s">
         <v>759</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -8215,7 +8197,7 @@
       <c r="F99" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G99" s="27" t="s">
+      <c r="G99" s="23" t="s">
         <v>760</v>
       </c>
       <c r="H99" s="5">
@@ -8228,7 +8210,7 @@
       <c r="K99" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="L99" s="14" t="s">
+      <c r="L99" s="25" t="s">
         <v>762</v>
       </c>
       <c r="M99" s="3" t="s">
@@ -8247,8 +8229,8 @@
         <v>646</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="12.75">
-      <c r="A100" s="23" t="s">
+    <row r="100" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="20" t="s">
         <v>765</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -8266,7 +8248,7 @@
       <c r="F100" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G100" s="27" t="s">
+      <c r="G100" s="23" t="s">
         <v>767</v>
       </c>
       <c r="H100" s="5">
@@ -8281,7 +8263,7 @@
       <c r="K100" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="L100" s="13" t="s">
         <v>769</v>
       </c>
       <c r="M100" s="3" t="s">
@@ -8300,8 +8282,8 @@
         <v>772</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="12.75">
-      <c r="A101" s="23" t="s">
+    <row r="101" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="20" t="s">
         <v>773</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -8319,7 +8301,7 @@
       <c r="F101" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G101" s="27" t="s">
+      <c r="G101" s="23" t="s">
         <v>775</v>
       </c>
       <c r="H101" s="3" t="s">
@@ -8332,7 +8314,7 @@
       <c r="K101" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="L101" s="13" t="s">
         <v>777</v>
       </c>
       <c r="M101" s="3" t="s">
@@ -8351,8 +8333,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="127.5">
-      <c r="A102" s="23" t="s">
+    <row r="102" spans="1:30" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="20" t="s">
         <v>781</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -8368,7 +8350,7 @@
       <c r="F102" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G102" s="27" t="s">
+      <c r="G102" s="23" t="s">
         <v>782</v>
       </c>
       <c r="H102" s="3"/>
@@ -8379,7 +8361,7 @@
       <c r="K102" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="L102" s="14" t="s">
+      <c r="L102" s="25" t="s">
         <v>784</v>
       </c>
       <c r="M102" s="3" t="s">
@@ -8398,8 +8380,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="12.75">
-      <c r="A103" s="23" t="s">
+    <row r="103" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="20" t="s">
         <v>787</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -8417,7 +8399,7 @@
       <c r="F103" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G103" s="27" t="s">
+      <c r="G103" s="23" t="s">
         <v>788</v>
       </c>
       <c r="H103" s="3" t="s">
@@ -8430,7 +8412,7 @@
       <c r="K103" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L103" s="3" t="s">
+      <c r="L103" s="13" t="s">
         <v>790</v>
       </c>
       <c r="M103" s="3" t="s">
@@ -8449,8 +8431,8 @@
         <v>508</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="12.75">
-      <c r="A104" s="23" t="s">
+    <row r="104" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="20" t="s">
         <v>794</v>
       </c>
       <c r="B104" s="13" t="s">
@@ -8468,7 +8450,7 @@
       <c r="F104" s="13" t="s">
         <v>753</v>
       </c>
-      <c r="G104" s="27" t="s">
+      <c r="G104" s="23" t="s">
         <v>797</v>
       </c>
       <c r="H104" s="13" t="s">
@@ -8502,8 +8484,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="12.75">
-      <c r="A105" s="23" t="s">
+    <row r="105" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="20" t="s">
         <v>803</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -8521,7 +8503,7 @@
       <c r="F105" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G105" s="27" t="s">
+      <c r="G105" s="23" t="s">
         <v>805</v>
       </c>
       <c r="H105" s="3"/>
@@ -8532,7 +8514,7 @@
       <c r="K105" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="L105" s="3" t="s">
+      <c r="L105" s="13" t="s">
         <v>808</v>
       </c>
       <c r="M105" s="3" t="s">
@@ -8551,8 +8533,8 @@
         <v>811</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="12.75">
-      <c r="A106" s="23" t="s">
+    <row r="106" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="20" t="s">
         <v>812</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -8570,7 +8552,7 @@
       <c r="F106" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G106" s="27" t="s">
+      <c r="G106" s="23" t="s">
         <v>815</v>
       </c>
       <c r="H106" s="3"/>
@@ -8581,7 +8563,7 @@
       <c r="K106" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="L106" s="3" t="s">
+      <c r="L106" s="13" t="s">
         <v>818</v>
       </c>
       <c r="M106" s="3" t="s">
@@ -8600,8 +8582,8 @@
         <v>821</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="81">
-      <c r="A107" s="23" t="s">
+    <row r="107" spans="1:30" ht="100" x14ac:dyDescent="0.25">
+      <c r="A107" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -8619,7 +8601,7 @@
       <c r="F107" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G107" s="27" t="s">
+      <c r="G107" s="23" t="s">
         <v>697</v>
       </c>
       <c r="H107" s="5">
@@ -8632,7 +8614,7 @@
       <c r="K107" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="L107" s="14" t="s">
+      <c r="L107" s="25" t="s">
         <v>824</v>
       </c>
       <c r="M107" s="3" t="s">
@@ -8651,8 +8633,8 @@
         <v>703</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="12.75">
-      <c r="A108" s="23" t="s">
+    <row r="108" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="20" t="s">
         <v>827</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -8670,7 +8652,7 @@
       <c r="F108" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G108" s="27" t="s">
+      <c r="G108" s="23" t="s">
         <v>830</v>
       </c>
       <c r="H108" s="3"/>
@@ -8681,7 +8663,7 @@
       <c r="K108" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="L108" s="3" t="s">
+      <c r="L108" s="13" t="s">
         <v>833</v>
       </c>
       <c r="M108" s="3" t="s">
@@ -8700,8 +8682,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="127.5">
-      <c r="A109" s="23" t="s">
+    <row r="109" spans="1:30" ht="150" x14ac:dyDescent="0.25">
+      <c r="A109" s="20" t="s">
         <v>836</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -8719,7 +8701,7 @@
       <c r="F109" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G109" s="27" t="s">
+      <c r="G109" s="23" t="s">
         <v>838</v>
       </c>
       <c r="H109" s="3"/>
@@ -8730,7 +8712,7 @@
       <c r="K109" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L109" s="14" t="s">
+      <c r="L109" s="25" t="s">
         <v>840</v>
       </c>
       <c r="M109" s="3" t="s">
@@ -8749,8 +8731,8 @@
         <v>843</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="12.75">
-      <c r="A110" s="23" t="s">
+    <row r="110" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="20" t="s">
         <v>844</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -8768,7 +8750,7 @@
       <c r="F110" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G110" s="27" t="s">
+      <c r="G110" s="23" t="s">
         <v>846</v>
       </c>
       <c r="H110" s="3"/>
@@ -8781,7 +8763,7 @@
       <c r="K110" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="L110" s="3" t="s">
+      <c r="L110" s="13" t="s">
         <v>849</v>
       </c>
       <c r="M110" s="3" t="s">
@@ -8813,8 +8795,8 @@
       <c r="AC110" s="6"/>
       <c r="AD110" s="6"/>
     </row>
-    <row r="111" spans="1:30" ht="12.75">
-      <c r="A111" s="23" t="s">
+    <row r="111" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="20" t="s">
         <v>852</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -8832,7 +8814,7 @@
       <c r="F111" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="G111" s="27" t="s">
+      <c r="G111" s="23" t="s">
         <v>853</v>
       </c>
       <c r="H111" s="3"/>
@@ -8843,7 +8825,7 @@
       <c r="K111" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="L111" s="3" t="s">
+      <c r="L111" s="13" t="s">
         <v>858</v>
       </c>
       <c r="M111" s="3" t="s">
@@ -8862,8 +8844,8 @@
         <v>853</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="115.5">
-      <c r="A112" s="23" t="s">
+    <row r="112" spans="1:30" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="20" t="s">
         <v>861</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -8879,7 +8861,7 @@
       <c r="F112" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="G112" s="27" t="s">
+      <c r="G112" s="23" t="s">
         <v>863</v>
       </c>
       <c r="H112" s="5">
@@ -8894,7 +8876,7 @@
       <c r="K112" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="L112" s="14" t="s">
+      <c r="L112" s="25" t="s">
         <v>866</v>
       </c>
       <c r="M112" s="3" t="s">
@@ -8911,8 +8893,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="12.75">
-      <c r="A113" s="23" t="s">
+    <row r="113" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="20" t="s">
         <v>869</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -8928,7 +8910,7 @@
       <c r="F113" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="G113" s="27" t="s">
+      <c r="G113" s="23" t="s">
         <v>871</v>
       </c>
       <c r="H113" s="3">
@@ -8943,7 +8925,7 @@
       <c r="K113" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="L113" s="3" t="s">
+      <c r="L113" s="13" t="s">
         <v>874</v>
       </c>
       <c r="M113" s="3" t="s">
@@ -8962,8 +8944,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="185.25">
-      <c r="A114" s="23" t="s">
+    <row r="114" spans="1:30" ht="212.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="20" t="s">
         <v>878</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -8979,7 +8961,7 @@
       <c r="F114" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="G114" s="27" t="s">
+      <c r="G114" s="23" t="s">
         <v>879</v>
       </c>
       <c r="H114" s="5">
@@ -8994,7 +8976,7 @@
       <c r="K114" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="L114" s="14" t="s">
+      <c r="L114" s="25" t="s">
         <v>882</v>
       </c>
       <c r="M114" s="3" t="s">
@@ -9013,8 +8995,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="12.75">
-      <c r="A115" s="23" t="s">
+    <row r="115" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="20" t="s">
         <v>886</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -9030,7 +9012,7 @@
       <c r="F115" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="G115" s="27" t="s">
+      <c r="G115" s="23" t="s">
         <v>887</v>
       </c>
       <c r="H115" s="3">
@@ -9045,7 +9027,7 @@
       <c r="K115" s="3" t="s">
         <v>889</v>
       </c>
-      <c r="L115" s="3" t="s">
+      <c r="L115" s="13" t="s">
         <v>890</v>
       </c>
       <c r="M115" s="3" t="s">
@@ -9077,8 +9059,8 @@
       <c r="AC115" s="6"/>
       <c r="AD115" s="6"/>
     </row>
-    <row r="116" spans="1:30" ht="104.25">
-      <c r="A116" s="23" t="s">
+    <row r="116" spans="1:30" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="20" t="s">
         <v>893</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -9094,7 +9076,7 @@
       <c r="F116" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="G116" s="27" t="s">
+      <c r="G116" s="23" t="s">
         <v>895</v>
       </c>
       <c r="H116" s="3"/>
@@ -9105,7 +9087,7 @@
       <c r="K116" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="L116" s="14" t="s">
+      <c r="L116" s="25" t="s">
         <v>898</v>
       </c>
       <c r="M116" s="3" t="s">
@@ -9124,1274 +9106,1274 @@
         <v>274</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="12.6">
-      <c r="A117" s="23"/>
+    <row r="117" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="20"/>
       <c r="B117" s="13"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="F117" s="13"/>
       <c r="M117" s="13"/>
     </row>
-    <row r="118" spans="1:30" ht="12.6">
+    <row r="118" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B118" s="13"/>
       <c r="F118" s="13"/>
       <c r="M118" s="13"/>
     </row>
-    <row r="119" spans="1:30" ht="12.6">
+    <row r="119" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B119" s="13"/>
       <c r="F119" s="13"/>
       <c r="M119" s="13"/>
     </row>
-    <row r="120" spans="1:30" ht="12.6">
+    <row r="120" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B120" s="13"/>
       <c r="F120" s="13"/>
       <c r="M120" s="13"/>
     </row>
-    <row r="121" spans="1:30" ht="12.6">
+    <row r="121" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B121" s="13"/>
       <c r="F121" s="13"/>
       <c r="M121" s="13"/>
     </row>
-    <row r="122" spans="1:30" ht="12.6">
+    <row r="122" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B122" s="13"/>
       <c r="F122" s="13"/>
       <c r="M122" s="13"/>
     </row>
-    <row r="123" spans="1:30" ht="12.6">
+    <row r="123" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B123" s="13"/>
       <c r="F123" s="13"/>
       <c r="M123" s="13"/>
     </row>
-    <row r="124" spans="1:30" ht="12.6">
+    <row r="124" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B124" s="13"/>
       <c r="F124" s="13"/>
       <c r="M124" s="13"/>
     </row>
-    <row r="125" spans="1:30" ht="12.6">
+    <row r="125" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B125" s="13"/>
       <c r="F125" s="13"/>
       <c r="M125" s="13"/>
     </row>
-    <row r="126" spans="1:30" ht="12.6">
+    <row r="126" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B126" s="13"/>
       <c r="F126" s="13"/>
       <c r="M126" s="13"/>
     </row>
-    <row r="127" spans="1:30" ht="12.6">
+    <row r="127" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B127" s="13"/>
       <c r="F127" s="13"/>
       <c r="M127" s="13"/>
     </row>
-    <row r="128" spans="1:30" ht="12.6">
+    <row r="128" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B128" s="13"/>
       <c r="F128" s="13"/>
       <c r="M128" s="13"/>
     </row>
-    <row r="129" spans="2:13" ht="12.6">
+    <row r="129" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B129" s="13"/>
       <c r="F129" s="13"/>
       <c r="M129" s="13"/>
     </row>
-    <row r="130" spans="2:13" ht="12.6">
+    <row r="130" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B130" s="13"/>
       <c r="F130" s="13"/>
       <c r="M130" s="13"/>
     </row>
-    <row r="131" spans="2:13" ht="12.6">
+    <row r="131" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B131" s="13"/>
       <c r="F131" s="13"/>
       <c r="M131" s="13"/>
     </row>
-    <row r="132" spans="2:13" ht="12.6">
+    <row r="132" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B132" s="13"/>
       <c r="F132" s="13"/>
       <c r="M132" s="13"/>
     </row>
-    <row r="133" spans="2:13" ht="12.6">
+    <row r="133" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B133" s="13"/>
       <c r="F133" s="13"/>
       <c r="M133" s="13"/>
     </row>
-    <row r="134" spans="2:13" ht="12.6">
+    <row r="134" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B134" s="13"/>
       <c r="F134" s="13"/>
       <c r="M134" s="13"/>
     </row>
-    <row r="135" spans="2:13" ht="12.6">
+    <row r="135" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B135" s="13"/>
       <c r="F135" s="13"/>
       <c r="M135" s="13"/>
     </row>
-    <row r="136" spans="2:13" ht="12.6">
+    <row r="136" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B136" s="13"/>
       <c r="F136" s="13"/>
       <c r="M136" s="13"/>
     </row>
-    <row r="137" spans="2:13" ht="12.6">
+    <row r="137" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B137" s="13"/>
       <c r="F137" s="13"/>
       <c r="M137" s="13"/>
     </row>
-    <row r="138" spans="2:13" ht="12.6">
+    <row r="138" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B138" s="13"/>
       <c r="F138" s="13"/>
       <c r="M138" s="13"/>
     </row>
-    <row r="139" spans="2:13" ht="12.6">
+    <row r="139" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B139" s="13"/>
       <c r="F139" s="13"/>
       <c r="M139" s="13"/>
     </row>
-    <row r="140" spans="2:13" ht="12.6">
+    <row r="140" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B140" s="13"/>
       <c r="F140" s="13"/>
       <c r="M140" s="13"/>
     </row>
-    <row r="141" spans="2:13" ht="12.6">
+    <row r="141" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B141" s="13"/>
       <c r="F141" s="13"/>
       <c r="M141" s="13"/>
     </row>
-    <row r="142" spans="2:13" ht="12.6">
+    <row r="142" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B142" s="13"/>
       <c r="F142" s="13"/>
       <c r="M142" s="13"/>
     </row>
-    <row r="143" spans="2:13" ht="12.6">
+    <row r="143" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B143" s="13"/>
       <c r="F143" s="13"/>
       <c r="M143" s="13"/>
     </row>
-    <row r="144" spans="2:13" ht="12.6">
+    <row r="144" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B144" s="13"/>
       <c r="F144" s="13"/>
       <c r="M144" s="13"/>
     </row>
-    <row r="145" spans="2:13" ht="12.6">
+    <row r="145" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B145" s="13"/>
       <c r="F145" s="13"/>
       <c r="M145" s="13"/>
     </row>
-    <row r="146" spans="2:13" ht="12.6">
+    <row r="146" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B146" s="13"/>
       <c r="F146" s="13"/>
       <c r="M146" s="13"/>
     </row>
-    <row r="147" spans="2:13" ht="12.6">
+    <row r="147" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B147" s="13"/>
       <c r="F147" s="13"/>
       <c r="M147" s="13"/>
     </row>
-    <row r="148" spans="2:13" ht="12.6">
+    <row r="148" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B148" s="13"/>
       <c r="F148" s="13"/>
       <c r="M148" s="13"/>
     </row>
-    <row r="149" spans="2:13" ht="12.6">
+    <row r="149" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B149" s="13"/>
       <c r="F149" s="13"/>
       <c r="M149" s="13"/>
     </row>
-    <row r="150" spans="2:13" ht="12.6">
+    <row r="150" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B150" s="13"/>
       <c r="F150" s="13"/>
       <c r="M150" s="13"/>
     </row>
-    <row r="151" spans="2:13" ht="12.6">
+    <row r="151" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B151" s="13"/>
       <c r="F151" s="13"/>
       <c r="M151" s="13"/>
     </row>
-    <row r="152" spans="2:13" ht="12.6">
+    <row r="152" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B152" s="13"/>
       <c r="F152" s="13"/>
       <c r="M152" s="13"/>
     </row>
-    <row r="153" spans="2:13" ht="12.6">
+    <row r="153" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B153" s="13"/>
       <c r="F153" s="13"/>
       <c r="M153" s="13"/>
     </row>
-    <row r="154" spans="2:13" ht="12.6">
+    <row r="154" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B154" s="13"/>
       <c r="F154" s="13"/>
       <c r="M154" s="13"/>
     </row>
-    <row r="155" spans="2:13" ht="12.6">
+    <row r="155" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B155" s="13"/>
       <c r="F155" s="13"/>
       <c r="M155" s="13"/>
     </row>
-    <row r="156" spans="2:13" ht="12.6">
+    <row r="156" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B156" s="13"/>
       <c r="F156" s="13"/>
       <c r="M156" s="13"/>
     </row>
-    <row r="157" spans="2:13" ht="12.6">
+    <row r="157" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B157" s="13"/>
       <c r="F157" s="13"/>
       <c r="M157" s="13"/>
     </row>
-    <row r="158" spans="2:13" ht="12.6">
+    <row r="158" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B158" s="13"/>
       <c r="F158" s="13"/>
       <c r="M158" s="13"/>
     </row>
-    <row r="159" spans="2:13" ht="12.6">
+    <row r="159" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B159" s="13"/>
       <c r="F159" s="13"/>
       <c r="M159" s="13"/>
     </row>
-    <row r="160" spans="2:13" ht="12.6">
+    <row r="160" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B160" s="13"/>
       <c r="F160" s="13"/>
       <c r="M160" s="13"/>
     </row>
-    <row r="161" spans="2:13" ht="12.6">
+    <row r="161" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B161" s="13"/>
       <c r="F161" s="13"/>
       <c r="M161" s="13"/>
     </row>
-    <row r="162" spans="2:13" ht="12.6">
+    <row r="162" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B162" s="13"/>
       <c r="F162" s="13"/>
       <c r="M162" s="13"/>
     </row>
-    <row r="163" spans="2:13" ht="12.6">
+    <row r="163" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B163" s="13"/>
       <c r="F163" s="13"/>
       <c r="M163" s="13"/>
     </row>
-    <row r="164" spans="2:13" ht="12.6">
+    <row r="164" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B164" s="13"/>
       <c r="F164" s="13"/>
       <c r="M164" s="13"/>
     </row>
-    <row r="165" spans="2:13" ht="12.6">
+    <row r="165" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B165" s="13"/>
       <c r="F165" s="13"/>
       <c r="M165" s="13"/>
     </row>
-    <row r="166" spans="2:13" ht="12.6">
+    <row r="166" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B166" s="13"/>
       <c r="F166" s="13"/>
       <c r="M166" s="13"/>
     </row>
-    <row r="167" spans="2:13" ht="12.6">
+    <row r="167" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B167" s="13"/>
       <c r="F167" s="13"/>
       <c r="M167" s="13"/>
     </row>
-    <row r="168" spans="2:13" ht="12.6">
+    <row r="168" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B168" s="13"/>
       <c r="F168" s="13"/>
       <c r="M168" s="13"/>
     </row>
-    <row r="169" spans="2:13" ht="12.6">
+    <row r="169" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B169" s="13"/>
       <c r="F169" s="13"/>
       <c r="M169" s="13"/>
     </row>
-    <row r="170" spans="2:13" ht="12.6">
+    <row r="170" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B170" s="13"/>
       <c r="F170" s="13"/>
       <c r="M170" s="13"/>
     </row>
-    <row r="171" spans="2:13" ht="12.6">
+    <row r="171" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B171" s="13"/>
       <c r="F171" s="13"/>
       <c r="M171" s="13"/>
     </row>
-    <row r="172" spans="2:13" ht="12.6">
+    <row r="172" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B172" s="13"/>
       <c r="F172" s="13"/>
       <c r="M172" s="13"/>
     </row>
-    <row r="173" spans="2:13" ht="12.6">
+    <row r="173" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B173" s="13"/>
       <c r="F173" s="13"/>
       <c r="M173" s="13"/>
     </row>
-    <row r="174" spans="2:13" ht="12.6">
+    <row r="174" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B174" s="13"/>
       <c r="F174" s="13"/>
       <c r="M174" s="13"/>
     </row>
-    <row r="175" spans="2:13" ht="12.6">
+    <row r="175" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B175" s="13"/>
       <c r="F175" s="13"/>
       <c r="M175" s="13"/>
     </row>
-    <row r="176" spans="2:13" ht="12.6">
+    <row r="176" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B176" s="13"/>
       <c r="F176" s="13"/>
       <c r="M176" s="13"/>
     </row>
-    <row r="177" spans="2:13" ht="12.6">
+    <row r="177" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B177" s="13"/>
       <c r="F177" s="13"/>
       <c r="M177" s="13"/>
     </row>
-    <row r="178" spans="2:13" ht="12.6">
+    <row r="178" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B178" s="13"/>
       <c r="F178" s="13"/>
       <c r="M178" s="13"/>
     </row>
-    <row r="179" spans="2:13" ht="12.6">
+    <row r="179" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B179" s="13"/>
       <c r="F179" s="13"/>
       <c r="M179" s="13"/>
     </row>
-    <row r="180" spans="2:13" ht="12.6">
+    <row r="180" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B180" s="13"/>
       <c r="F180" s="13"/>
       <c r="M180" s="13"/>
     </row>
-    <row r="181" spans="2:13" ht="12.6">
+    <row r="181" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B181" s="13"/>
       <c r="F181" s="13"/>
       <c r="M181" s="13"/>
     </row>
-    <row r="182" spans="2:13" ht="12.6">
+    <row r="182" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B182" s="13"/>
       <c r="F182" s="13"/>
       <c r="M182" s="13"/>
     </row>
-    <row r="183" spans="2:13" ht="12.6">
+    <row r="183" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B183" s="13"/>
       <c r="F183" s="13"/>
       <c r="M183" s="13"/>
     </row>
-    <row r="184" spans="2:13" ht="12.6">
+    <row r="184" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B184" s="13"/>
       <c r="F184" s="13"/>
       <c r="M184" s="13"/>
     </row>
-    <row r="185" spans="2:13" ht="12.6">
+    <row r="185" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B185" s="13"/>
       <c r="F185" s="13"/>
       <c r="M185" s="13"/>
     </row>
-    <row r="186" spans="2:13" ht="12.6">
+    <row r="186" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B186" s="13"/>
       <c r="F186" s="13"/>
       <c r="M186" s="13"/>
     </row>
-    <row r="187" spans="2:13" ht="12.6">
+    <row r="187" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B187" s="13"/>
       <c r="F187" s="13"/>
       <c r="M187" s="13"/>
     </row>
-    <row r="188" spans="2:13" ht="12.6">
+    <row r="188" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B188" s="13"/>
       <c r="F188" s="13"/>
       <c r="M188" s="13"/>
     </row>
-    <row r="189" spans="2:13" ht="12.6">
+    <row r="189" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B189" s="13"/>
       <c r="F189" s="13"/>
       <c r="M189" s="13"/>
     </row>
-    <row r="190" spans="2:13" ht="12.6">
+    <row r="190" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B190" s="13"/>
       <c r="F190" s="13"/>
       <c r="M190" s="13"/>
     </row>
-    <row r="191" spans="2:13" ht="12.6">
+    <row r="191" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B191" s="13"/>
       <c r="F191" s="13"/>
       <c r="M191" s="13"/>
     </row>
-    <row r="192" spans="2:13" ht="12.6">
+    <row r="192" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B192" s="13"/>
       <c r="F192" s="13"/>
       <c r="M192" s="13"/>
     </row>
-    <row r="193" spans="2:13" ht="12.6">
+    <row r="193" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B193" s="13"/>
       <c r="F193" s="13"/>
       <c r="M193" s="13"/>
     </row>
-    <row r="194" spans="2:13" ht="12.6">
+    <row r="194" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B194" s="13"/>
       <c r="F194" s="13"/>
       <c r="M194" s="13"/>
     </row>
-    <row r="195" spans="2:13" ht="12.6">
+    <row r="195" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B195" s="13"/>
       <c r="F195" s="13"/>
       <c r="M195" s="13"/>
     </row>
-    <row r="196" spans="2:13" ht="12.6">
+    <row r="196" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B196" s="13"/>
       <c r="F196" s="13"/>
       <c r="M196" s="13"/>
     </row>
-    <row r="197" spans="2:13" ht="12.6">
+    <row r="197" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B197" s="13"/>
       <c r="F197" s="13"/>
       <c r="M197" s="13"/>
     </row>
-    <row r="198" spans="2:13" ht="12.6">
+    <row r="198" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B198" s="13"/>
       <c r="F198" s="13"/>
       <c r="M198" s="13"/>
     </row>
-    <row r="199" spans="2:13" ht="12.6">
+    <row r="199" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B199" s="13"/>
       <c r="F199" s="13"/>
       <c r="M199" s="13"/>
     </row>
-    <row r="200" spans="2:13" ht="12.6">
+    <row r="200" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B200" s="13"/>
       <c r="F200" s="13"/>
       <c r="M200" s="13"/>
     </row>
-    <row r="201" spans="2:13" ht="12.6">
+    <row r="201" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B201" s="13"/>
       <c r="F201" s="13"/>
       <c r="M201" s="13"/>
     </row>
-    <row r="202" spans="2:13" ht="12.6">
+    <row r="202" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B202" s="13"/>
       <c r="F202" s="13"/>
       <c r="M202" s="13"/>
     </row>
-    <row r="203" spans="2:13" ht="12.6">
+    <row r="203" spans="2:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B203" s="13"/>
       <c r="F203" s="13"/>
       <c r="M203" s="13"/>
     </row>
-    <row r="204" spans="2:13" ht="12.6"/>
-    <row r="205" spans="2:13" ht="12.6"/>
-    <row r="206" spans="2:13" ht="12.6"/>
-    <row r="207" spans="2:13" ht="12.6"/>
-    <row r="208" spans="2:13" ht="12.6"/>
-    <row r="209" ht="12.6"/>
-    <row r="210" ht="12.6"/>
-    <row r="211" ht="12.6"/>
-    <row r="212" ht="12.6"/>
-    <row r="213" ht="12.6"/>
-    <row r="214" ht="12.6"/>
-    <row r="215" ht="12.6"/>
-    <row r="216" ht="12.6"/>
-    <row r="217" ht="12.6"/>
-    <row r="218" ht="12.6"/>
-    <row r="219" ht="12.6"/>
-    <row r="220" ht="12.6"/>
-    <row r="221" ht="12.6"/>
-    <row r="222" ht="12.6"/>
-    <row r="223" ht="12.6"/>
-    <row r="224" ht="12.6"/>
-    <row r="225" ht="12.6"/>
-    <row r="226" ht="12.6"/>
-    <row r="227" ht="12.6"/>
-    <row r="228" ht="12.6"/>
-    <row r="229" ht="12.6"/>
-    <row r="230" ht="12.6"/>
-    <row r="231" ht="12.6"/>
-    <row r="232" ht="12.6"/>
-    <row r="233" ht="12.6"/>
-    <row r="234" ht="12.6"/>
-    <row r="235" ht="12.6"/>
-    <row r="236" ht="12.6"/>
-    <row r="237" ht="12.6"/>
-    <row r="238" ht="12.6"/>
-    <row r="239" ht="12.6"/>
-    <row r="240" ht="12.6"/>
-    <row r="241" ht="12.6"/>
-    <row r="242" ht="12.6"/>
-    <row r="243" ht="12.6"/>
-    <row r="244" ht="12.6"/>
-    <row r="245" ht="12.6"/>
-    <row r="246" ht="12.6"/>
-    <row r="247" ht="12.6"/>
-    <row r="248" ht="12.6"/>
-    <row r="249" ht="12.6"/>
-    <row r="250" ht="12.6"/>
-    <row r="251" ht="12.6"/>
-    <row r="252" ht="12.6"/>
-    <row r="253" ht="12.6"/>
-    <row r="254" ht="12.6"/>
-    <row r="255" ht="12.6"/>
-    <row r="256" ht="12.6"/>
-    <row r="257" ht="12.6"/>
-    <row r="258" ht="12.6"/>
-    <row r="259" ht="12.6"/>
-    <row r="260" ht="12.6"/>
-    <row r="261" ht="12.6"/>
-    <row r="262" ht="12.6"/>
-    <row r="263" ht="12.6"/>
-    <row r="264" ht="12.6"/>
-    <row r="265" ht="12.6"/>
-    <row r="266" ht="12.6"/>
-    <row r="267" ht="12.6"/>
-    <row r="268" ht="12.6"/>
-    <row r="269" ht="12.6"/>
-    <row r="270" ht="12.6"/>
-    <row r="271" ht="12.6"/>
-    <row r="272" ht="12.6"/>
-    <row r="273" ht="12.6"/>
-    <row r="274" ht="12.6"/>
-    <row r="275" ht="12.6"/>
-    <row r="276" ht="12.6"/>
-    <row r="277" ht="12.6"/>
-    <row r="278" ht="12.6"/>
-    <row r="279" ht="12.6"/>
-    <row r="280" ht="12.6"/>
-    <row r="281" ht="12.6"/>
-    <row r="282" ht="12.6"/>
-    <row r="283" ht="12.6"/>
-    <row r="284" ht="12.6"/>
-    <row r="285" ht="12.6"/>
-    <row r="286" ht="12.6"/>
-    <row r="287" ht="12.6"/>
-    <row r="288" ht="12.6"/>
-    <row r="289" ht="12.6"/>
-    <row r="290" ht="12.6"/>
-    <row r="291" ht="12.6"/>
-    <row r="292" ht="12.6"/>
-    <row r="293" ht="12.6"/>
-    <row r="294" ht="12.6"/>
-    <row r="295" ht="12.6"/>
-    <row r="296" ht="12.6"/>
-    <row r="297" ht="12.6"/>
-    <row r="298" ht="12.6"/>
-    <row r="299" ht="12.6"/>
-    <row r="300" ht="12.6"/>
-    <row r="301" ht="12.6"/>
-    <row r="302" ht="12.6"/>
-    <row r="303" ht="12.6"/>
-    <row r="304" ht="12.6"/>
-    <row r="305" ht="12.6"/>
-    <row r="306" ht="12.6"/>
-    <row r="307" ht="12.6"/>
-    <row r="308" ht="12.6"/>
-    <row r="309" ht="12.6"/>
-    <row r="310" ht="12.6"/>
-    <row r="311" ht="12.6"/>
-    <row r="312" ht="12.6"/>
-    <row r="313" ht="12.6"/>
-    <row r="314" ht="12.6"/>
-    <row r="315" ht="12.6"/>
-    <row r="316" ht="12.6"/>
-    <row r="317" ht="12.6"/>
-    <row r="318" ht="12.6"/>
-    <row r="319" ht="12.6"/>
-    <row r="320" ht="12.6"/>
-    <row r="321" ht="12.6"/>
-    <row r="322" ht="12.6"/>
-    <row r="323" ht="12.6"/>
-    <row r="324" ht="12.6"/>
-    <row r="325" ht="12.6"/>
-    <row r="326" ht="12.6"/>
-    <row r="327" ht="12.6"/>
-    <row r="328" ht="12.6"/>
-    <row r="329" ht="12.6"/>
-    <row r="330" ht="12.6"/>
-    <row r="331" ht="12.6"/>
-    <row r="332" ht="12.6"/>
-    <row r="333" ht="12.6"/>
-    <row r="334" ht="12.6"/>
-    <row r="335" ht="12.6"/>
-    <row r="336" ht="12.6"/>
-    <row r="337" ht="12.6"/>
-    <row r="338" ht="12.6"/>
-    <row r="339" ht="12.6"/>
-    <row r="340" ht="12.6"/>
-    <row r="341" ht="12.6"/>
-    <row r="342" ht="12.6"/>
-    <row r="343" ht="12.6"/>
-    <row r="344" ht="12.6"/>
-    <row r="345" ht="12.6"/>
-    <row r="346" ht="12.6"/>
-    <row r="347" ht="12.6"/>
-    <row r="348" ht="12.6"/>
-    <row r="349" ht="12.6"/>
-    <row r="350" ht="12.6"/>
-    <row r="351" ht="12.6"/>
-    <row r="352" ht="12.6"/>
-    <row r="353" ht="12.6"/>
-    <row r="354" ht="12.6"/>
-    <row r="355" ht="12.6"/>
-    <row r="356" ht="12.6"/>
-    <row r="357" ht="12.6"/>
-    <row r="358" ht="12.6"/>
-    <row r="359" ht="12.6"/>
-    <row r="360" ht="12.6"/>
-    <row r="361" ht="12.6"/>
-    <row r="362" ht="12.6"/>
-    <row r="363" ht="12.6"/>
-    <row r="364" ht="12.6"/>
-    <row r="365" ht="12.6"/>
-    <row r="366" ht="12.6"/>
-    <row r="367" ht="12.6"/>
-    <row r="368" ht="12.6"/>
-    <row r="369" ht="12.6"/>
-    <row r="370" ht="12.6"/>
-    <row r="371" ht="12.6"/>
-    <row r="372" ht="12.6"/>
-    <row r="373" ht="12.6"/>
-    <row r="374" ht="12.6"/>
-    <row r="375" ht="12.6"/>
-    <row r="376" ht="12.6"/>
-    <row r="377" ht="12.6"/>
-    <row r="378" ht="12.6"/>
-    <row r="379" ht="12.6"/>
-    <row r="380" ht="12.6"/>
-    <row r="381" ht="12.6"/>
-    <row r="382" ht="12.6"/>
-    <row r="383" ht="12.6"/>
-    <row r="384" ht="12.6"/>
-    <row r="385" ht="12.6"/>
-    <row r="386" ht="12.6"/>
-    <row r="387" ht="12.6"/>
-    <row r="388" ht="12.6"/>
-    <row r="389" ht="12.6"/>
-    <row r="390" ht="12.6"/>
-    <row r="391" ht="12.6"/>
-    <row r="392" ht="12.6"/>
-    <row r="393" ht="12.6"/>
-    <row r="394" ht="12.6"/>
-    <row r="395" ht="12.6"/>
-    <row r="396" ht="12.6"/>
-    <row r="397" ht="12.6"/>
-    <row r="398" ht="12.6"/>
-    <row r="399" ht="12.6"/>
-    <row r="400" ht="12.6"/>
-    <row r="401" ht="12.6"/>
-    <row r="402" ht="12.6"/>
-    <row r="403" ht="12.6"/>
-    <row r="404" ht="12.6"/>
-    <row r="405" ht="12.6"/>
-    <row r="406" ht="12.6"/>
-    <row r="407" ht="12.6"/>
-    <row r="408" ht="12.6"/>
-    <row r="409" ht="12.6"/>
-    <row r="410" ht="12.6"/>
-    <row r="411" ht="12.6"/>
-    <row r="412" ht="12.6"/>
-    <row r="413" ht="12.6"/>
-    <row r="414" ht="12.6"/>
-    <row r="415" ht="12.6"/>
-    <row r="416" ht="12.6"/>
-    <row r="417" ht="12.6"/>
-    <row r="418" ht="12.6"/>
-    <row r="419" ht="12.6"/>
-    <row r="420" ht="12.6"/>
-    <row r="421" ht="12.6"/>
-    <row r="422" ht="12.6"/>
-    <row r="423" ht="12.6"/>
-    <row r="424" ht="12.6"/>
-    <row r="425" ht="12.6"/>
-    <row r="426" ht="12.6"/>
-    <row r="427" ht="12.6"/>
-    <row r="428" ht="12.6"/>
-    <row r="429" ht="12.6"/>
-    <row r="430" ht="12.6"/>
-    <row r="431" ht="12.6"/>
-    <row r="432" ht="12.6"/>
-    <row r="433" ht="12.6"/>
-    <row r="434" ht="12.6"/>
-    <row r="435" ht="12.6"/>
-    <row r="436" ht="12.6"/>
-    <row r="437" ht="12.6"/>
-    <row r="438" ht="12.6"/>
-    <row r="439" ht="12.6"/>
-    <row r="440" ht="12.6"/>
-    <row r="441" ht="12.6"/>
-    <row r="442" ht="12.6"/>
-    <row r="443" ht="12.6"/>
-    <row r="444" ht="12.6"/>
-    <row r="445" ht="12.6"/>
-    <row r="446" ht="12.6"/>
-    <row r="447" ht="12.6"/>
-    <row r="448" ht="12.6"/>
-    <row r="449" ht="12.6"/>
-    <row r="450" ht="12.6"/>
-    <row r="451" ht="12.6"/>
-    <row r="452" ht="12.6"/>
-    <row r="453" ht="12.6"/>
-    <row r="454" ht="12.6"/>
-    <row r="455" ht="12.6"/>
-    <row r="456" ht="12.6"/>
-    <row r="457" ht="12.6"/>
-    <row r="458" ht="12.6"/>
-    <row r="459" ht="12.6"/>
-    <row r="460" ht="12.6"/>
-    <row r="461" ht="12.6"/>
-    <row r="462" ht="12.6"/>
-    <row r="463" ht="12.6"/>
-    <row r="464" ht="12.6"/>
-    <row r="465" ht="12.6"/>
-    <row r="466" ht="12.6"/>
-    <row r="467" ht="12.6"/>
-    <row r="468" ht="12.6"/>
-    <row r="469" ht="12.6"/>
-    <row r="470" ht="12.6"/>
-    <row r="471" ht="12.6"/>
-    <row r="472" ht="12.6"/>
-    <row r="473" ht="12.6"/>
-    <row r="474" ht="12.6"/>
-    <row r="475" ht="12.6"/>
-    <row r="476" ht="12.6"/>
-    <row r="477" ht="12.6"/>
-    <row r="478" ht="12.6"/>
-    <row r="479" ht="12.6"/>
-    <row r="480" ht="12.6"/>
-    <row r="481" ht="12.6"/>
-    <row r="482" ht="12.6"/>
-    <row r="483" ht="12.6"/>
-    <row r="484" ht="12.6"/>
-    <row r="485" ht="12.6"/>
-    <row r="486" ht="12.6"/>
-    <row r="487" ht="12.6"/>
-    <row r="488" ht="12.6"/>
-    <row r="489" ht="12.6"/>
-    <row r="490" ht="12.6"/>
-    <row r="491" ht="12.6"/>
-    <row r="492" ht="12.6"/>
-    <row r="493" ht="12.6"/>
-    <row r="494" ht="12.6"/>
-    <row r="495" ht="12.6"/>
-    <row r="496" ht="12.6"/>
-    <row r="497" ht="12.6"/>
-    <row r="498" ht="12.6"/>
-    <row r="499" ht="12.6"/>
-    <row r="500" ht="12.6"/>
-    <row r="501" ht="12.6"/>
-    <row r="502" ht="12.6"/>
-    <row r="503" ht="12.6"/>
-    <row r="504" ht="12.6"/>
-    <row r="505" ht="12.6"/>
-    <row r="506" ht="12.6"/>
-    <row r="507" ht="12.6"/>
-    <row r="508" ht="12.6"/>
-    <row r="509" ht="12.6"/>
-    <row r="510" ht="12.6"/>
-    <row r="511" ht="12.6"/>
-    <row r="512" ht="12.6"/>
-    <row r="513" ht="12.6"/>
-    <row r="514" ht="12.6"/>
-    <row r="515" ht="12.6"/>
-    <row r="516" ht="12.6"/>
-    <row r="517" ht="12.6"/>
-    <row r="518" ht="12.6"/>
-    <row r="519" ht="12.6"/>
-    <row r="520" ht="12.6"/>
-    <row r="521" ht="12.6"/>
-    <row r="522" ht="12.6"/>
-    <row r="523" ht="12.6"/>
-    <row r="524" ht="12.6"/>
-    <row r="525" ht="12.6"/>
-    <row r="526" ht="12.6"/>
-    <row r="527" ht="12.6"/>
-    <row r="528" ht="12.6"/>
-    <row r="529" ht="12.6"/>
-    <row r="530" ht="12.6"/>
-    <row r="531" ht="12.6"/>
-    <row r="532" ht="12.6"/>
-    <row r="533" ht="12.6"/>
-    <row r="534" ht="12.6"/>
-    <row r="535" ht="12.6"/>
-    <row r="536" ht="12.6"/>
-    <row r="537" ht="12.6"/>
-    <row r="538" ht="12.6"/>
-    <row r="539" ht="12.6"/>
-    <row r="540" ht="12.6"/>
-    <row r="541" ht="12.6"/>
-    <row r="542" ht="12.6"/>
-    <row r="543" ht="12.6"/>
-    <row r="544" ht="12.6"/>
-    <row r="545" ht="12.6"/>
-    <row r="546" ht="12.6"/>
-    <row r="547" ht="12.6"/>
-    <row r="548" ht="12.6"/>
-    <row r="549" ht="12.6"/>
-    <row r="550" ht="12.6"/>
-    <row r="551" ht="12.6"/>
-    <row r="552" ht="12.6"/>
-    <row r="553" ht="12.6"/>
-    <row r="554" ht="12.6"/>
-    <row r="555" ht="12.6"/>
-    <row r="556" ht="12.6"/>
-    <row r="557" ht="12.6"/>
-    <row r="558" ht="12.6"/>
-    <row r="559" ht="12.6"/>
-    <row r="560" ht="12.6"/>
-    <row r="561" ht="12.6"/>
-    <row r="562" ht="12.6"/>
-    <row r="563" ht="12.6"/>
-    <row r="564" ht="12.6"/>
-    <row r="565" ht="12.6"/>
-    <row r="566" ht="12.6"/>
-    <row r="567" ht="12.6"/>
-    <row r="568" ht="12.6"/>
-    <row r="569" ht="12.6"/>
-    <row r="570" ht="12.6"/>
-    <row r="571" ht="12.6"/>
-    <row r="572" ht="12.6"/>
-    <row r="573" ht="12.6"/>
-    <row r="574" ht="12.6"/>
-    <row r="575" ht="12.6"/>
-    <row r="576" ht="12.6"/>
-    <row r="577" ht="12.6"/>
-    <row r="578" ht="12.6"/>
-    <row r="579" ht="12.6"/>
-    <row r="580" ht="12.6"/>
-    <row r="581" ht="12.6"/>
-    <row r="582" ht="12.6"/>
-    <row r="583" ht="12.6"/>
-    <row r="584" ht="12.6"/>
-    <row r="585" ht="12.6"/>
-    <row r="586" ht="12.6"/>
-    <row r="587" ht="12.6"/>
-    <row r="588" ht="12.6"/>
-    <row r="589" ht="12.6"/>
-    <row r="590" ht="12.6"/>
-    <row r="591" ht="12.6"/>
-    <row r="592" ht="12.6"/>
-    <row r="593" ht="12.6"/>
-    <row r="594" ht="12.6"/>
-    <row r="595" ht="12.6"/>
-    <row r="596" ht="12.6"/>
-    <row r="597" ht="12.6"/>
-    <row r="598" ht="12.6"/>
-    <row r="599" ht="12.6"/>
-    <row r="600" ht="12.6"/>
-    <row r="601" ht="12.6"/>
-    <row r="602" ht="12.6"/>
-    <row r="603" ht="12.6"/>
-    <row r="604" ht="12.6"/>
-    <row r="605" ht="12.6"/>
-    <row r="606" ht="12.6"/>
-    <row r="607" ht="12.6"/>
-    <row r="608" ht="12.6"/>
-    <row r="609" ht="12.6"/>
-    <row r="610" ht="12.6"/>
-    <row r="611" ht="12.6"/>
-    <row r="612" ht="12.6"/>
-    <row r="613" ht="12.6"/>
-    <row r="614" ht="12.6"/>
-    <row r="615" ht="12.6"/>
-    <row r="616" ht="12.6"/>
-    <row r="617" ht="12.6"/>
-    <row r="618" ht="12.6"/>
-    <row r="619" ht="12.6"/>
-    <row r="620" ht="12.6"/>
-    <row r="621" ht="12.6"/>
-    <row r="622" ht="12.6"/>
-    <row r="623" ht="12.6"/>
-    <row r="624" ht="12.6"/>
-    <row r="625" ht="12.6"/>
-    <row r="626" ht="12.6"/>
-    <row r="627" ht="12.6"/>
-    <row r="628" ht="12.6"/>
-    <row r="629" ht="12.6"/>
-    <row r="630" ht="12.6"/>
-    <row r="631" ht="12.6"/>
-    <row r="632" ht="12.6"/>
-    <row r="633" ht="12.6"/>
-    <row r="634" ht="12.6"/>
-    <row r="635" ht="12.6"/>
-    <row r="636" ht="12.6"/>
-    <row r="637" ht="12.6"/>
-    <row r="638" ht="12.6"/>
-    <row r="639" ht="12.6"/>
-    <row r="640" ht="12.6"/>
-    <row r="641" ht="12.6"/>
-    <row r="642" ht="12.6"/>
-    <row r="643" ht="12.6"/>
-    <row r="644" ht="12.6"/>
-    <row r="645" ht="12.6"/>
-    <row r="646" ht="12.6"/>
-    <row r="647" ht="12.6"/>
-    <row r="648" ht="12.6"/>
-    <row r="649" ht="12.6"/>
-    <row r="650" ht="12.6"/>
-    <row r="651" ht="12.6"/>
-    <row r="652" ht="12.6"/>
-    <row r="653" ht="12.6"/>
-    <row r="654" ht="12.6"/>
-    <row r="655" ht="12.6"/>
-    <row r="656" ht="12.6"/>
-    <row r="657" ht="12.6"/>
-    <row r="658" ht="12.6"/>
-    <row r="659" ht="12.6"/>
-    <row r="660" ht="12.6"/>
-    <row r="661" ht="12.6"/>
-    <row r="662" ht="12.6"/>
-    <row r="663" ht="12.6"/>
-    <row r="664" ht="12.6"/>
-    <row r="665" ht="12.6"/>
-    <row r="666" ht="12.6"/>
-    <row r="667" ht="12.6"/>
-    <row r="668" ht="12.6"/>
-    <row r="669" ht="12.6"/>
-    <row r="670" ht="12.6"/>
-    <row r="671" ht="12.6"/>
-    <row r="672" ht="12.6"/>
-    <row r="673" ht="12.6"/>
-    <row r="674" ht="12.6"/>
-    <row r="675" ht="12.6"/>
-    <row r="676" ht="12.6"/>
-    <row r="677" ht="12.6"/>
-    <row r="678" ht="12.6"/>
-    <row r="679" ht="12.6"/>
-    <row r="680" ht="12.6"/>
-    <row r="681" ht="12.6"/>
-    <row r="682" ht="12.6"/>
-    <row r="683" ht="12.6"/>
-    <row r="684" ht="12.6"/>
-    <row r="685" ht="12.6"/>
-    <row r="686" ht="12.6"/>
-    <row r="687" ht="12.6"/>
-    <row r="688" ht="12.6"/>
-    <row r="689" ht="12.6"/>
-    <row r="690" ht="12.6"/>
-    <row r="691" ht="12.6"/>
-    <row r="692" ht="12.6"/>
-    <row r="693" ht="12.6"/>
-    <row r="694" ht="12.6"/>
-    <row r="695" ht="12.6"/>
-    <row r="696" ht="12.6"/>
-    <row r="697" ht="12.6"/>
-    <row r="698" ht="12.6"/>
-    <row r="699" ht="12.6"/>
-    <row r="700" ht="12.6"/>
-    <row r="701" ht="12.6"/>
-    <row r="702" ht="12.6"/>
-    <row r="703" ht="12.6"/>
-    <row r="704" ht="12.6"/>
-    <row r="705" ht="12.6"/>
-    <row r="706" ht="12.6"/>
-    <row r="707" ht="12.6"/>
-    <row r="708" ht="12.6"/>
-    <row r="709" ht="12.6"/>
-    <row r="710" ht="12.6"/>
-    <row r="711" ht="12.6"/>
-    <row r="712" ht="12.6"/>
-    <row r="713" ht="12.6"/>
-    <row r="714" ht="12.6"/>
-    <row r="715" ht="12.6"/>
-    <row r="716" ht="12.6"/>
-    <row r="717" ht="12.6"/>
-    <row r="718" ht="12.6"/>
-    <row r="719" ht="12.6"/>
-    <row r="720" ht="12.6"/>
-    <row r="721" ht="12.6"/>
-    <row r="722" ht="12.6"/>
-    <row r="723" ht="12.6"/>
-    <row r="724" ht="12.6"/>
-    <row r="725" ht="12.6"/>
-    <row r="726" ht="12.6"/>
-    <row r="727" ht="12.6"/>
-    <row r="728" ht="12.6"/>
-    <row r="729" ht="12.6"/>
-    <row r="730" ht="12.6"/>
-    <row r="731" ht="12.6"/>
-    <row r="732" ht="12.6"/>
-    <row r="733" ht="12.6"/>
-    <row r="734" ht="12.6"/>
-    <row r="735" ht="12.6"/>
-    <row r="736" ht="12.6"/>
-    <row r="737" ht="12.6"/>
-    <row r="738" ht="12.6"/>
-    <row r="739" ht="12.6"/>
-    <row r="740" ht="12.6"/>
-    <row r="741" ht="12.6"/>
-    <row r="742" ht="12.6"/>
-    <row r="743" ht="12.6"/>
-    <row r="744" ht="12.6"/>
-    <row r="745" ht="12.6"/>
-    <row r="746" ht="12.6"/>
-    <row r="747" ht="12.6"/>
-    <row r="748" ht="12.6"/>
-    <row r="749" ht="12.6"/>
-    <row r="750" ht="12.6"/>
-    <row r="751" ht="12.6"/>
-    <row r="752" ht="12.6"/>
-    <row r="753" ht="12.6"/>
-    <row r="754" ht="12.6"/>
-    <row r="755" ht="12.6"/>
-    <row r="756" ht="12.6"/>
-    <row r="757" ht="12.6"/>
-    <row r="758" ht="12.6"/>
-    <row r="759" ht="12.6"/>
-    <row r="760" ht="12.6"/>
-    <row r="761" ht="12.6"/>
-    <row r="762" ht="12.6"/>
-    <row r="763" ht="12.6"/>
-    <row r="764" ht="12.6"/>
-    <row r="765" ht="12.6"/>
-    <row r="766" ht="12.6"/>
-    <row r="767" ht="12.6"/>
-    <row r="768" ht="12.6"/>
-    <row r="769" ht="12.6"/>
-    <row r="770" ht="12.6"/>
-    <row r="771" ht="12.6"/>
-    <row r="772" ht="12.6"/>
-    <row r="773" ht="12.6"/>
-    <row r="774" ht="12.6"/>
-    <row r="775" ht="12.6"/>
-    <row r="776" ht="12.6"/>
-    <row r="777" ht="12.6"/>
-    <row r="778" ht="12.6"/>
-    <row r="779" ht="12.6"/>
-    <row r="780" ht="12.6"/>
-    <row r="781" ht="12.6"/>
-    <row r="782" ht="12.6"/>
-    <row r="783" ht="12.6"/>
-    <row r="784" ht="12.6"/>
-    <row r="785" ht="12.6"/>
-    <row r="786" ht="12.6"/>
-    <row r="787" ht="12.6"/>
-    <row r="788" ht="12.6"/>
-    <row r="789" ht="12.6"/>
-    <row r="790" ht="12.6"/>
-    <row r="791" ht="12.6"/>
-    <row r="792" ht="12.6"/>
-    <row r="793" ht="12.6"/>
-    <row r="794" ht="12.6"/>
-    <row r="795" ht="12.6"/>
-    <row r="796" ht="12.6"/>
-    <row r="797" ht="12.6"/>
-    <row r="798" ht="12.6"/>
-    <row r="799" ht="12.6"/>
-    <row r="800" ht="12.6"/>
-    <row r="801" ht="12.6"/>
-    <row r="802" ht="12.6"/>
-    <row r="803" ht="12.6"/>
-    <row r="804" ht="12.6"/>
-    <row r="805" ht="12.6"/>
-    <row r="806" ht="12.6"/>
-    <row r="807" ht="12.6"/>
-    <row r="808" ht="12.6"/>
-    <row r="809" ht="12.6"/>
-    <row r="810" ht="12.6"/>
-    <row r="811" ht="12.6"/>
-    <row r="812" ht="12.6"/>
-    <row r="813" ht="12.6"/>
-    <row r="814" ht="12.6"/>
-    <row r="815" ht="12.6"/>
-    <row r="816" ht="12.6"/>
-    <row r="817" ht="12.6"/>
-    <row r="818" ht="12.6"/>
-    <row r="819" ht="12.6"/>
-    <row r="820" ht="12.6"/>
-    <row r="821" ht="12.6"/>
-    <row r="822" ht="12.6"/>
-    <row r="823" ht="12.6"/>
-    <row r="824" ht="12.6"/>
-    <row r="825" ht="12.6"/>
-    <row r="826" ht="12.6"/>
-    <row r="827" ht="12.6"/>
-    <row r="828" ht="12.6"/>
-    <row r="829" ht="12.6"/>
-    <row r="830" ht="12.6"/>
-    <row r="831" ht="12.6"/>
-    <row r="832" ht="12.6"/>
-    <row r="833" ht="12.6"/>
-    <row r="834" ht="12.6"/>
-    <row r="835" ht="12.6"/>
-    <row r="836" ht="12.6"/>
-    <row r="837" ht="12.6"/>
-    <row r="838" ht="12.6"/>
-    <row r="839" ht="12.6"/>
-    <row r="840" ht="12.6"/>
-    <row r="841" ht="12.6"/>
-    <row r="842" ht="12.6"/>
-    <row r="843" ht="12.6"/>
-    <row r="844" ht="12.6"/>
-    <row r="845" ht="12.6"/>
-    <row r="846" ht="12.6"/>
-    <row r="847" ht="12.6"/>
-    <row r="848" ht="12.6"/>
-    <row r="849" ht="12.6"/>
-    <row r="850" ht="12.6"/>
-    <row r="851" ht="12.6"/>
-    <row r="852" ht="12.6"/>
-    <row r="853" ht="12.6"/>
-    <row r="854" ht="12.6"/>
-    <row r="855" ht="12.6"/>
-    <row r="856" ht="12.6"/>
-    <row r="857" ht="12.6"/>
-    <row r="858" ht="12.6"/>
-    <row r="859" ht="12.6"/>
-    <row r="860" ht="12.6"/>
-    <row r="861" ht="12.6"/>
-    <row r="862" ht="12.6"/>
-    <row r="863" ht="12.6"/>
-    <row r="864" ht="12.6"/>
-    <row r="865" ht="12.6"/>
-    <row r="866" ht="12.6"/>
-    <row r="867" ht="12.6"/>
-    <row r="868" ht="12.6"/>
-    <row r="869" ht="12.6"/>
-    <row r="870" ht="12.6"/>
-    <row r="871" ht="12.6"/>
-    <row r="872" ht="12.6"/>
-    <row r="873" ht="12.6"/>
-    <row r="874" ht="12.6"/>
-    <row r="875" ht="12.6"/>
-    <row r="876" ht="12.6"/>
-    <row r="877" ht="12.6"/>
-    <row r="878" ht="12.6"/>
-    <row r="879" ht="12.6"/>
-    <row r="880" ht="12.6"/>
-    <row r="881" ht="12.6"/>
-    <row r="882" ht="12.6"/>
-    <row r="883" ht="12.6"/>
-    <row r="884" ht="12.6"/>
-    <row r="885" ht="12.6"/>
-    <row r="886" ht="12.6"/>
-    <row r="887" ht="12.6"/>
-    <row r="888" ht="12.6"/>
-    <row r="889" ht="12.6"/>
-    <row r="890" ht="12.6"/>
-    <row r="891" ht="12.6"/>
-    <row r="892" ht="12.6"/>
-    <row r="893" ht="12.6"/>
-    <row r="894" ht="12.6"/>
-    <row r="895" ht="12.6"/>
-    <row r="896" ht="12.6"/>
-    <row r="897" ht="12.6"/>
-    <row r="898" ht="12.6"/>
-    <row r="899" ht="12.6"/>
-    <row r="900" ht="12.6"/>
-    <row r="901" ht="12.6"/>
-    <row r="902" ht="12.6"/>
-    <row r="903" ht="12.6"/>
-    <row r="904" ht="12.6"/>
-    <row r="905" ht="12.6"/>
-    <row r="906" ht="12.6"/>
-    <row r="907" ht="12.6"/>
-    <row r="908" ht="12.6"/>
-    <row r="909" ht="12.6"/>
-    <row r="910" ht="12.6"/>
-    <row r="911" ht="12.6"/>
-    <row r="912" ht="12.6"/>
-    <row r="913" ht="12.6"/>
-    <row r="914" ht="12.6"/>
-    <row r="915" ht="12.6"/>
-    <row r="916" ht="12.6"/>
-    <row r="917" ht="12.6"/>
-    <row r="918" ht="12.6"/>
-    <row r="919" ht="12.6"/>
-    <row r="920" ht="12.6"/>
-    <row r="921" ht="12.6"/>
-    <row r="922" ht="12.6"/>
-    <row r="923" ht="12.6"/>
-    <row r="924" ht="12.6"/>
-    <row r="925" ht="12.6"/>
-    <row r="926" ht="12.6"/>
-    <row r="927" ht="12.6"/>
-    <row r="928" ht="12.6"/>
-    <row r="929" ht="12.6"/>
-    <row r="930" ht="12.6"/>
-    <row r="931" ht="12.6"/>
-    <row r="932" ht="12.6"/>
-    <row r="933" ht="12.6"/>
-    <row r="934" ht="12.6"/>
-    <row r="935" ht="12.6"/>
-    <row r="936" ht="12.6"/>
-    <row r="937" ht="12.6"/>
-    <row r="938" ht="12.6"/>
-    <row r="939" ht="12.6"/>
-    <row r="940" ht="12.6"/>
-    <row r="941" ht="12.6"/>
-    <row r="942" ht="12.6"/>
-    <row r="943" ht="12.6"/>
-    <row r="944" ht="12.6"/>
-    <row r="945" ht="12.6"/>
-    <row r="946" ht="12.6"/>
-    <row r="947" ht="12.6"/>
-    <row r="948" ht="12.6"/>
-    <row r="949" ht="12.6"/>
-    <row r="950" ht="12.6"/>
-    <row r="951" ht="12.6"/>
-    <row r="952" ht="12.6"/>
-    <row r="953" ht="12.6"/>
-    <row r="954" ht="12.6"/>
-    <row r="955" ht="12.6"/>
-    <row r="956" ht="12.6"/>
-    <row r="957" ht="12.6"/>
-    <row r="958" ht="12.6"/>
-    <row r="959" ht="12.6"/>
-    <row r="960" ht="12.6"/>
-    <row r="961" ht="12.6"/>
-    <row r="962" ht="12.6"/>
-    <row r="963" ht="12.6"/>
-    <row r="964" ht="12.6"/>
-    <row r="965" ht="12.6"/>
-    <row r="966" ht="12.6"/>
-    <row r="967" ht="12.6"/>
-    <row r="968" ht="12.6"/>
-    <row r="969" ht="12.6"/>
-    <row r="970" ht="12.6"/>
-    <row r="971" ht="12.6"/>
-    <row r="972" ht="12.6"/>
-    <row r="973" ht="12.6"/>
-    <row r="974" ht="12.6"/>
-    <row r="975" ht="12.6"/>
-    <row r="976" ht="12.6"/>
-    <row r="977" ht="12.6"/>
-    <row r="978" ht="12.6"/>
-    <row r="979" ht="12.6"/>
-    <row r="980" ht="12.6"/>
-    <row r="981" ht="12.6"/>
-    <row r="982" ht="12.6"/>
-    <row r="983" ht="12.6"/>
-    <row r="984" ht="12.6"/>
-    <row r="985" ht="12.6"/>
-    <row r="986" ht="12.6"/>
-    <row r="987" ht="12.6"/>
-    <row r="988" ht="12.6"/>
-    <row r="989" ht="12.6"/>
-    <row r="990" ht="12.6"/>
-    <row r="991" ht="12.6"/>
-    <row r="992" ht="12.6"/>
-    <row r="993" ht="12.6"/>
-    <row r="994" ht="12.6"/>
-    <row r="995" ht="12.6"/>
-    <row r="996" ht="12.6"/>
-    <row r="997" ht="12.6"/>
-    <row r="998" ht="12.6"/>
-    <row r="999" ht="12.6"/>
-    <row r="1000" ht="12.6"/>
-    <row r="1001" ht="12.6"/>
-    <row r="1002" ht="12.6"/>
-    <row r="1003" ht="12.6"/>
-    <row r="1004" ht="12.6"/>
-    <row r="1005" ht="12.6"/>
-    <row r="1006" ht="12.6"/>
-    <row r="1007" ht="12.6"/>
-    <row r="1008" ht="12.6"/>
-    <row r="1009" ht="12.6"/>
-    <row r="1010" ht="12.6"/>
-    <row r="1011" ht="12.6"/>
-    <row r="1012" ht="12.6"/>
-    <row r="1013" ht="12.6"/>
-    <row r="1014" ht="12.6"/>
-    <row r="1015" ht="12.6"/>
-    <row r="1016" ht="12.6"/>
-    <row r="1017" ht="12.6"/>
-    <row r="1018" ht="12.6"/>
-    <row r="1019" ht="12.6"/>
-    <row r="1020" ht="12.6"/>
-    <row r="1021" ht="12.6"/>
-    <row r="1022" ht="12.6"/>
-    <row r="1023" ht="12.6"/>
-    <row r="1024" ht="12.6"/>
-    <row r="1025" ht="12.6"/>
-    <row r="1026" ht="12.6"/>
-    <row r="1027" ht="12.6"/>
-    <row r="1028" ht="12.6"/>
-    <row r="1029" ht="12.6"/>
-    <row r="1030" ht="12.6"/>
-    <row r="1031" ht="12.6"/>
-    <row r="1032" ht="12.6"/>
-    <row r="1033" ht="12.6"/>
+    <row r="204" spans="2:13" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="2:13" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="2:13" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="2:13" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="2:13" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1014" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1016" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1017" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1018" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1019" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1020" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1021" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1022" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1023" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1024" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1025" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1026" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1027" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1028" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1029" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1030" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1031" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1032" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="1033" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:O1033" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="3">
